--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm.xlsx
@@ -502,31 +502,31 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>49.00692001095219</v>
+        <v>22.31943811206172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004900692001095219</v>
+        <v>0.0002231943811206172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995099307998905</v>
+        <v>0.9997768056188794</v>
       </c>
       <c r="F2" t="n">
-        <v>64.91523560903161</v>
+        <v>84.58322549067582</v>
       </c>
       <c r="G2" t="n">
         <v>100000</v>
       </c>
       <c r="H2" t="n">
-        <v>1966592.653316626</v>
+        <v>2053461.561324982</v>
       </c>
       <c r="I2" t="n">
-        <v>46.6732571532878</v>
+        <v>21.25660772577306</v>
       </c>
       <c r="J2" t="n">
-        <v>6352.730794446275</v>
+        <v>2216.116127381719</v>
       </c>
       <c r="K2" t="n">
-        <v>290820.4711208699</v>
+        <v>146356.3623868444</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +534,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99950.99307998904</v>
+        <v>99977.68056188794</v>
       </c>
       <c r="C3" t="n">
-        <v>51.90641278236354</v>
+        <v>22.35435794280574</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005193186298891872</v>
+        <v>0.0002235934842373943</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994806813701108</v>
+        <v>0.9997764065157626</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94681901007349</v>
+        <v>83.60199658375434</v>
       </c>
       <c r="G3" t="n">
-        <v>95191.42198094194</v>
+        <v>95216.83863036947</v>
       </c>
       <c r="H3" t="n">
-        <v>1866592.653316626</v>
+        <v>1953461.561324982</v>
       </c>
       <c r="I3" t="n">
-        <v>47.08064651461545</v>
+        <v>20.27606162612765</v>
       </c>
       <c r="J3" t="n">
-        <v>6306.057537292987</v>
+        <v>2194.859519655945</v>
       </c>
       <c r="K3" t="n">
-        <v>284467.7403264236</v>
+        <v>144140.2462594627</v>
       </c>
     </row>
     <row r="4">
@@ -569,34 +569,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99899.08666720668</v>
+        <v>99955.32620394514</v>
       </c>
       <c r="C4" t="n">
-        <v>55.02050211614402</v>
+        <v>22.39419878504163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000550760812252804</v>
+        <v>0.0002240420759505035</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994492391877472</v>
+        <v>0.9997759579240495</v>
       </c>
       <c r="F4" t="n">
-        <v>62.97978524517268</v>
+        <v>82.6205818042518</v>
       </c>
       <c r="G4" t="n">
-        <v>90611.416478192</v>
+        <v>90662.4273958686</v>
       </c>
       <c r="H4" t="n">
-        <v>1771401.231335684</v>
+        <v>1858244.722694613</v>
       </c>
       <c r="I4" t="n">
-        <v>47.52877841800584</v>
+        <v>19.34495089950686</v>
       </c>
       <c r="J4" t="n">
-        <v>6258.976890778372</v>
+        <v>2174.583458029818</v>
       </c>
       <c r="K4" t="n">
-        <v>278161.6827891306</v>
+        <v>141945.3867398067</v>
       </c>
     </row>
     <row r="5">
@@ -604,34 +604,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99844.06616509054</v>
+        <v>99932.9320051601</v>
       </c>
       <c r="C5" t="n">
-        <v>58.36485282003648</v>
+        <v>22.43956940998252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005845600551116492</v>
+        <v>0.0002245462927958908</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994154399448884</v>
+        <v>0.9997754537072041</v>
       </c>
       <c r="F5" t="n">
-        <v>62.01421562534783</v>
+        <v>81.63898439283163</v>
       </c>
       <c r="G5" t="n">
-        <v>86249.0583436696</v>
+        <v>86325.82399754676</v>
       </c>
       <c r="H5" t="n">
-        <v>1680789.814857492</v>
+        <v>1767582.295298744</v>
       </c>
       <c r="I5" t="n">
-        <v>48.01690885590795</v>
+        <v>18.46108928685683</v>
       </c>
       <c r="J5" t="n">
-        <v>6211.448112360365</v>
+        <v>2155.238507130311</v>
       </c>
       <c r="K5" t="n">
-        <v>271902.7058983522</v>
+        <v>139770.8032817769</v>
       </c>
     </row>
     <row r="6">
@@ -639,34 +639,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99785.7013122705</v>
+        <v>99910.49243575011</v>
       </c>
       <c r="C6" t="n">
-        <v>61.95624008843515</v>
+        <v>22.49115390344323</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006208929663634732</v>
+        <v>0.0002251130322263872</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993791070336365</v>
+        <v>0.9997748869677736</v>
       </c>
       <c r="F6" t="n">
-        <v>61.05019541096939</v>
+        <v>80.6572079430089</v>
       </c>
       <c r="G6" t="n">
-        <v>82093.94341844847</v>
+        <v>82196.60938456721</v>
       </c>
       <c r="H6" t="n">
-        <v>1594540.756513823</v>
+        <v>1681256.471301198</v>
       </c>
       <c r="I6" t="n">
-        <v>48.54433528529105</v>
+        <v>17.62240759741699</v>
       </c>
       <c r="J6" t="n">
-        <v>6163.431203504459</v>
+        <v>2136.777417843454</v>
       </c>
       <c r="K6" t="n">
-        <v>265691.2577859919</v>
+        <v>137615.5647746466</v>
       </c>
     </row>
     <row r="7">
@@ -674,34 +674,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99723.74507218206</v>
+        <v>99888.00128184668</v>
       </c>
       <c r="C7" t="n">
-        <v>65.81262301335532</v>
+        <v>22.54972098039627</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006599493727970085</v>
+        <v>0.0002257500469627916</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999340050627203</v>
+        <v>0.9997742499530372</v>
       </c>
       <c r="F7" t="n">
-        <v>60.08781395850356</v>
+        <v>79.6752564380952</v>
       </c>
       <c r="G7" t="n">
-        <v>78136.16368228468</v>
+        <v>78264.86272056182</v>
       </c>
       <c r="H7" t="n">
-        <v>1512446.813095374</v>
+        <v>1599059.861916631</v>
       </c>
       <c r="I7" t="n">
-        <v>49.11039258560777</v>
+        <v>16.82694898543168</v>
       </c>
       <c r="J7" t="n">
-        <v>6114.886868219166</v>
+        <v>2119.155010246037</v>
       </c>
       <c r="K7" t="n">
-        <v>259527.8265824874</v>
+        <v>135478.7873568031</v>
       </c>
     </row>
     <row r="8">
@@ -709,34 +709,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99657.93244916871</v>
+        <v>99865.45156086628</v>
       </c>
       <c r="C8" t="n">
-        <v>69.95322212839608</v>
+        <v>22.61613445053062</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0007019333073569056</v>
+        <v>0.0002264660510421512</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9992980666926431</v>
+        <v>0.9997735339489578</v>
       </c>
       <c r="F8" t="n">
-        <v>59.12716486856024</v>
+        <v>78.69313429188074</v>
       </c>
       <c r="G8" t="n">
-        <v>74366.28359054265</v>
+        <v>74521.13754678772</v>
       </c>
       <c r="H8" t="n">
-        <v>1434310.64941309</v>
+        <v>1520794.999196068</v>
       </c>
       <c r="I8" t="n">
-        <v>49.71444894909636</v>
+        <v>16.07286451370476</v>
       </c>
       <c r="J8" t="n">
-        <v>6065.776475633559</v>
+        <v>2102.328061260605</v>
       </c>
       <c r="K8" t="n">
-        <v>253412.9397142683</v>
+        <v>133359.6323465571</v>
       </c>
     </row>
     <row r="9">
@@ -744,34 +744,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99587.97922704031</v>
+        <v>99842.83542641575</v>
       </c>
       <c r="C9" t="n">
-        <v>74.39860106511503</v>
+        <v>22.69136497701727</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007470640698060693</v>
+        <v>0.0002272708390151923</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992529359301939</v>
+        <v>0.9997727291609848</v>
       </c>
       <c r="F9" t="n">
-        <v>58.1683461347998</v>
+        <v>77.71084639341211</v>
       </c>
       <c r="G9" t="n">
-        <v>70775.31754204389</v>
+        <v>70956.43908480793</v>
       </c>
       <c r="H9" t="n">
-        <v>1359944.365822547</v>
+        <v>1446273.861649281</v>
       </c>
       <c r="I9" t="n">
-        <v>50.35590168073924</v>
+        <v>15.35840899460446</v>
       </c>
       <c r="J9" t="n">
-        <v>6016.062026684463</v>
+        <v>2086.2551967469</v>
       </c>
       <c r="K9" t="n">
-        <v>247347.1632386347</v>
+        <v>131257.3042852965</v>
       </c>
     </row>
     <row r="10">
@@ -779,34 +779,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99513.5806259752</v>
+        <v>99820.14406143874</v>
       </c>
       <c r="C10" t="n">
-        <v>79.17075237488798</v>
+        <v>22.77650328805234</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007955773661934007</v>
+        <v>0.000228175419923593</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992044226338066</v>
+        <v>0.9997718245800764</v>
       </c>
       <c r="F10" t="n">
-        <v>57.21146029320089</v>
+        <v>76.72839815625687</v>
       </c>
       <c r="G10" t="n">
-        <v>67354.70842407535</v>
+        <v>67562.20262415582</v>
       </c>
       <c r="H10" t="n">
-        <v>1289169.048280503</v>
+        <v>1375317.422564473</v>
       </c>
       <c r="I10" t="n">
-        <v>51.03417288452412</v>
+        <v>14.68193709974251</v>
       </c>
       <c r="J10" t="n">
-        <v>5965.706125003724</v>
+        <v>2070.896787752296</v>
       </c>
       <c r="K10" t="n">
-        <v>241331.1012119502</v>
+        <v>129171.0490885496</v>
       </c>
     </row>
     <row r="11">
@@ -814,34 +814,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99434.40987360031</v>
+        <v>99797.36755815068</v>
       </c>
       <c r="C11" t="n">
-        <v>84.29318753489261</v>
+        <v>22.87277502014301</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0008477265329179806</v>
+        <v>0.0002291921678877484</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999152273467082</v>
+        <v>0.9997708078321123</v>
       </c>
       <c r="F11" t="n">
-        <v>56.25661457113546</v>
+        <v>75.74579557267909</v>
       </c>
       <c r="G11" t="n">
-        <v>64096.30718337771</v>
+        <v>64330.27294304865</v>
       </c>
       <c r="H11" t="n">
-        <v>1221814.339856428</v>
+        <v>1307755.219940317</v>
       </c>
       <c r="I11" t="n">
-        <v>51.74870501086727</v>
+        <v>14.04189973012179</v>
       </c>
       <c r="J11" t="n">
-        <v>5914.671952119199</v>
+        <v>2056.214850652554</v>
       </c>
       <c r="K11" t="n">
-        <v>235365.3950869465</v>
+        <v>127100.1523007973</v>
       </c>
     </row>
     <row r="12">
@@ -849,34 +849,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99350.11668606542</v>
+        <v>99774.49478313055</v>
       </c>
       <c r="C12" t="n">
-        <v>89.79103111581155</v>
+        <v>22.98155739431296</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0009037838516037233</v>
+        <v>0.0002303349913649333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9990962161483963</v>
+        <v>0.9997696650086351</v>
       </c>
       <c r="F12" t="n">
-        <v>55.30392103563822</v>
+        <v>74.76304527318707</v>
       </c>
       <c r="G12" t="n">
-        <v>60992.35337439647</v>
+        <v>61252.88471269716</v>
       </c>
       <c r="H12" t="n">
-        <v>1157718.03267305</v>
+        <v>1243424.946997268</v>
       </c>
       <c r="I12" t="n">
-        <v>52.49895623913086</v>
+        <v>13.43684063940605</v>
       </c>
       <c r="J12" t="n">
-        <v>5862.923247108332</v>
+        <v>2042.172950922432</v>
       </c>
       <c r="K12" t="n">
-        <v>229450.7231348273</v>
+        <v>125043.9374501448</v>
       </c>
     </row>
     <row r="13">
@@ -884,34 +884,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99260.32565494961</v>
+        <v>99751.51322573623</v>
       </c>
       <c r="C13" t="n">
-        <v>95.69111903743399</v>
+        <v>23.10439795118749</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000964041961438622</v>
+        <v>0.0002316195233941221</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990359580385614</v>
+        <v>0.9997683804766059</v>
       </c>
       <c r="F13" t="n">
-        <v>54.35349674019601</v>
+        <v>73.78015459195359</v>
       </c>
       <c r="G13" t="n">
-        <v>58035.45663842418</v>
+        <v>58322.64383811979</v>
       </c>
       <c r="H13" t="n">
-        <v>1096725.679298654</v>
+        <v>1182172.062284571</v>
       </c>
       <c r="I13" t="n">
-        <v>53.28439566732622</v>
+        <v>12.86539330368613</v>
       </c>
       <c r="J13" t="n">
-        <v>5810.424290869201</v>
+        <v>2028.736110283026</v>
       </c>
       <c r="K13" t="n">
-        <v>223587.799887719</v>
+        <v>123001.7644992223</v>
       </c>
     </row>
     <row r="14">
@@ -919,34 +919,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99164.63453591218</v>
+        <v>99728.40882778504</v>
       </c>
       <c r="C14" t="n">
-        <v>102.0221007768414</v>
+        <v>23.24303559801488</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00102881537610966</v>
+        <v>0.0002330633354248324</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9989711846238903</v>
+        <v>0.9997669366645752</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40546386931685</v>
+        <v>72.79713163864989</v>
       </c>
       <c r="G14" t="n">
-        <v>55218.57906949856</v>
+        <v>55532.50969061992</v>
       </c>
       <c r="H14" t="n">
-        <v>1038690.222660229</v>
+        <v>1123849.418446451</v>
       </c>
       <c r="I14" t="n">
-        <v>54.10449827964489</v>
+        <v>12.32627803143591</v>
       </c>
       <c r="J14" t="n">
-        <v>5757.139895201875</v>
+        <v>2015.87071697934</v>
       </c>
       <c r="K14" t="n">
-        <v>217777.3755968498</v>
+        <v>120973.0283889393</v>
       </c>
     </row>
     <row r="15">
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99062.61243513534</v>
+        <v>99705.16579218702</v>
       </c>
       <c r="C15" t="n">
-        <v>108.8145453199246</v>
+        <v>23.3994242525571</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001098442112973497</v>
+        <v>0.0002346861776583165</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989015578870265</v>
+        <v>0.9997653138223417</v>
       </c>
       <c r="F15" t="n">
-        <v>52.45994988007146</v>
+        <v>71.81398537727979</v>
       </c>
       <c r="G15" t="n">
-        <v>52535.01842505231</v>
+        <v>52875.77818922562</v>
       </c>
       <c r="H15" t="n">
-        <v>983471.6435907306</v>
+        <v>1068316.908755831</v>
       </c>
       <c r="I15" t="n">
-        <v>54.95873966087241</v>
+        <v>11.8182993085127</v>
       </c>
       <c r="J15" t="n">
-        <v>5703.035396922231</v>
+        <v>2003.544438947904</v>
       </c>
       <c r="K15" t="n">
-        <v>212020.2357016479</v>
+        <v>118957.15767196</v>
       </c>
     </row>
     <row r="16">
@@ -989,34 +989,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>98953.79788981541</v>
+        <v>99681.76636793447</v>
       </c>
       <c r="C16" t="n">
-        <v>116.1010505579682</v>
+        <v>23.57575940281763</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00117328544263906</v>
+        <v>0.0002365102491843629</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9988267145573609</v>
+        <v>0.9997634897508156</v>
       </c>
       <c r="F16" t="n">
-        <v>51.51708763972916</v>
+        <v>70.83072571264688</v>
       </c>
       <c r="G16" t="n">
-        <v>49978.39214134132</v>
+        <v>50346.06569043018</v>
       </c>
       <c r="H16" t="n">
-        <v>930936.6251656783</v>
+        <v>1015441.130566606</v>
       </c>
       <c r="I16" t="n">
-        <v>55.84659042470685</v>
+        <v>11.34034337323423</v>
       </c>
       <c r="J16" t="n">
-        <v>5648.076657261357</v>
+        <v>1991.726139639391</v>
       </c>
       <c r="K16" t="n">
-        <v>206317.2003047257</v>
+        <v>116953.6132330121</v>
       </c>
     </row>
     <row r="17">
@@ -1024,34 +1024,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98837.69683925745</v>
+        <v>99658.19060853166</v>
       </c>
       <c r="C17" t="n">
-        <v>123.9163557265999</v>
+        <v>23.7745079408261</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001253735767721587</v>
+        <v>0.000238560501607088</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9987462642322784</v>
+        <v>0.9997614394983929</v>
       </c>
       <c r="F17" t="n">
-        <v>50.57701555853745</v>
+        <v>69.84736358513787</v>
       </c>
       <c r="G17" t="n">
-        <v>47542.62211561465</v>
+        <v>47937.29364751265</v>
       </c>
       <c r="H17" t="n">
-        <v>880958.2330243371</v>
+        <v>965095.0648761755</v>
       </c>
       <c r="I17" t="n">
-        <v>56.76751032154039</v>
+        <v>10.89137601736847</v>
       </c>
       <c r="J17" t="n">
-        <v>5592.230066836652</v>
+        <v>1980.385796266157</v>
       </c>
       <c r="K17" t="n">
-        <v>200669.1236474643</v>
+        <v>114961.8870933727</v>
       </c>
     </row>
     <row r="18">
@@ -1059,34 +1059,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98713.78048353085</v>
+        <v>99634.41610059084</v>
       </c>
       <c r="C18" t="n">
-        <v>132.2974563594035</v>
+        <v>23.99844167239508</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00134021264013362</v>
+        <v>0.0002408649803112839</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9986597873598664</v>
+        <v>0.9997591350196887</v>
       </c>
       <c r="F18" t="n">
-        <v>49.63987771661997</v>
+        <v>68.86391107455724</v>
       </c>
       <c r="G18" t="n">
-        <v>45221.92021883526</v>
+        <v>45643.67400256611</v>
       </c>
       <c r="H18" t="n">
-        <v>833415.6109087224</v>
+        <v>917157.7712286628</v>
       </c>
       <c r="I18" t="n">
-        <v>57.72094198894966</v>
+        <v>10.47044060948833</v>
       </c>
       <c r="J18" t="n">
-        <v>5535.462556515111</v>
+        <v>1969.494420248789</v>
       </c>
       <c r="K18" t="n">
-        <v>195076.8935806277</v>
+        <v>112981.5012971065</v>
       </c>
     </row>
     <row r="19">
@@ -1094,34 +1094,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98581.48302717145</v>
+        <v>99610.41765891845</v>
       </c>
       <c r="C19" t="n">
-        <v>141.2837210832127</v>
+        <v>24.2506749535094</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001433166926939733</v>
+        <v>0.000243455208034038</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9985668330730603</v>
+        <v>0.999756544791966</v>
       </c>
       <c r="F19" t="n">
-        <v>48.70582398389137</v>
+        <v>67.88038151380422</v>
       </c>
       <c r="G19" t="n">
-        <v>43010.77450452083</v>
+        <v>43459.69527612014</v>
       </c>
       <c r="H19" t="n">
-        <v>788193.6906898872</v>
+        <v>871514.0972260968</v>
       </c>
       <c r="I19" t="n">
-        <v>58.70630430661134</v>
+        <v>10.07665633766069</v>
       </c>
       <c r="J19" t="n">
-        <v>5477.741614526161</v>
+        <v>1959.0239796393</v>
       </c>
       <c r="K19" t="n">
-        <v>189541.4310241126</v>
+        <v>111012.0068768577</v>
       </c>
     </row>
     <row r="20">
@@ -1129,34 +1129,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98440.19930608824</v>
+        <v>99586.16698396494</v>
       </c>
       <c r="C20" t="n">
-        <v>150.9170094103234</v>
+        <v>24.53470695862222</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001533083135488833</v>
+        <v>0.0002463666159836508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9984669168645112</v>
+        <v>0.9997536333840163</v>
       </c>
       <c r="F20" t="n">
-        <v>47.77501013180996</v>
+        <v>66.89678961324034</v>
       </c>
       <c r="G20" t="n">
-        <v>40903.93608095132</v>
+        <v>41380.10932091961</v>
       </c>
       <c r="H20" t="n">
-        <v>745182.9161853663</v>
+        <v>828054.4019499766</v>
       </c>
       <c r="I20" t="n">
-        <v>59.72298531506633</v>
+        <v>9.709216668979517</v>
       </c>
       <c r="J20" t="n">
-        <v>5419.03531021955</v>
+        <v>1948.947323301639</v>
       </c>
       <c r="K20" t="n">
-        <v>184063.6894095864</v>
+        <v>109052.9828972184</v>
       </c>
     </row>
     <row r="21">
@@ -1164,34 +1164,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98289.28229667792</v>
+        <v>99561.63227700631</v>
       </c>
       <c r="C21" t="n">
-        <v>161.2417894842527</v>
+        <v>24.85446914740906</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001640481909284452</v>
+        <v>0.000249639028398585</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9983595180907155</v>
+        <v>0.9997503609716014</v>
       </c>
       <c r="F21" t="n">
-        <v>46.84759793571111</v>
+        <v>65.91315159665604</v>
       </c>
       <c r="G21" t="n">
-        <v>38896.40661559095</v>
+        <v>39399.91870801636</v>
       </c>
       <c r="H21" t="n">
-        <v>704278.980104415</v>
+        <v>786674.292629057</v>
       </c>
       <c r="I21" t="n">
-        <v>60.77033465623719</v>
+        <v>9.367388024049939</v>
       </c>
       <c r="J21" t="n">
-        <v>5359.312324904484</v>
+        <v>1939.23810663266</v>
       </c>
       <c r="K21" t="n">
-        <v>178644.6540993668</v>
+        <v>107104.0355739168</v>
       </c>
     </row>
     <row r="22">
@@ -1199,34 +1199,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98128.04050719367</v>
+        <v>99536.7778078589</v>
       </c>
       <c r="C22" t="n">
-        <v>172.3052545031633</v>
+        <v>25.21437856469267</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00175592270682845</v>
+        <v>0.0002533172071670364</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9982440772931716</v>
+        <v>0.999746682792833</v>
       </c>
       <c r="F22" t="n">
-        <v>45.92375526638664</v>
+        <v>64.92948534980736</v>
       </c>
       <c r="G22" t="n">
-        <v>36983.42644209704</v>
+        <v>37514.36471484867</v>
       </c>
       <c r="H22" t="n">
-        <v>665382.5734888241</v>
+        <v>747274.3739210407</v>
       </c>
       <c r="I22" t="n">
-        <v>61.84765549142659</v>
+        <v>9.050508664962937</v>
       </c>
       <c r="J22" t="n">
-        <v>5298.541990248246</v>
+        <v>1929.87071860861</v>
       </c>
       <c r="K22" t="n">
-        <v>173285.3417744623</v>
+        <v>105164.7974672841</v>
       </c>
     </row>
     <row r="23">
@@ -1234,34 +1234,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97955.7352526905</v>
+        <v>99511.56342929421</v>
       </c>
       <c r="C23" t="n">
-        <v>184.1574362774502</v>
+        <v>25.61939768475418</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001880006676509449</v>
+        <v>0.0002574514639492875</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9981199933234906</v>
+        <v>0.9997425485360507</v>
       </c>
       <c r="F23" t="n">
-        <v>45.00365616949839</v>
+        <v>63.94581058255775</v>
       </c>
       <c r="G23" t="n">
-        <v>35160.46324174386</v>
+        <v>35718.91588642901</v>
       </c>
       <c r="H23" t="n">
-        <v>628399.1470467269</v>
+        <v>709760.0092061919</v>
       </c>
       <c r="I23" t="n">
-        <v>62.95419585108905</v>
+        <v>8.757987795850106</v>
       </c>
       <c r="J23" t="n">
-        <v>5236.694334756819</v>
+        <v>1920.820209943647</v>
       </c>
       <c r="K23" t="n">
-        <v>167986.7997842141</v>
+        <v>103234.9267486755</v>
       </c>
     </row>
     <row r="24">
@@ -1269,34 +1269,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97771.57781641305</v>
+        <v>99485.94403160946</v>
       </c>
       <c r="C24" t="n">
-        <v>196.8513140686087</v>
+        <v>26.07510159630244</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002013379741485188</v>
+        <v>0.0002620983481648187</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9979866202585148</v>
+        <v>0.9997379016518352</v>
       </c>
       <c r="F24" t="n">
-        <v>44.08748093133803</v>
+        <v>62.96214900572465</v>
       </c>
       <c r="G24" t="n">
-        <v>33423.20127247638</v>
+        <v>34009.25714213654</v>
       </c>
       <c r="H24" t="n">
-        <v>593238.683804983</v>
+        <v>674041.093319763</v>
       </c>
       <c r="I24" t="n">
-        <v>64.08913936912944</v>
+        <v>8.489304875491952</v>
       </c>
       <c r="J24" t="n">
-        <v>5173.74013890573</v>
+        <v>1912.062222147797</v>
       </c>
       <c r="K24" t="n">
-        <v>162750.1054494573</v>
+        <v>101314.1065387319</v>
       </c>
     </row>
     <row r="25">
@@ -1304,34 +1304,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97574.72650234443</v>
+        <v>99459.86893001315</v>
       </c>
       <c r="C25" t="n">
-        <v>210.442916500937</v>
+        <v>26.58775341928814</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002156735909435326</v>
+        <v>0.0002673214202403296</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9978432640905647</v>
+        <v>0.9997326785797597</v>
       </c>
       <c r="F25" t="n">
-        <v>43.17541612937382</v>
+        <v>61.97852452379811</v>
       </c>
       <c r="G25" t="n">
-        <v>31767.53112013219</v>
+        <v>32381.27940192121</v>
       </c>
       <c r="H25" t="n">
-        <v>559815.4825325067</v>
+        <v>640031.8361776264</v>
       </c>
       <c r="I25" t="n">
-        <v>65.25159535323171</v>
+        <v>8.244009141829055</v>
       </c>
       <c r="J25" t="n">
-        <v>5109.650999536601</v>
+        <v>1903.572917272305</v>
       </c>
       <c r="K25" t="n">
-        <v>157576.3653105515</v>
+        <v>99402.04431658407</v>
       </c>
     </row>
     <row r="26">
@@ -1339,34 +1339,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97364.2835858435</v>
+        <v>99433.28117659387</v>
       </c>
       <c r="C26" t="n">
-        <v>224.9914139311025</v>
+        <v>27.16438895084848</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002310820823045789</v>
+        <v>0.0002731921206804433</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9976891791769542</v>
+        <v>0.9997268078793196</v>
       </c>
       <c r="F26" t="n">
-        <v>42.26765466595422</v>
+        <v>60.99496344476378</v>
       </c>
       <c r="G26" t="n">
-        <v>30189.5399476298</v>
+        <v>30831.06970697361</v>
       </c>
       <c r="H26" t="n">
-        <v>528047.9514123745</v>
+        <v>607650.5567757052</v>
       </c>
       <c r="I26" t="n">
-        <v>66.44058814205299</v>
+        <v>8.021719348661613</v>
       </c>
       <c r="J26" t="n">
-        <v>5044.39940418337</v>
+        <v>1895.328908130476</v>
       </c>
       <c r="K26" t="n">
-        <v>152466.7143110149</v>
+        <v>97498.47139931175</v>
       </c>
     </row>
     <row r="27">
@@ -1374,34 +1374,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97139.2921719124</v>
+        <v>99406.11678764303</v>
       </c>
       <c r="C27" t="n">
-        <v>240.5591981962598</v>
+        <v>27.8129116548381</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002476435568117274</v>
+        <v>0.0002797907468234939</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9975235644318827</v>
+        <v>0.9997202092531765</v>
       </c>
       <c r="F27" t="n">
-        <v>41.3643957834749</v>
+        <v>60.01149470832869</v>
       </c>
       <c r="G27" t="n">
-        <v>28685.50221912442</v>
+        <v>29354.90181110239</v>
       </c>
       <c r="H27" t="n">
-        <v>497858.4114647447</v>
+        <v>576819.4870687316</v>
       </c>
       <c r="I27" t="n">
-        <v>67.65504569975879</v>
+        <v>7.822123714913022</v>
       </c>
       <c r="J27" t="n">
-        <v>4977.958816041317</v>
+        <v>1887.307188781814</v>
       </c>
       <c r="K27" t="n">
-        <v>147422.3149068316</v>
+        <v>95603.14249118128</v>
       </c>
     </row>
     <row r="28">
@@ -1409,34 +1409,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>96898.73297371613</v>
+        <v>99378.30387598819</v>
       </c>
       <c r="C28" t="n">
-        <v>257.2119461341318</v>
+        <v>28.54219924085526</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002654440757279053</v>
+        <v>0.0002872075506186178</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9973455592427209</v>
+        <v>0.9997127924493814</v>
       </c>
       <c r="F28" t="n">
-        <v>40.46584505925763</v>
+        <v>59.02815013391167</v>
       </c>
       <c r="G28" t="n">
-        <v>27251.87087727588</v>
+        <v>27949.22722019213</v>
       </c>
       <c r="H28" t="n">
-        <v>469172.9092456203</v>
+        <v>547464.5852576292</v>
       </c>
       <c r="I28" t="n">
-        <v>68.89378739880681</v>
+        <v>7.644980087232934</v>
       </c>
       <c r="J28" t="n">
-        <v>4910.303770341558</v>
+        <v>1879.485065066901</v>
       </c>
       <c r="K28" t="n">
-        <v>142444.3560907902</v>
+        <v>93715.83530239947</v>
       </c>
     </row>
     <row r="29">
@@ -1444,34 +1444,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96641.521027582</v>
+        <v>99349.76167674734</v>
       </c>
       <c r="C29" t="n">
-        <v>275.0186626715865</v>
+        <v>29.36222322318767</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002845760908430806</v>
+        <v>0.0002955439724025011</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9971542390915692</v>
+        <v>0.9997044560275975</v>
       </c>
       <c r="F29" t="n">
-        <v>39.57221437833791</v>
+        <v>58.04496468982128</v>
       </c>
       <c r="G29" t="n">
-        <v>25885.26895286393</v>
+        <v>26610.66665819098</v>
       </c>
       <c r="H29" t="n">
-        <v>441921.0383683444</v>
+        <v>519515.358037437</v>
       </c>
       <c r="I29" t="n">
-        <v>70.15551094312171</v>
+        <v>7.490116316610049</v>
       </c>
       <c r="J29" t="n">
-        <v>4841.409982942751</v>
+        <v>1871.840084979668</v>
       </c>
       <c r="K29" t="n">
-        <v>137534.0523204487</v>
+        <v>91836.35023733258</v>
       </c>
     </row>
     <row r="30">
@@ -1479,34 +1479,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96366.50236491041</v>
+        <v>99320.39945352415</v>
       </c>
       <c r="C30" t="n">
-        <v>294.0516986056635</v>
+        <v>30.28418301100979</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003051389138231664</v>
+        <v>0.0003049140275073192</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9969486108617683</v>
+        <v>0.9996950859724927</v>
       </c>
       <c r="F30" t="n">
-        <v>38.68372188231744</v>
+        <v>57.0619767850997</v>
       </c>
       <c r="G30" t="n">
-        <v>24582.48158702253</v>
+        <v>25336.00193910337</v>
       </c>
       <c r="H30" t="n">
-        <v>416035.7694154806</v>
+        <v>492904.6913792461</v>
       </c>
       <c r="I30" t="n">
-        <v>71.43877838611468</v>
+        <v>7.357430849700246</v>
       </c>
       <c r="J30" t="n">
-        <v>4771.254471999629</v>
+        <v>1864.349968663058</v>
       </c>
       <c r="K30" t="n">
-        <v>132692.642337506</v>
+        <v>89964.51015235289</v>
       </c>
     </row>
     <row r="31">
@@ -1514,34 +1514,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96072.45066630475</v>
+        <v>99290.11527051314</v>
       </c>
       <c r="C31" t="n">
-        <v>314.3867374461265</v>
+        <v>31.32065625881824</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003272392192201989</v>
+        <v>0.0003154458646108527</v>
       </c>
       <c r="E31" t="n">
-        <v>0.996727607807798</v>
+        <v>0.9996845541353891</v>
       </c>
       <c r="F31" t="n">
-        <v>37.80059189240577</v>
+        <v>56.07922858556098</v>
       </c>
       <c r="G31" t="n">
-        <v>23340.44844734963</v>
+        <v>24122.16822543923</v>
       </c>
       <c r="H31" t="n">
-        <v>391453.287828458</v>
+        <v>467568.6894401427</v>
       </c>
       <c r="I31" t="n">
-        <v>72.74200120152376</v>
+        <v>7.246893535392489</v>
       </c>
       <c r="J31" t="n">
-        <v>4699.815693613515</v>
+        <v>1856.992537813358</v>
       </c>
       <c r="K31" t="n">
-        <v>127921.3878655063</v>
+        <v>88100.16018368983</v>
       </c>
     </row>
     <row r="32">
@@ -1549,34 +1549,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>95758.06392885862</v>
+        <v>99258.79461425432</v>
       </c>
       <c r="C32" t="n">
-        <v>336.1027448465826</v>
+        <v>32.48576740163715</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003509915834308042</v>
+        <v>0.0003272835170715638</v>
       </c>
       <c r="E32" t="n">
-        <v>0.996490084165692</v>
+        <v>0.9996727164829284</v>
       </c>
       <c r="F32" t="n">
-        <v>36.9230548047572</v>
+        <v>55.09676635559359</v>
       </c>
       <c r="G32" t="n">
-        <v>22156.25652008383</v>
+        <v>22966.24665450196</v>
       </c>
       <c r="H32" t="n">
-        <v>368112.8393811084</v>
+        <v>443446.5212147034</v>
       </c>
       <c r="I32" t="n">
-        <v>74.06342437031718</v>
+        <v>7.158546646684226</v>
       </c>
       <c r="J32" t="n">
-        <v>4627.07369241199</v>
+        <v>1849.745644277966</v>
       </c>
       <c r="K32" t="n">
-        <v>123221.5721718928</v>
+        <v>86243.16764587647</v>
       </c>
     </row>
     <row r="33">
@@ -1584,34 +1584,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95421.96118401205</v>
+        <v>99226.30884685268</v>
       </c>
       <c r="C33" t="n">
-        <v>359.2818732151223</v>
+        <v>33.79537651488049</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003765190620241832</v>
+        <v>0.0003405888711132121</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9962348093797582</v>
+        <v>0.9996594111288868</v>
       </c>
       <c r="F33" t="n">
-        <v>36.05134695620406</v>
+        <v>54.11464082732716</v>
       </c>
       <c r="G33" t="n">
-        <v>21027.13326142381</v>
+        <v>21865.45731478375</v>
       </c>
       <c r="H33" t="n">
-        <v>345956.5828610246</v>
+        <v>420480.2745602015</v>
       </c>
       <c r="I33" t="n">
-        <v>75.40110945379806</v>
+        <v>7.092506117348881</v>
       </c>
       <c r="J33" t="n">
-        <v>4553.010268041673</v>
+        <v>1842.587097631281</v>
       </c>
       <c r="K33" t="n">
-        <v>118594.4984794808</v>
+        <v>84393.42200159852</v>
       </c>
     </row>
     <row r="34">
@@ -1619,34 +1619,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95062.67931079693</v>
+        <v>99192.5134703378</v>
       </c>
       <c r="C34" t="n">
-        <v>384.0093130637121</v>
+        <v>35.26729087461567</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004039538080009675</v>
+        <v>0.000355543877665343</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9959604619199903</v>
+        <v>0.9996444561223347</v>
       </c>
       <c r="F34" t="n">
-        <v>35.18571045849907</v>
+        <v>53.13290759878075</v>
       </c>
       <c r="G34" t="n">
-        <v>19950.44009190221</v>
+        <v>20817.15255558146</v>
       </c>
       <c r="H34" t="n">
-        <v>324929.4495996007</v>
+        <v>398614.8172454177</v>
       </c>
       <c r="I34" t="n">
-        <v>76.75291663256256</v>
+        <v>7.048962991964226</v>
       </c>
       <c r="J34" t="n">
-        <v>4477.609158587875</v>
+        <v>1835.494591513932</v>
       </c>
       <c r="K34" t="n">
-        <v>114041.4882114392</v>
+        <v>82550.83490396722</v>
       </c>
     </row>
     <row r="35">
@@ -1654,34 +1654,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>94678.66999773322</v>
+        <v>99157.24617946318</v>
       </c>
       <c r="C35" t="n">
-        <v>410.3730815235289</v>
+        <v>36.92150185147593</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004334377336873807</v>
+        <v>0.0003723530379681206</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9956656226631262</v>
+        <v>0.9996276469620319</v>
       </c>
       <c r="F35" t="n">
-        <v>34.32639299920876</v>
+        <v>52.15162756260975</v>
       </c>
       <c r="G35" t="n">
-        <v>18923.6662185124</v>
+        <v>19818.81061375228</v>
       </c>
       <c r="H35" t="n">
-        <v>304979.0095076986</v>
+        <v>377797.6646898363</v>
       </c>
       <c r="I35" t="n">
-        <v>78.11648570293771</v>
+        <v>7.028185086614757</v>
       </c>
       <c r="J35" t="n">
-        <v>4400.856241955313</v>
+        <v>1828.445628521968</v>
       </c>
       <c r="K35" t="n">
-        <v>109563.8790528513</v>
+        <v>80715.34031245329</v>
       </c>
     </row>
     <row r="36">
@@ -1689,34 +1689,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94268.29691620969</v>
+        <v>99120.3246776117</v>
       </c>
       <c r="C36" t="n">
-        <v>438.4637372224547</v>
+        <v>38.78045005121562</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004651232191159482</v>
+        <v>0.0003912461967547909</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9953487678088405</v>
+        <v>0.9996087538032452</v>
       </c>
       <c r="F36" t="n">
-        <v>33.47364760744942</v>
+        <v>51.17086736704832</v>
       </c>
       <c r="G36" t="n">
-        <v>17944.42277002316</v>
+        <v>18868.02954229651</v>
       </c>
       <c r="H36" t="n">
-        <v>286055.3432891861</v>
+        <v>357978.854076084</v>
       </c>
       <c r="I36" t="n">
-        <v>79.48921603781611</v>
+        <v>7.030518855886236</v>
       </c>
       <c r="J36" t="n">
-        <v>4322.739756252375</v>
+        <v>1821.417443435353</v>
       </c>
       <c r="K36" t="n">
-        <v>105163.022810896</v>
+        <v>78886.89468393133</v>
       </c>
     </row>
     <row r="37">
@@ -1724,34 +1724,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>93829.83317898723</v>
+        <v>99081.54422756049</v>
       </c>
       <c r="C37" t="n">
-        <v>468.3740093939981</v>
+        <v>40.86932191748133</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004991738698933212</v>
+        <v>0.000412481680984067</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9950082613010668</v>
+        <v>0.9995875183190159</v>
       </c>
       <c r="F37" t="n">
-        <v>32.62773238272808</v>
+        <v>50.19069991059918</v>
       </c>
       <c r="G37" t="n">
-        <v>17010.43723160328</v>
+        <v>17962.52142618841</v>
       </c>
       <c r="H37" t="n">
-        <v>268110.920519163</v>
+        <v>339110.8245337875</v>
       </c>
       <c r="I37" t="n">
-        <v>80.86824553787471</v>
+        <v>7.056391459606205</v>
       </c>
       <c r="J37" t="n">
-        <v>4243.250540214559</v>
+        <v>1814.386924579467</v>
       </c>
       <c r="K37" t="n">
-        <v>100840.2830546436</v>
+        <v>77065.47724049598</v>
       </c>
     </row>
     <row r="38">
@@ -1759,34 +1759,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>93361.45916959323</v>
+        <v>99040.67490564301</v>
       </c>
       <c r="C38" t="n">
-        <v>500.1983276716088</v>
+        <v>43.21638133716049</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005357653277065721</v>
+        <v>0.0004363498267588861</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9946423467229343</v>
+        <v>0.9995636501732411</v>
       </c>
       <c r="F38" t="n">
-        <v>31.78891018524615</v>
+        <v>49.21120487194851</v>
       </c>
       <c r="G38" t="n">
-        <v>16119.54816551287</v>
+        <v>17100.10687157698</v>
       </c>
       <c r="H38" t="n">
-        <v>251100.4832875597</v>
+        <v>321148.3031075991</v>
       </c>
       <c r="I38" t="n">
-        <v>82.25042862264644</v>
+        <v>7.106313019972429</v>
       </c>
       <c r="J38" t="n">
-        <v>4162.382294676684</v>
+        <v>1807.330533119861</v>
       </c>
       <c r="K38" t="n">
-        <v>96597.03251442903</v>
+        <v>75251.0903159165</v>
       </c>
     </row>
     <row r="39">
@@ -1794,34 +1794,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>92861.26084192163</v>
+        <v>98997.45852430585</v>
       </c>
       <c r="C39" t="n">
-        <v>534.0322375313879</v>
+        <v>45.8533401347286</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005750861367696425</v>
+        <v>0.0004631769422996923</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9942491386323036</v>
+        <v>0.9995368230577003</v>
       </c>
       <c r="F39" t="n">
-        <v>30.95744828614454</v>
+        <v>48.23246927647484</v>
       </c>
       <c r="G39" t="n">
-        <v>15269.70020519913</v>
+        <v>16278.70975514857</v>
       </c>
       <c r="H39" t="n">
-        <v>234980.9351220469</v>
+        <v>304048.1962360221</v>
       </c>
       <c r="I39" t="n">
-        <v>83.63231333941512</v>
+        <v>7.180879056165609</v>
       </c>
       <c r="J39" t="n">
-        <v>4080.131866054038</v>
+        <v>1800.224220099888</v>
       </c>
       <c r="K39" t="n">
-        <v>92434.65021975232</v>
+        <v>73443.75978279664</v>
       </c>
     </row>
     <row r="40">
@@ -1829,34 +1829,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92327.22860439024</v>
+        <v>98951.60518417113</v>
       </c>
       <c r="C40" t="n">
-        <v>569.9716848014124</v>
+        <v>48.81577170670011</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00617338669661216</v>
+        <v>0.0004933297607031539</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9938266133033878</v>
+        <v>0.9995066702392968</v>
       </c>
       <c r="F40" t="n">
-        <v>30.13361797631731</v>
+        <v>47.25458810057204</v>
       </c>
       <c r="G40" t="n">
-        <v>14458.93931065976</v>
+        <v>15496.35222108533</v>
       </c>
       <c r="H40" t="n">
-        <v>219711.2349168477</v>
+        <v>287769.4864808735</v>
       </c>
       <c r="I40" t="n">
-        <v>85.01011770242815</v>
+        <v>7.280773079047443</v>
       </c>
       <c r="J40" t="n">
-        <v>3996.499552714623</v>
+        <v>1793.043341043723</v>
       </c>
       <c r="K40" t="n">
-        <v>88354.51835369829</v>
+        <v>71643.53556269675</v>
       </c>
     </row>
     <row r="41">
@@ -1864,34 +1864,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>91757.25691958884</v>
+        <v>98902.78941246444</v>
       </c>
       <c r="C41" t="n">
-        <v>608.1121510849331</v>
+        <v>52.14357242769641</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006627401161499957</v>
+        <v>0.0005272204427949623</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9933725988385</v>
+        <v>0.999472779557205</v>
       </c>
       <c r="F41" t="n">
-        <v>29.31769413259914</v>
+        <v>46.27766491481072</v>
       </c>
       <c r="G41" t="n">
-        <v>13685.4082734021</v>
+        <v>14751.14991366889</v>
       </c>
       <c r="H41" t="n">
-        <v>205252.2956061879</v>
+        <v>272273.1342597882</v>
       </c>
       <c r="I41" t="n">
-        <v>86.37970541594881</v>
+        <v>7.406769323066078</v>
       </c>
       <c r="J41" t="n">
-        <v>3911.489435012195</v>
+        <v>1785.762567964675</v>
       </c>
       <c r="K41" t="n">
-        <v>84358.01880098367</v>
+        <v>69850.49222165304</v>
       </c>
     </row>
     <row r="42">
@@ -1899,34 +1899,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91149.1447685039</v>
+        <v>98850.64584003674</v>
       </c>
       <c r="C42" t="n">
-        <v>648.5476203907152</v>
+        <v>55.88147584856598</v>
       </c>
       <c r="D42" t="n">
-        <v>0.007115235387428642</v>
+        <v>0.0005653121977472475</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9928847646125714</v>
+        <v>0.9994346878022528</v>
       </c>
       <c r="F42" t="n">
-        <v>28.50995474034033</v>
+        <v>45.30181256671295</v>
       </c>
       <c r="G42" t="n">
-        <v>12947.34245972891</v>
+        <v>14041.30743417111</v>
       </c>
       <c r="H42" t="n">
-        <v>191566.8873327858</v>
+        <v>257521.9843461193</v>
       </c>
       <c r="I42" t="n">
-        <v>87.73656118344815</v>
+        <v>7.559735585577178</v>
       </c>
       <c r="J42" t="n">
-        <v>3825.109729596246</v>
+        <v>1778.355798641609</v>
       </c>
       <c r="K42" t="n">
-        <v>80446.52936597148</v>
+        <v>68064.72965368835</v>
       </c>
     </row>
     <row r="43">
@@ -1934,34 +1934,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>90500.59714811319</v>
+        <v>98794.76436418817</v>
       </c>
       <c r="C43" t="n">
-        <v>691.3693557806649</v>
+        <v>60.07962509729477</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007639389988213785</v>
+        <v>0.0006081255973831023</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9923606100117862</v>
+        <v>0.9993918744026169</v>
       </c>
       <c r="F43" t="n">
-        <v>27.71068037162395</v>
+        <v>44.32715390360497</v>
       </c>
       <c r="G43" t="n">
-        <v>12243.06578141551</v>
+        <v>13365.11401124405</v>
       </c>
       <c r="H43" t="n">
-        <v>178619.5448730569</v>
+        <v>243480.6769119482</v>
       </c>
       <c r="I43" t="n">
-        <v>89.0757658624652</v>
+        <v>7.740636135410535</v>
       </c>
       <c r="J43" t="n">
-        <v>3737.373168412798</v>
+        <v>1770.796063056032</v>
       </c>
       <c r="K43" t="n">
-        <v>76621.41963637523</v>
+        <v>66286.37385504675</v>
       </c>
     </row>
     <row r="44">
@@ -1969,34 +1969,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89809.22779233252</v>
+        <v>98734.68473909088</v>
       </c>
       <c r="C44" t="n">
-        <v>736.6644635049214</v>
+        <v>64.79420927223983</v>
       </c>
       <c r="D44" t="n">
-        <v>0.008202547573489039</v>
+        <v>0.0006562456693254282</v>
       </c>
       <c r="E44" t="n">
-        <v>0.991797452426511</v>
+        <v>0.9993437543306746</v>
       </c>
       <c r="F44" t="n">
-        <v>26.92015361865358</v>
+        <v>43.35382253563196</v>
       </c>
       <c r="G44" t="n">
-        <v>11570.98688310469</v>
+        <v>12720.93937457321</v>
       </c>
       <c r="H44" t="n">
-        <v>166376.4790916414</v>
+        <v>230115.5629007042</v>
       </c>
       <c r="I44" t="n">
-        <v>90.39197179131797</v>
+        <v>7.950534642204753</v>
       </c>
       <c r="J44" t="n">
-        <v>3648.297402550333</v>
+        <v>1763.055426920622</v>
       </c>
       <c r="K44" t="n">
-        <v>72884.04646796244</v>
+        <v>64515.57779199071</v>
       </c>
     </row>
     <row r="45">
@@ -2004,34 +2004,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89072.5633288276</v>
+        <v>98669.89052981864</v>
       </c>
       <c r="C45" t="n">
-        <v>784.5142209917095</v>
+        <v>70.08816996811052</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008807585542312646</v>
+        <v>0.0007103298644780542</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9911924144576874</v>
+        <v>0.9992896701355219</v>
       </c>
       <c r="F45" t="n">
-        <v>26.13865848214731</v>
+        <v>42.38196363856193</v>
       </c>
       <c r="G45" t="n">
-        <v>10929.59553592744</v>
+        <v>12107.22982209419</v>
       </c>
       <c r="H45" t="n">
-        <v>154805.4922085367</v>
+        <v>217394.6235261309</v>
       </c>
       <c r="I45" t="n">
-        <v>91.67937869100888</v>
+        <v>8.190597065459828</v>
       </c>
       <c r="J45" t="n">
-        <v>3557.905430759015</v>
+        <v>1755.104892278417</v>
       </c>
       <c r="K45" t="n">
-        <v>69235.74906541211</v>
+        <v>62752.52236507009</v>
       </c>
     </row>
     <row r="46">
@@ -2039,34 +2039,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>88288.04910783589</v>
+        <v>98599.80235985054</v>
       </c>
       <c r="C46" t="n">
-        <v>834.9921443093529</v>
+        <v>76.03198437684915</v>
       </c>
       <c r="D46" t="n">
-        <v>0.009457589704915614</v>
+        <v>0.0007711170058877226</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9905424102950844</v>
+        <v>0.9992288829941123</v>
       </c>
       <c r="F46" t="n">
-        <v>25.36647971491492</v>
+        <v>41.41173479545922</v>
       </c>
       <c r="G46" t="n">
-        <v>10317.45922695417</v>
+        <v>11522.50447159567</v>
       </c>
       <c r="H46" t="n">
-        <v>143875.8966726093</v>
+        <v>205287.3937040368</v>
       </c>
       <c r="I46" t="n">
-        <v>92.93171063402698</v>
+        <v>8.462094427109285</v>
       </c>
       <c r="J46" t="n">
-        <v>3466.226052068006</v>
+        <v>1746.914295212957</v>
       </c>
       <c r="K46" t="n">
-        <v>65677.84363465308</v>
+        <v>60997.41747279168</v>
       </c>
     </row>
     <row r="47">
@@ -2074,34 +2074,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>87453.05696352654</v>
+        <v>98523.77037547369</v>
       </c>
       <c r="C47" t="n">
-        <v>888.1617704682585</v>
+        <v>82.70453162625618</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01015586877470365</v>
+        <v>0.0008394373389393195</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9898441312252964</v>
+        <v>0.9991605626610607</v>
       </c>
       <c r="F47" t="n">
-        <v>24.6039021211693</v>
+        <v>40.44330687566833</v>
       </c>
       <c r="G47" t="n">
-        <v>9733.219934084227</v>
+        <v>10965.35168804496</v>
       </c>
       <c r="H47" t="n">
-        <v>133558.4374456551</v>
+        <v>193764.8892324411</v>
       </c>
       <c r="I47" t="n">
-        <v>94.14219467227532</v>
+        <v>8.766405372901174</v>
       </c>
       <c r="J47" t="n">
-        <v>3373.294341433979</v>
+        <v>1738.452200785848</v>
       </c>
       <c r="K47" t="n">
-        <v>62211.61758258509</v>
+        <v>59250.50317757872</v>
       </c>
     </row>
     <row r="48">
@@ -2109,34 +2109,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>86564.89519305828</v>
+        <v>98441.06584384743</v>
       </c>
       <c r="C48" t="n">
-        <v>944.0741303587588</v>
+        <v>90.19404912320255</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01090596977277303</v>
+        <v>0.000916223817266193</v>
       </c>
       <c r="E48" t="n">
-        <v>0.989094030227227</v>
+        <v>0.9990837761827338</v>
       </c>
       <c r="F48" t="n">
-        <v>23.85120981253063</v>
+        <v>39.47686494880009</v>
       </c>
       <c r="G48" t="n">
-        <v>9175.591075884131</v>
+        <v>10434.42567847944</v>
       </c>
       <c r="H48" t="n">
-        <v>123825.2175115709</v>
+        <v>182799.5375443961</v>
       </c>
       <c r="I48" t="n">
-        <v>95.30354182944598</v>
+        <v>9.10501840582554</v>
       </c>
       <c r="J48" t="n">
-        <v>3279.152146761704</v>
+        <v>1729.685795412946</v>
       </c>
       <c r="K48" t="n">
-        <v>58838.3232411511</v>
+        <v>57512.05097679287</v>
       </c>
     </row>
     <row r="49">
@@ -2144,34 +2144,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>85620.82106269953</v>
+        <v>98350.87179472423</v>
       </c>
       <c r="C49" t="n">
-        <v>1002.764889444088</v>
+        <v>98.59918560089527</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01171169438692687</v>
+        <v>0.001002524774835645</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9882883056130731</v>
+        <v>0.9989974752251644</v>
       </c>
       <c r="F49" t="n">
-        <v>23.10868542211918</v>
+        <v>38.51260923055082</v>
       </c>
       <c r="G49" t="n">
-        <v>8643.354625679251</v>
+        <v>9928.443246812687</v>
       </c>
       <c r="H49" t="n">
-        <v>114649.6264356867</v>
+        <v>172365.1118659167</v>
       </c>
       <c r="I49" t="n">
-        <v>96.4079312893201</v>
+        <v>9.479533648075586</v>
       </c>
       <c r="J49" t="n">
-        <v>3183.848604932257</v>
+        <v>1720.580777007121</v>
       </c>
       <c r="K49" t="n">
-        <v>55559.17109438941</v>
+        <v>55782.36518137992</v>
       </c>
     </row>
     <row r="50">
@@ -2179,34 +2179,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>84618.05617325543</v>
+        <v>98252.27260912333</v>
       </c>
       <c r="C50" t="n">
-        <v>1064.251135802358</v>
+        <v>108.0301572686121</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01257711632637015</v>
+        <v>0.001099518152606893</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9874228836736298</v>
+        <v>0.9989004818473931</v>
       </c>
       <c r="F50" t="n">
-        <v>22.37660927859926</v>
+        <v>37.55075605619838</v>
       </c>
       <c r="G50" t="n">
-        <v>8135.358378881394</v>
+        <v>9446.180701411626</v>
       </c>
       <c r="H50" t="n">
-        <v>106006.2718100075</v>
+        <v>162436.668619104</v>
       </c>
       <c r="I50" t="n">
-        <v>97.44699875038228</v>
+        <v>9.891663956197139</v>
       </c>
       <c r="J50" t="n">
-        <v>3087.440673642937</v>
+        <v>1711.101243359045</v>
       </c>
       <c r="K50" t="n">
-        <v>52375.32248945715</v>
+        <v>54061.78440437281</v>
       </c>
     </row>
     <row r="51">
@@ -2214,34 +2214,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83553.80503745307</v>
+        <v>98144.24245185472</v>
       </c>
       <c r="C51" t="n">
-        <v>1128.527799040504</v>
+        <v>118.6100128409337</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01350659971182211</v>
+        <v>0.001208527468120391</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9864934002881779</v>
+        <v>0.9987914725318796</v>
       </c>
       <c r="F51" t="n">
-        <v>21.65525854252947</v>
+        <v>36.59153887650123</v>
       </c>
       <c r="G51" t="n">
-        <v>7650.51336208904</v>
+        <v>8986.47090881678</v>
       </c>
       <c r="H51" t="n">
-        <v>97870.91343112612</v>
+        <v>152990.4879176924</v>
       </c>
       <c r="I51" t="n">
-        <v>98.41183006826952</v>
+        <v>10.34323517597132</v>
       </c>
       <c r="J51" t="n">
-        <v>2989.993674892555</v>
+        <v>1701.209579402848</v>
       </c>
       <c r="K51" t="n">
-        <v>49287.88181581421</v>
+        <v>52350.68316101376</v>
       </c>
     </row>
     <row r="52">
@@ -2249,34 +2249,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>82425.27723841257</v>
+        <v>98025.63243901379</v>
       </c>
       <c r="C52" t="n">
-        <v>1195.563689335605</v>
+        <v>130.4760121754548</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01450481853858343</v>
+        <v>0.001331039738576845</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9854951814614166</v>
+        <v>0.9986689602614232</v>
       </c>
       <c r="F52" t="n">
-        <v>20.94490630788763</v>
+        <v>35.63520926946966</v>
       </c>
       <c r="G52" t="n">
-        <v>7187.791371921291</v>
+        <v>8548.200487506674</v>
       </c>
       <c r="H52" t="n">
-        <v>90220.40006903707</v>
+        <v>144004.0170088756</v>
       </c>
       <c r="I52" t="n">
-        <v>99.29296146944188</v>
+        <v>10.83618527827937</v>
       </c>
       <c r="J52" t="n">
-        <v>2891.581844824285</v>
+        <v>1690.866344226877</v>
       </c>
       <c r="K52" t="n">
-        <v>46297.88814092166</v>
+        <v>50649.47358161092</v>
       </c>
     </row>
     <row r="53">
@@ -2284,34 +2284,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>81229.71354907697</v>
+        <v>97895.15642683834</v>
       </c>
       <c r="C53" t="n">
-        <v>1265.29715378903</v>
+        <v>143.7811216369523</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01557677724696849</v>
+        <v>0.001468725592613018</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9844232227530315</v>
+        <v>0.998531274407387</v>
       </c>
       <c r="F53" t="n">
-        <v>20.24582067217148</v>
+        <v>34.68203796007864</v>
       </c>
       <c r="G53" t="n">
-        <v>6746.222630836551</v>
+        <v>8130.30713615665</v>
       </c>
       <c r="H53" t="n">
-        <v>83032.60869711578</v>
+        <v>135455.8165213689</v>
       </c>
       <c r="I53" t="n">
-        <v>100.0803877895225</v>
+        <v>11.37256206350241</v>
       </c>
       <c r="J53" t="n">
-        <v>2792.288883354844</v>
+        <v>1680.030158948598</v>
       </c>
       <c r="K53" t="n">
-        <v>43406.30629609738</v>
+        <v>48958.60723738403</v>
       </c>
     </row>
     <row r="54">
@@ -2319,34 +2319,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>79964.41639528795</v>
+        <v>97751.37530520138</v>
       </c>
       <c r="C54" t="n">
-        <v>1337.631357848981</v>
+        <v>158.6956269609779</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01672783243032339</v>
+        <v>0.001623461833304085</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9832721675696766</v>
+        <v>0.9983765381666959</v>
       </c>
       <c r="F54" t="n">
-        <v>19.55826377901818</v>
+        <v>33.73231583844498</v>
       </c>
       <c r="G54" t="n">
-        <v>6324.893546340525</v>
+        <v>7731.77709141902</v>
       </c>
       <c r="H54" t="n">
-        <v>76286.38606627923</v>
+        <v>127325.5093852123</v>
       </c>
       <c r="I54" t="n">
-        <v>100.7635803645887</v>
+        <v>11.95451905860347</v>
       </c>
       <c r="J54" t="n">
-        <v>2692.208495565321</v>
+        <v>1668.657596885095</v>
       </c>
       <c r="K54" t="n">
-        <v>40614.01741274253</v>
+        <v>47278.57707843544</v>
       </c>
     </row>
     <row r="55">
@@ -2354,34 +2354,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>78626.78503743897</v>
+        <v>97592.6796782404</v>
       </c>
       <c r="C55" t="n">
-        <v>1412.42921323922</v>
+        <v>175.4088610969511</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0179637157053627</v>
+        <v>0.001797356745150025</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9820362842946373</v>
+        <v>0.99820264325485</v>
       </c>
       <c r="F55" t="n">
-        <v>18.88249083783577</v>
+        <v>32.78635496530096</v>
       </c>
       <c r="G55" t="n">
-        <v>5922.94455900734</v>
+        <v>7351.642710864272</v>
       </c>
       <c r="H55" t="n">
-        <v>69961.49251993871</v>
+        <v>119593.7322937933</v>
       </c>
       <c r="I55" t="n">
-        <v>101.3315163777455</v>
+        <v>12.58430915648087</v>
       </c>
       <c r="J55" t="n">
-        <v>2591.444915200732</v>
+        <v>1656.703077826492</v>
       </c>
       <c r="K55" t="n">
-        <v>37921.80891717721</v>
+        <v>45609.91948155034</v>
       </c>
     </row>
     <row r="56">
@@ -2389,34 +2389,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>77214.35582419975</v>
+        <v>97417.27081714345</v>
       </c>
       <c r="C56" t="n">
-        <v>1489.507991126637</v>
+        <v>194.1310400046998</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0192905577625736</v>
+        <v>0.00199277847117163</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9807094422374264</v>
+        <v>0.9980072215288284</v>
       </c>
       <c r="F56" t="n">
-        <v>18.21874912548601</v>
+        <v>31.84448955176525</v>
       </c>
       <c r="G56" t="n">
-        <v>5539.568063629245</v>
+        <v>6988.98017738092</v>
       </c>
       <c r="H56" t="n">
-        <v>64038.54796093136</v>
+        <v>112242.089582929</v>
       </c>
       <c r="I56" t="n">
-        <v>101.7727216296647</v>
+        <v>13.26427545993331</v>
       </c>
       <c r="J56" t="n">
-        <v>2490.113398822987</v>
+        <v>1644.118768670011</v>
       </c>
       <c r="K56" t="n">
-        <v>35330.36400197647</v>
+        <v>43953.21640372385</v>
       </c>
     </row>
     <row r="57">
@@ -2424,34 +2424,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>75724.84783307312</v>
+        <v>97223.13977713876</v>
       </c>
       <c r="C57" t="n">
-        <v>1568.633680666736</v>
+        <v>215.0951933315523</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02071491360569799</v>
+        <v>0.00221238682297864</v>
       </c>
       <c r="E57" t="n">
-        <v>0.979285086394302</v>
+        <v>0.9977876131770214</v>
       </c>
       <c r="F57" t="n">
-        <v>17.56727697559616</v>
+        <v>30.90707689845092</v>
       </c>
       <c r="G57" t="n">
-        <v>5174.006386588664</v>
+        <v>6642.907322045706</v>
       </c>
       <c r="H57" t="n">
-        <v>58498.97989730211</v>
+        <v>105253.1094055481</v>
       </c>
       <c r="I57" t="n">
-        <v>102.0753288509655</v>
+        <v>13.99683869101166</v>
       </c>
       <c r="J57" t="n">
-        <v>2388.340677193322</v>
+        <v>1630.854493210078</v>
       </c>
       <c r="K57" t="n">
-        <v>32840.25060315349</v>
+        <v>42309.09763505384</v>
       </c>
     </row>
     <row r="58">
@@ -2459,34 +2459,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>74156.21415240638</v>
+        <v>97008.0445838072</v>
       </c>
       <c r="C58" t="n">
-        <v>1649.515179050763</v>
+        <v>238.5591689098351</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02224378897850243</v>
+        <v>0.002459168927003152</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9777562110214976</v>
+        <v>0.9975408310729968</v>
       </c>
       <c r="F58" t="n">
-        <v>16.92830276159658</v>
+        <v>29.97449827687556</v>
       </c>
       <c r="G58" t="n">
-        <v>4825.549801233476</v>
+        <v>6312.581563257279</v>
       </c>
       <c r="H58" t="n">
-        <v>53324.97351071345</v>
+        <v>98610.20208350237</v>
       </c>
       <c r="I58" t="n">
-        <v>102.2271537941826</v>
+        <v>14.78448040908122</v>
       </c>
       <c r="J58" t="n">
-        <v>2286.265348342356</v>
+        <v>1616.857654519066</v>
       </c>
       <c r="K58" t="n">
-        <v>30451.90992596016</v>
+        <v>40678.24314184376</v>
       </c>
     </row>
     <row r="59">
@@ -2494,34 +2494,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72506.69897335561</v>
+        <v>96769.48541489737</v>
       </c>
       <c r="C59" t="n">
-        <v>1731.798430134753</v>
+        <v>264.8076796007263</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02388466796386834</v>
+        <v>0.002736479154202054</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9761153320361317</v>
+        <v>0.9972635208457979</v>
       </c>
       <c r="F59" t="n">
-        <v>16.30204388007246</v>
+        <v>29.04715973397455</v>
       </c>
       <c r="G59" t="n">
-        <v>4493.53456166627</v>
+        <v>5997.197960788327</v>
       </c>
       <c r="H59" t="n">
-        <v>48499.42370947998</v>
+        <v>92297.62052024508</v>
       </c>
       <c r="I59" t="n">
-        <v>102.2157914186338</v>
+        <v>15.62972114601935</v>
       </c>
       <c r="J59" t="n">
-        <v>2184.038194548174</v>
+        <v>1602.073174109985</v>
       </c>
       <c r="K59" t="n">
-        <v>28165.64457761781</v>
+        <v>39061.3854873247</v>
       </c>
     </row>
     <row r="60">
@@ -2529,34 +2529,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>70774.90054322087</v>
+        <v>96504.67773529665</v>
       </c>
       <c r="C60" t="n">
-        <v>1815.060664914417</v>
+        <v>294.1543475870587</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02564554172430089</v>
+        <v>0.003048083828577686</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9743544582756991</v>
+        <v>0.9969519161714223</v>
       </c>
       <c r="F60" t="n">
-        <v>15.68870574147229</v>
+        <v>28.12549279829585</v>
       </c>
       <c r="G60" t="n">
-        <v>4177.340933977814</v>
+        <v>5695.987384366673</v>
       </c>
       <c r="H60" t="n">
-        <v>44005.8891478137</v>
+        <v>86300.42255945675</v>
       </c>
       <c r="I60" t="n">
-        <v>102.0287344942458</v>
+        <v>16.53509241340054</v>
       </c>
       <c r="J60" t="n">
-        <v>2081.82240312954</v>
+        <v>1586.443452963965</v>
       </c>
       <c r="K60" t="n">
-        <v>25981.60638306963</v>
+        <v>37459.31231321472</v>
       </c>
     </row>
     <row r="61">
@@ -2564,34 +2564,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68959.83987830645</v>
+        <v>96210.52338770959</v>
       </c>
       <c r="C61" t="n">
-        <v>1898.804938560688</v>
+        <v>326.9436840941173</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02753493833384058</v>
+        <v>0.003398211261948947</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9724650616661594</v>
+        <v>0.9966017887380511</v>
       </c>
       <c r="F61" t="n">
-        <v>15.08848077562196</v>
+        <v>27.2099550642177</v>
       </c>
       <c r="G61" t="n">
-        <v>3876.391202627482</v>
+        <v>5408.214797459621</v>
       </c>
       <c r="H61" t="n">
-        <v>39828.54821383589</v>
+        <v>80604.43517509008</v>
       </c>
       <c r="I61" t="n">
-        <v>101.653516878276</v>
+        <v>17.50310136358688</v>
       </c>
       <c r="J61" t="n">
-        <v>1979.793668635295</v>
+        <v>1569.908360550565</v>
       </c>
       <c r="K61" t="n">
-        <v>23899.78397994009</v>
+        <v>35872.86886025075</v>
       </c>
     </row>
     <row r="62">
@@ -2599,34 +2599,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>67061.03493974576</v>
+        <v>95883.57970361547</v>
       </c>
       <c r="C62" t="n">
-        <v>1982.45520517446</v>
+        <v>363.5529208824964</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02956195362859659</v>
+        <v>0.003791607718508949</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9704380463714034</v>
+        <v>0.9962083922814911</v>
       </c>
       <c r="F62" t="n">
-        <v>14.50154745984086</v>
+        <v>26.30103062833073</v>
       </c>
       <c r="G62" t="n">
-        <v>3590.14762848123</v>
+        <v>5133.177658121766</v>
       </c>
       <c r="H62" t="n">
-        <v>35952.15701120841</v>
+        <v>75196.22037763047</v>
       </c>
       <c r="I62" t="n">
-        <v>101.0778835361697</v>
+        <v>18.53618669429731</v>
       </c>
       <c r="J62" t="n">
-        <v>1878.140151757018</v>
+        <v>1552.405259186978</v>
       </c>
       <c r="K62" t="n">
-        <v>21919.99031130479</v>
+        <v>34302.96049970019</v>
       </c>
     </row>
     <row r="63">
@@ -2634,34 +2634,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>65078.5797345713</v>
+        <v>95520.02678273297</v>
       </c>
       <c r="C63" t="n">
-        <v>2065.3522221443</v>
+        <v>404.3935827813897</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03173628297618081</v>
+        <v>0.004233599972717883</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9682637170238192</v>
+        <v>0.9957664000272821</v>
       </c>
       <c r="F63" t="n">
-        <v>13.92806937773566</v>
+        <v>25.39923035002935</v>
       </c>
       <c r="G63" t="n">
-        <v>3318.110334065002</v>
+        <v>4870.204440088336</v>
       </c>
       <c r="H63" t="n">
-        <v>32362.00938272718</v>
+        <v>70063.0427195087</v>
       </c>
       <c r="I63" t="n">
-        <v>100.2899890553112</v>
+        <v>19.6366641758938</v>
       </c>
       <c r="J63" t="n">
-        <v>1777.062268220849</v>
+        <v>1533.869072492681</v>
       </c>
       <c r="K63" t="n">
-        <v>20041.85015954778</v>
+        <v>32750.5552405132</v>
       </c>
     </row>
     <row r="64">
@@ -2669,34 +2669,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>63013.227512427</v>
+        <v>95115.63319995158</v>
       </c>
       <c r="C64" t="n">
-        <v>2146.750629705523</v>
+        <v>449.9126569686199</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03406825383261247</v>
+        <v>0.004730165187701751</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9659317461673875</v>
+        <v>0.9952698348122982</v>
       </c>
       <c r="F64" t="n">
-        <v>13.36819431694695</v>
+        <v>24.50509190644226</v>
       </c>
       <c r="G64" t="n">
-        <v>3059.815091006595</v>
+        <v>4618.653278765379</v>
       </c>
       <c r="H64" t="n">
-        <v>29043.89904866217</v>
+        <v>65192.83827942036</v>
       </c>
       <c r="I64" t="n">
-        <v>99.27862590597229</v>
+        <v>20.80665995550528</v>
       </c>
       <c r="J64" t="n">
-        <v>1676.772279165538</v>
+        <v>1514.232408316787</v>
       </c>
       <c r="K64" t="n">
-        <v>18264.78789132693</v>
+        <v>31216.68616802053</v>
       </c>
     </row>
     <row r="65">
@@ -2704,34 +2704,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>60866.47688272148</v>
+        <v>94665.72054298296</v>
       </c>
       <c r="C65" t="n">
-        <v>2225.817605968951</v>
+        <v>500.5931735151371</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03656885891814787</v>
+        <v>0.00528800890801695</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9634311410818521</v>
+        <v>0.994711991091983</v>
       </c>
       <c r="F65" t="n">
-        <v>12.82205341423472</v>
+        <v>23.61917961019032</v>
       </c>
       <c r="G65" t="n">
-        <v>2814.830984576499</v>
+        <v>4377.910748392474</v>
       </c>
       <c r="H65" t="n">
-        <v>25984.08395765558</v>
+        <v>60574.18500065498</v>
       </c>
       <c r="I65" t="n">
-        <v>98.03348300324693</v>
+        <v>22.04802955809767</v>
       </c>
       <c r="J65" t="n">
-        <v>1577.493653259565</v>
+        <v>1493.425748361281</v>
       </c>
       <c r="K65" t="n">
-        <v>16588.01561216139</v>
+        <v>29702.45375970373</v>
       </c>
     </row>
     <row r="66">
@@ -2739,34 +2739,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>58640.65927675253</v>
+        <v>94165.12736946782</v>
       </c>
       <c r="C66" t="n">
-        <v>2301.633550360719</v>
+        <v>556.9539617090852</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03924978980025173</v>
+        <v>0.005914652029554546</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9607502101997483</v>
+        <v>0.9940853479704455</v>
       </c>
       <c r="F66" t="n">
-        <v>12.28976035630122</v>
+        <v>22.74208395719685</v>
       </c>
       <c r="G66" t="n">
-        <v>2582.757930879133</v>
+        <v>4147.390778434735</v>
       </c>
       <c r="H66" t="n">
-        <v>23169.25297307908</v>
+        <v>56196.2742522625</v>
       </c>
       <c r="I66" t="n">
-        <v>96.54543418279911</v>
+        <v>23.3622602714522</v>
       </c>
       <c r="J66" t="n">
-        <v>1479.460170256318</v>
+        <v>1471.377718803184</v>
       </c>
       <c r="K66" t="n">
-        <v>15010.52195890183</v>
+        <v>28209.02801134245</v>
       </c>
     </row>
     <row r="67">
@@ -2774,34 +2774,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>56339.02572639181</v>
+        <v>93608.17340775873</v>
       </c>
       <c r="C67" t="n">
-        <v>2373.195295045887</v>
+        <v>619.5482867027525</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04212347062178912</v>
+        <v>0.006618527679244313</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9578765293782109</v>
+        <v>0.9933814723207557</v>
       </c>
       <c r="F67" t="n">
-        <v>11.77141064465656</v>
+        <v>21.87442087101169</v>
       </c>
       <c r="G67" t="n">
-        <v>2363.224023797327</v>
+        <v>3926.533719190199</v>
       </c>
       <c r="H67" t="n">
-        <v>20586.49504219995</v>
+        <v>52048.88347382777</v>
       </c>
       <c r="I67" t="n">
-        <v>94.80685498965046</v>
+        <v>24.7503543847109</v>
       </c>
       <c r="J67" t="n">
-        <v>1382.914736073519</v>
+        <v>1448.015458531732</v>
       </c>
       <c r="K67" t="n">
-        <v>13531.06178864551</v>
+        <v>26737.65029253927</v>
       </c>
     </row>
     <row r="68">
@@ -2809,34 +2809,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>53965.83043134592</v>
+        <v>92988.62512105599</v>
       </c>
       <c r="C68" t="n">
-        <v>2439.42237920786</v>
+        <v>688.961000092384</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04520309165465797</v>
+        <v>0.00740908900626791</v>
       </c>
       <c r="E68" t="n">
-        <v>0.954796908345342</v>
+        <v>0.9925909109937321</v>
       </c>
       <c r="F68" t="n">
-        <v>11.26708093262626</v>
+        <v>21.01683060997341</v>
       </c>
       <c r="G68" t="n">
-        <v>2155.882691483995</v>
+        <v>3714.805568653574</v>
       </c>
       <c r="H68" t="n">
-        <v>18223.27101840262</v>
+        <v>48122.34975463757</v>
       </c>
       <c r="I68" t="n">
-        <v>92.81196466651589</v>
+        <v>26.21269057060382</v>
       </c>
       <c r="J68" t="n">
-        <v>1288.107881083869</v>
+        <v>1423.265104147021</v>
       </c>
       <c r="K68" t="n">
-        <v>12148.14705257199</v>
+        <v>25289.63483400754</v>
       </c>
     </row>
     <row r="69">
@@ -2844,34 +2844,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>51526.40805213806</v>
+        <v>92299.6641209636</v>
       </c>
       <c r="C69" t="n">
-        <v>2499.166938374758</v>
+        <v>765.8037555266245</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04850264229258761</v>
+        <v>0.008296928952233218</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9514973577074124</v>
+        <v>0.9917030710477668</v>
       </c>
       <c r="F69" t="n">
-        <v>10.77682844227633</v>
+        <v>20.16997630416844</v>
       </c>
       <c r="G69" t="n">
-        <v>1960.409646270621</v>
+        <v>3511.697374813753</v>
       </c>
       <c r="H69" t="n">
-        <v>16067.38832691863</v>
+        <v>44407.54418598399</v>
       </c>
       <c r="I69" t="n">
-        <v>90.55718840000205</v>
+        <v>27.74886059102248</v>
       </c>
       <c r="J69" t="n">
-        <v>1195.295916417353</v>
+        <v>1397.052413576417</v>
       </c>
       <c r="K69" t="n">
-        <v>10860.03917148812</v>
+        <v>23866.36972986052</v>
       </c>
     </row>
     <row r="70">
@@ -2879,34 +2879,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>49027.2411137633</v>
+        <v>91533.86036543698</v>
       </c>
       <c r="C70" t="n">
-        <v>2551.227752302508</v>
+        <v>850.7077463975975</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05203694302077111</v>
+        <v>0.009293913126806386</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9479630569792289</v>
+        <v>0.9907060868731936</v>
       </c>
       <c r="F70" t="n">
-        <v>10.30069046858717</v>
+        <v>19.33454209069502</v>
       </c>
       <c r="G70" t="n">
-        <v>1776.499617572018</v>
+        <v>3316.724829707789</v>
       </c>
       <c r="H70" t="n">
-        <v>14106.978680648</v>
+        <v>40895.84681117024</v>
       </c>
       <c r="I70" t="n">
-        <v>88.0415327390636</v>
+        <v>29.35747850745323</v>
       </c>
       <c r="J70" t="n">
-        <v>1104.738728017351</v>
+        <v>1369.303552985395</v>
       </c>
       <c r="K70" t="n">
-        <v>9664.743255070767</v>
+        <v>22469.3173162841</v>
       </c>
     </row>
     <row r="71">
@@ -2914,34 +2914,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>46476.0133614608</v>
+        <v>90683.15261903938</v>
       </c>
       <c r="C71" t="n">
-        <v>2594.368950962243</v>
+        <v>944.313318271048</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05582167581338993</v>
+        <v>0.01041332696314734</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9441783241866101</v>
+        <v>0.9895866730368527</v>
       </c>
       <c r="F71" t="n">
-        <v>9.838683977641454</v>
+        <v>18.51123081835447</v>
       </c>
       <c r="G71" t="n">
-        <v>1603.862864948573</v>
+        <v>3129.428073595203</v>
       </c>
       <c r="H71" t="n">
-        <v>12330.47906307599</v>
+        <v>37579.12198146245</v>
       </c>
       <c r="I71" t="n">
-        <v>85.26696466313716</v>
+        <v>31.03595975047539</v>
       </c>
       <c r="J71" t="n">
-        <v>1016.697195278287</v>
+        <v>1339.946074477941</v>
       </c>
       <c r="K71" t="n">
-        <v>8560.004527053414</v>
+        <v>21100.01376329871</v>
       </c>
     </row>
     <row r="72">
@@ -2949,34 +2949,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>43881.64441049856</v>
+        <v>89738.83930076833</v>
       </c>
       <c r="C72" t="n">
-        <v>2627.343788714626</v>
+        <v>1047.255696860553</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05987341231191512</v>
+        <v>0.01167003835820268</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9401265876880849</v>
+        <v>0.9883299616417973</v>
       </c>
       <c r="F72" t="n">
-        <v>9.39080530490523</v>
+        <v>17.70076129671537</v>
       </c>
       <c r="G72" t="n">
-        <v>1442.221478145027</v>
+        <v>2949.371729387813</v>
       </c>
       <c r="H72" t="n">
-        <v>10726.61619812741</v>
+        <v>34449.69390786724</v>
       </c>
       <c r="I72" t="n">
-        <v>82.23878210102563</v>
+        <v>32.78026782338511</v>
       </c>
       <c r="J72" t="n">
-        <v>931.43023061515</v>
+        <v>1308.910114727466</v>
       </c>
       <c r="K72" t="n">
-        <v>7543.307331775128</v>
+        <v>19760.06768882077</v>
       </c>
     </row>
     <row r="73">
@@ -2984,34 +2984,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41254.30062178393</v>
+        <v>88691.58360390778</v>
       </c>
       <c r="C73" t="n">
-        <v>2648.923751209511</v>
+        <v>1160.145958516126</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06420963902635579</v>
+        <v>0.01308067700873716</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9357903609736442</v>
+        <v>0.9869193229912628</v>
       </c>
       <c r="F73" t="n">
-        <v>8.957029958879351</v>
+        <v>16.90386506965927</v>
       </c>
       <c r="G73" t="n">
-        <v>1291.305482799</v>
+        <v>2776.145188736437</v>
       </c>
       <c r="H73" t="n">
-        <v>9284.394719982387</v>
+        <v>31500.32217847944</v>
       </c>
       <c r="I73" t="n">
-        <v>78.96596087931229</v>
+        <v>34.58462718402</v>
       </c>
       <c r="J73" t="n">
-        <v>849.1914485141243</v>
+        <v>1276.129846904081</v>
       </c>
       <c r="K73" t="n">
-        <v>6611.877101159978</v>
+        <v>18451.1575740933</v>
       </c>
     </row>
     <row r="74">
@@ -3019,34 +3019,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38605.37687057442</v>
+        <v>87531.43764539166</v>
       </c>
       <c r="C74" t="n">
-        <v>2657.933047918729</v>
+        <v>1283.546263520706</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06884877867737238</v>
+        <v>0.01466383162493712</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9311512213226276</v>
+        <v>0.9853361683750629</v>
       </c>
       <c r="F74" t="n">
-        <v>8.537312534487128</v>
+        <v>16.12128270013059</v>
       </c>
       <c r="G74" t="n">
-        <v>1150.848784643545</v>
+        <v>2609.363171612586</v>
       </c>
       <c r="H74" t="n">
-        <v>7993.089237183386</v>
+        <v>28724.176989743</v>
       </c>
       <c r="I74" t="n">
-        <v>75.46146025242517</v>
+        <v>36.44120209222749</v>
       </c>
       <c r="J74" t="n">
-        <v>770.2254876348121</v>
+        <v>1241.545219720061</v>
       </c>
       <c r="K74" t="n">
-        <v>5762.685652645854</v>
+        <v>17175.02772718922</v>
       </c>
     </row>
     <row r="75">
@@ -3054,34 +3054,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>35947.44382265569</v>
+        <v>86247.89138187096</v>
       </c>
       <c r="C75" t="n">
-        <v>2653.288257396984</v>
+        <v>1417.938287186227</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0738102066585542</v>
+        <v>0.01644026612671801</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9261897933414458</v>
+        <v>0.983559733873282</v>
       </c>
       <c r="F75" t="n">
-        <v>8.131586739553166</v>
+        <v>15.35375956095466</v>
       </c>
       <c r="G75" t="n">
-        <v>1020.585001312856</v>
+        <v>2448.66658039595</v>
       </c>
       <c r="H75" t="n">
-        <v>6842.240452539841</v>
+        <v>26114.81381813042</v>
       </c>
       <c r="I75" t="n">
-        <v>71.74246653287877</v>
+        <v>38.33974308315234</v>
       </c>
       <c r="J75" t="n">
-        <v>694.7640273823869</v>
+        <v>1205.104017627833</v>
       </c>
       <c r="K75" t="n">
-        <v>4992.460165011042</v>
+        <v>15933.48250746916</v>
       </c>
     </row>
     <row r="76">
@@ -3089,34 +3089,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>33294.1555652587</v>
+        <v>84829.95309468472</v>
       </c>
       <c r="C76" t="n">
-        <v>2634.042527960034</v>
+        <v>1563.683740821884</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07911426144438893</v>
+        <v>0.01843315578727889</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9208857385556111</v>
+        <v>0.9815668442127211</v>
       </c>
       <c r="F76" t="n">
-        <v>7.739765536629853</v>
+        <v>14.60204113629195</v>
       </c>
       <c r="G76" t="n">
-        <v>900.2432490031745</v>
+        <v>2293.723666817752</v>
       </c>
       <c r="H76" t="n">
-        <v>5821.655451226985</v>
+        <v>23666.14723773447</v>
       </c>
       <c r="I76" t="n">
-        <v>67.8305521573174</v>
+        <v>40.26720541278114</v>
       </c>
       <c r="J76" t="n">
-        <v>623.0215608495081</v>
+        <v>1166.764274544681</v>
       </c>
       <c r="K76" t="n">
-        <v>4297.696137628655</v>
+        <v>14728.37848984133</v>
       </c>
     </row>
     <row r="77">
@@ -3124,34 +3124,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30660.11303729867</v>
+        <v>83266.26935386284</v>
       </c>
       <c r="C77" t="n">
-        <v>2599.433294974037</v>
+        <v>1720.975903893247</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08478224760005848</v>
+        <v>0.02066834406354257</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9152177523999415</v>
+        <v>0.9793316559364574</v>
       </c>
       <c r="F77" t="n">
-        <v>7.361741401257083</v>
+        <v>13.86686784953772</v>
       </c>
       <c r="G77" t="n">
-        <v>789.5439707028487</v>
+        <v>2144.23152488984</v>
       </c>
       <c r="H77" t="n">
-        <v>4921.412202223811</v>
+        <v>21372.42357091671</v>
       </c>
       <c r="I77" t="n">
-        <v>63.75172610977355</v>
+        <v>42.20734753173118</v>
       </c>
       <c r="J77" t="n">
-        <v>555.1910086921907</v>
+        <v>1126.4970691319</v>
       </c>
       <c r="K77" t="n">
-        <v>3674.674576779147</v>
+        <v>13561.61421529665</v>
       </c>
     </row>
     <row r="78">
@@ -3159,34 +3159,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28060.67974232463</v>
+        <v>81545.29344996958</v>
       </c>
       <c r="C78" t="n">
-        <v>2548.931967348487</v>
+        <v>1889.781230762244</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09083642986395191</v>
+        <v>0.02317462051837094</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9091635701360481</v>
+        <v>0.9768253794816291</v>
       </c>
       <c r="F78" t="n">
-        <v>6.997386696514347</v>
+        <v>13.14896944616382</v>
       </c>
       <c r="G78" t="n">
-        <v>688.1949126548441</v>
+        <v>1999.917914268116</v>
       </c>
       <c r="H78" t="n">
-        <v>4131.868231520963</v>
+        <v>19228.19204602687</v>
       </c>
       <c r="I78" t="n">
-        <v>59.53635134866691</v>
+        <v>44.14032260100522</v>
       </c>
       <c r="J78" t="n">
-        <v>491.4392825824172</v>
+        <v>1084.289721600169</v>
       </c>
       <c r="K78" t="n">
-        <v>3119.483568086956</v>
+        <v>12435.11714616475</v>
       </c>
     </row>
     <row r="79">
@@ -3194,34 +3194,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25511.74777497615</v>
+        <v>79655.51221920735</v>
       </c>
       <c r="C79" t="n">
-        <v>2482.293481309826</v>
+        <v>2069.770403751922</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0973000165729393</v>
+        <v>0.02598401976320275</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9026999834270607</v>
+        <v>0.9740159802367973</v>
       </c>
       <c r="F79" t="n">
-        <v>6.646554162461735</v>
+        <v>12.44905897395524</v>
       </c>
       <c r="G79" t="n">
-        <v>595.8873749892799</v>
+        <v>1860.543405273391</v>
       </c>
       <c r="H79" t="n">
-        <v>3443.673318866118</v>
+        <v>17228.27413175876</v>
       </c>
       <c r="I79" t="n">
-        <v>55.21890615434498</v>
+        <v>46.04228248849554</v>
       </c>
       <c r="J79" t="n">
-        <v>431.9029312337502</v>
+        <v>1040.149398999163</v>
       </c>
       <c r="K79" t="n">
-        <v>2628.044285504539</v>
+        <v>11350.82742456458</v>
       </c>
     </row>
     <row r="80">
@@ -3229,34 +3229,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23029.45429366632</v>
+        <v>77585.74181545542</v>
       </c>
       <c r="C80" t="n">
-        <v>2399.60305403108</v>
+        <v>2260.238746348506</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1041971304848084</v>
+        <v>0.02913214069312742</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8958028695151916</v>
+        <v>0.9708678593068726</v>
       </c>
       <c r="F80" t="n">
-        <v>6.309077517789036</v>
+        <v>11.76782641805348</v>
       </c>
       <c r="G80" t="n">
-        <v>512.2928795497311</v>
+        <v>1725.903817771876</v>
       </c>
       <c r="H80" t="n">
-        <v>2847.785943876838</v>
+        <v>15367.73072648537</v>
       </c>
       <c r="I80" t="n">
-        <v>50.83756953988719</v>
+        <v>47.88502175441528</v>
       </c>
       <c r="J80" t="n">
-        <v>376.6840250794053</v>
+        <v>994.1071165106678</v>
       </c>
       <c r="K80" t="n">
-        <v>2196.141354270789</v>
+        <v>10310.67802556541</v>
       </c>
     </row>
     <row r="81">
@@ -3264,34 +3264,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20629.85123963524</v>
+        <v>75325.50306910691</v>
       </c>
       <c r="C81" t="n">
-        <v>2301.316943676923</v>
+        <v>2460.016767056973</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111552764823408</v>
+        <v>0.03265848440202312</v>
       </c>
       <c r="E81" t="n">
-        <v>0.888447235176592</v>
+        <v>0.9673415155979769</v>
       </c>
       <c r="F81" t="n">
-        <v>5.984772169721794</v>
+        <v>11.10593206381131</v>
       </c>
       <c r="G81" t="n">
-        <v>437.0604109836661</v>
+        <v>1595.832899933086</v>
       </c>
       <c r="H81" t="n">
-        <v>2335.493064327107</v>
+        <v>13641.82690871349</v>
       </c>
       <c r="I81" t="n">
-        <v>46.43361641912664</v>
+        <v>49.63569892447622</v>
       </c>
       <c r="J81" t="n">
-        <v>325.8464555395181</v>
+        <v>946.2220947562524</v>
       </c>
       <c r="K81" t="n">
-        <v>1819.457329191383</v>
+        <v>9316.570909054746</v>
       </c>
     </row>
     <row r="82">
@@ -3299,34 +3299,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18328.53429595831</v>
+        <v>72865.48630204993</v>
       </c>
       <c r="C82" t="n">
-        <v>2188.293602293479</v>
+        <v>2667.372866605985</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1193927221325072</v>
+        <v>0.03660680799616023</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8806072778674928</v>
+        <v>0.9633931920038398</v>
       </c>
       <c r="F82" t="n">
-        <v>5.673436026993337</v>
+        <v>10.46399967622096</v>
       </c>
       <c r="G82" t="n">
-        <v>369.8143940415078</v>
+        <v>1470.205158154653</v>
       </c>
       <c r="H82" t="n">
-        <v>1898.432653343441</v>
+        <v>12045.9940087804</v>
       </c>
       <c r="I82" t="n">
-        <v>42.05061636990405</v>
+        <v>51.25668375193501</v>
       </c>
       <c r="J82" t="n">
-        <v>279.4128391203915</v>
+        <v>896.5863958317763</v>
       </c>
       <c r="K82" t="n">
-        <v>1493.610873651865</v>
+        <v>8370.348814298493</v>
       </c>
     </row>
     <row r="83">
@@ -3334,34 +3334,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16140.24069366483</v>
+        <v>70198.11343544394</v>
       </c>
       <c r="C83" t="n">
-        <v>2061.811374165065</v>
+        <v>2879.912000949628</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1277435332779356</v>
+        <v>0.04102549000263478</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8722564667220644</v>
+        <v>0.9589745099973652</v>
       </c>
       <c r="F83" t="n">
-        <v>5.374850409505471</v>
+        <v>9.842609600028446</v>
       </c>
       <c r="G83" t="n">
-        <v>310.1535684315319</v>
+        <v>1348.938704966782</v>
       </c>
       <c r="H83" t="n">
-        <v>1528.618259301933</v>
+        <v>10575.78885062575</v>
       </c>
       <c r="I83" t="n">
-        <v>37.73344065733703</v>
+        <v>52.70559176645889</v>
       </c>
       <c r="J83" t="n">
-        <v>237.3622227504874</v>
+        <v>845.3297120798412</v>
       </c>
       <c r="K83" t="n">
-        <v>1214.198034531474</v>
+        <v>7473.762418466717</v>
       </c>
     </row>
     <row r="84">
@@ -3369,34 +3369,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14078.42931949977</v>
+        <v>67318.20143449432</v>
       </c>
       <c r="C84" t="n">
-        <v>1923.568934174754</v>
+        <v>3094.4764267367</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1366323536895167</v>
+        <v>0.04596790111434956</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8633676463104833</v>
+        <v>0.9540320988856504</v>
       </c>
       <c r="F84" t="n">
-        <v>5.088781047190323</v>
+        <v>9.24229189893078</v>
       </c>
       <c r="G84" t="n">
-        <v>257.6509102298362</v>
+        <v>1231.997936773334</v>
       </c>
       <c r="H84" t="n">
-        <v>1218.464690870401</v>
+        <v>9226.850145658967</v>
       </c>
       <c r="I84" t="n">
-        <v>33.52709551899893</v>
+        <v>53.93558031493264</v>
       </c>
       <c r="J84" t="n">
-        <v>199.6287820931504</v>
+        <v>792.6241203133823</v>
       </c>
       <c r="K84" t="n">
-        <v>976.8358117809865</v>
+        <v>6628.432706386875</v>
       </c>
     </row>
     <row r="85">
@@ -3404,34 +3404,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12154.86038532502</v>
+        <v>64223.72500775762</v>
       </c>
       <c r="C85" t="n">
-        <v>1775.665067657601</v>
+        <v>3307.057598883911</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1460868336917652</v>
+        <v>0.05149277153395337</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8539131663082348</v>
+        <v>0.9485072284660466</v>
       </c>
       <c r="F85" t="n">
-        <v>4.814979159573591</v>
+        <v>8.663519664738896</v>
       </c>
       <c r="G85" t="n">
-        <v>211.8547237475117</v>
+        <v>1119.395788040623</v>
       </c>
       <c r="H85" t="n">
-        <v>960.8137806405653</v>
+        <v>7994.852208885633</v>
       </c>
       <c r="I85" t="n">
-        <v>29.47541504277867</v>
+        <v>54.89599197109096</v>
       </c>
       <c r="J85" t="n">
-        <v>166.1016865741514</v>
+        <v>738.6885399984496</v>
       </c>
       <c r="K85" t="n">
-        <v>777.2070296878361</v>
+        <v>5835.808586073493</v>
       </c>
     </row>
     <row r="86">
@@ -3439,34 +3439,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10379.19531766742</v>
+        <v>60916.66740887371</v>
       </c>
       <c r="C86" t="n">
-        <v>1620.555241030652</v>
+        <v>3512.731791561137</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1561349595447107</v>
+        <v>0.05766454307133417</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8438650404552893</v>
+        <v>0.9423354569286658</v>
       </c>
       <c r="F86" t="n">
-        <v>4.553182606644601</v>
+        <v>8.106702637302172</v>
       </c>
       <c r="G86" t="n">
-        <v>172.2909885262801</v>
+        <v>1011.195234734264</v>
       </c>
       <c r="H86" t="n">
-        <v>748.9590568930536</v>
+        <v>6875.456420845011</v>
       </c>
       <c r="I86" t="n">
-        <v>25.61966335568471</v>
+        <v>55.53343920653509</v>
       </c>
       <c r="J86" t="n">
-        <v>136.6262715313728</v>
+        <v>683.7925480273586</v>
       </c>
       <c r="K86" t="n">
-        <v>611.1053431136847</v>
+        <v>5097.120046075043</v>
       </c>
     </row>
     <row r="87">
@@ -3474,34 +3474,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8758.640076636764</v>
+        <v>57403.93561731257</v>
       </c>
       <c r="C87" t="n">
-        <v>1460.983745923804</v>
+        <v>3705.635881793019</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1668048616155499</v>
+        <v>0.0645536902991618</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8331951383844501</v>
+        <v>0.9354463097008382</v>
       </c>
       <c r="F87" t="n">
-        <v>4.303117100878824</v>
+        <v>7.572181282549356</v>
       </c>
       <c r="G87" t="n">
-        <v>138.4669923836296</v>
+        <v>907.5096414927641</v>
       </c>
       <c r="H87" t="n">
-        <v>576.6680683667735</v>
+        <v>5864.261186110746</v>
       </c>
       <c r="I87" t="n">
-        <v>21.99711190749785</v>
+        <v>55.7934250861212</v>
       </c>
       <c r="J87" t="n">
-        <v>111.006608175688</v>
+        <v>628.2591088208237</v>
       </c>
       <c r="K87" t="n">
-        <v>474.4790715823119</v>
+        <v>4413.327498047685</v>
       </c>
     </row>
     <row r="88">
@@ -3509,34 +3509,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7297.65633071296</v>
+        <v>53698.29973551955</v>
       </c>
       <c r="C88" t="n">
-        <v>1299.892012264842</v>
+        <v>3879.003560289335</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1781245859433129</v>
+        <v>0.07223699035899844</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8218754140566871</v>
+        <v>0.9277630096410016</v>
       </c>
       <c r="F88" t="n">
-        <v>4.064497469647982</v>
+        <v>7.060221478463135</v>
       </c>
       <c r="G88" t="n">
-        <v>109.8762141721494</v>
+        <v>808.5014715736543</v>
       </c>
       <c r="H88" t="n">
-        <v>438.2010759831439</v>
+        <v>4956.751544617982</v>
       </c>
       <c r="I88" t="n">
-        <v>18.63967157565037</v>
+        <v>55.62258381647821</v>
       </c>
       <c r="J88" t="n">
-        <v>89.00949626819019</v>
+        <v>572.4656837347025</v>
       </c>
       <c r="K88" t="n">
-        <v>363.4724634066239</v>
+        <v>3785.068389226861</v>
       </c>
     </row>
     <row r="89">
@@ -3544,34 +3544,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5997.764318448118</v>
+        <v>49819.29617523022</v>
       </c>
       <c r="C89" t="n">
-        <v>1140.305900309057</v>
+        <v>4025.285309740725</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1901218253611046</v>
+        <v>0.08079771531862923</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8098781746388954</v>
+        <v>0.9192022846813708</v>
       </c>
       <c r="F89" t="n">
-        <v>3.837028956802605</v>
+        <v>6.571009956520703</v>
       </c>
       <c r="G89" t="n">
-        <v>86.0043419216348</v>
+        <v>714.3788176822402</v>
       </c>
       <c r="H89" t="n">
-        <v>328.3248618109944</v>
+        <v>4148.250073044328</v>
       </c>
       <c r="I89" t="n">
-        <v>15.5726690239255</v>
+        <v>54.97159651499863</v>
       </c>
       <c r="J89" t="n">
-        <v>70.36982469253981</v>
+        <v>516.8430999182242</v>
       </c>
       <c r="K89" t="n">
-        <v>274.4629671384337</v>
+        <v>3212.602705492158</v>
       </c>
     </row>
     <row r="90">
@@ -3579,34 +3579,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4857.45841813906</v>
+        <v>45794.01086548949</v>
       </c>
       <c r="C90" t="n">
-        <v>985.2072339483085</v>
+        <v>4136.376737743773</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2028236063265676</v>
+        <v>0.09032571420515079</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7971763936734324</v>
+        <v>0.9096742857948492</v>
       </c>
       <c r="F90" t="n">
-        <v>3.620408551928819</v>
+        <v>6.104650638597075</v>
       </c>
       <c r="G90" t="n">
-        <v>66.33622804429811</v>
+        <v>625.3891822299919</v>
       </c>
       <c r="H90" t="n">
-        <v>242.3205198893596</v>
+        <v>3433.871255362088</v>
       </c>
       <c r="I90" t="n">
-        <v>12.8138600019487</v>
+        <v>53.79878527723734</v>
       </c>
       <c r="J90" t="n">
-        <v>54.79715566861431</v>
+        <v>461.8715034032256</v>
       </c>
       <c r="K90" t="n">
-        <v>204.0931424458939</v>
+        <v>2695.759605573934</v>
       </c>
     </row>
     <row r="91">
@@ -3614,34 +3614,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3872.251184190752</v>
+        <v>41657.63412774572</v>
       </c>
       <c r="C91" t="n">
-        <v>837.3972721569245</v>
+        <v>4203.977789580765</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2162559277083491</v>
+        <v>0.1009173439060175</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7837440722916509</v>
+        <v>0.8990826560939825</v>
       </c>
       <c r="F91" t="n">
-        <v>3.414326335668077</v>
+        <v>5.661161996241194</v>
       </c>
       <c r="G91" t="n">
-        <v>50.36350004023998</v>
+        <v>541.8099597037072</v>
       </c>
       <c r="H91" t="n">
-        <v>175.9842918450615</v>
+        <v>2808.482073132096</v>
       </c>
       <c r="I91" t="n">
-        <v>10.37276707032531</v>
+        <v>52.07430670011856</v>
       </c>
       <c r="J91" t="n">
-        <v>41.98329566666561</v>
+        <v>408.0727181259882</v>
       </c>
       <c r="K91" t="n">
-        <v>149.2959867772796</v>
+        <v>2233.888102170708</v>
       </c>
     </row>
     <row r="92">
@@ -3649,34 +3649,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3034.853912033827</v>
+        <v>37453.65633816495</v>
       </c>
       <c r="C92" t="n">
-        <v>699.3618962305118</v>
+        <v>4220.098182289853</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2304433480166529</v>
+        <v>0.1126751990296234</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7695566519833471</v>
+        <v>0.8873248009703766</v>
       </c>
       <c r="F92" t="n">
-        <v>3.218466829543793</v>
+        <v>5.240475540551067</v>
       </c>
       <c r="G92" t="n">
-        <v>37.59247106323658</v>
+        <v>463.9351787319836</v>
       </c>
       <c r="H92" t="n">
-        <v>125.6207918048215</v>
+        <v>2266.672113428389</v>
       </c>
       <c r="I92" t="n">
-        <v>8.250414182887027</v>
+        <v>49.78475104806682</v>
       </c>
       <c r="J92" t="n">
-        <v>31.6105285963403</v>
+        <v>355.9984114258697</v>
       </c>
       <c r="K92" t="n">
-        <v>107.312691110614</v>
+        <v>1825.81538404472</v>
       </c>
     </row>
     <row r="93">
@@ -3684,34 +3684,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2335.492015803316</v>
+        <v>33233.5581558751</v>
       </c>
       <c r="C93" t="n">
-        <v>573.149634367979</v>
+        <v>4177.710191676792</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2454085179866644</v>
+        <v>0.1257075806352757</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7545914820133356</v>
+        <v>0.8742924193647243</v>
       </c>
       <c r="F93" t="n">
-        <v>3.032510338956331</v>
+        <v>4.842435526840783</v>
       </c>
       <c r="G93" t="n">
-        <v>27.55193921067161</v>
+        <v>392.058276315727</v>
       </c>
       <c r="H93" t="n">
-        <v>88.02832074158495</v>
+        <v>1802.736934696405</v>
       </c>
       <c r="I93" t="n">
-        <v>6.439505304142465</v>
+        <v>46.93780703208231</v>
       </c>
       <c r="J93" t="n">
-        <v>23.36011441345327</v>
+        <v>306.2136603778029</v>
       </c>
       <c r="K93" t="n">
-        <v>75.70216251427371</v>
+        <v>1469.816972618851</v>
       </c>
     </row>
     <row r="94">
@@ -3719,34 +3719,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1762.342381435336</v>
+        <v>29055.84796419831</v>
       </c>
       <c r="C94" t="n">
-        <v>460.2738783163605</v>
+        <v>4071.527191899887</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2611716560669053</v>
+        <v>0.1401276327201565</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7388283439330947</v>
+        <v>0.8598723672798435</v>
       </c>
       <c r="F94" t="n">
-        <v>2.856134278377099</v>
+        <v>4.466799929474476</v>
       </c>
       <c r="G94" t="n">
-        <v>19.80043680125907</v>
+        <v>326.4510275543243</v>
       </c>
       <c r="H94" t="n">
-        <v>60.47638153091333</v>
+        <v>1410.678658380678</v>
       </c>
       <c r="I94" t="n">
-        <v>4.925059876412312</v>
+        <v>43.56648541928575</v>
       </c>
       <c r="J94" t="n">
-        <v>16.92060910931081</v>
+        <v>259.2758533457205</v>
       </c>
       <c r="K94" t="n">
-        <v>52.34204810082043</v>
+        <v>1163.603312241048</v>
       </c>
     </row>
     <row r="95">
@@ -3754,34 +3754,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1302.068503118976</v>
+        <v>24984.32077229842</v>
       </c>
       <c r="C95" t="n">
-        <v>361.6494815299076</v>
+        <v>3898.854823008265</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2777499652772586</v>
+        <v>0.1560520639540921</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7222500347227414</v>
+        <v>0.8439479360459079</v>
       </c>
       <c r="F95" t="n">
-        <v>2.689014468278793</v>
+        <v>4.113242709523528</v>
       </c>
       <c r="G95" t="n">
-        <v>13.93249898192966</v>
+        <v>267.3392551086421</v>
       </c>
       <c r="H95" t="n">
-        <v>40.67594472965428</v>
+        <v>1084.227630826354</v>
       </c>
       <c r="I95" t="n">
-        <v>3.685477246148955</v>
+        <v>39.73223098633635</v>
       </c>
       <c r="J95" t="n">
-        <v>11.9955492328985</v>
+        <v>215.7093679264348</v>
       </c>
       <c r="K95" t="n">
-        <v>35.42143899150962</v>
+        <v>904.3274588953274</v>
       </c>
     </row>
     <row r="96">
@@ -3789,34 +3789,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>940.4190215890683</v>
+        <v>21085.46594929016</v>
       </c>
       <c r="C96" t="n">
-        <v>277.5712488175009</v>
+        <v>3660.423418685639</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2951569911340971</v>
+        <v>0.1735993611660674</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7048430088659029</v>
+        <v>0.8264006388339326</v>
       </c>
       <c r="F96" t="n">
-        <v>2.530826393963575</v>
+        <v>3.781357362460545</v>
       </c>
       <c r="G96" t="n">
-        <v>9.583569403307861</v>
+        <v>214.8765834028466</v>
       </c>
       <c r="H96" t="n">
-        <v>26.74344574772461</v>
+        <v>816.8883757177118</v>
       </c>
       <c r="I96" t="n">
-        <v>2.693959532766802</v>
+        <v>35.52613105550608</v>
       </c>
       <c r="J96" t="n">
-        <v>8.310071986749545</v>
+        <v>175.9771369400984</v>
       </c>
       <c r="K96" t="n">
-        <v>23.42588975861112</v>
+        <v>688.6180909688926</v>
       </c>
     </row>
     <row r="97">
@@ -3824,34 +3824,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>662.8477727715674</v>
+        <v>17425.04253060452</v>
       </c>
       <c r="C97" t="n">
-        <v>207.7377659439198</v>
+        <v>3361.071004452516</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3134019219455249</v>
+        <v>0.1928873917265505</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6865980780544751</v>
+        <v>0.8071126082734495</v>
       </c>
       <c r="F97" t="n">
-        <v>2.381246417171943</v>
+        <v>3.470661696354208</v>
       </c>
       <c r="G97" t="n">
-        <v>6.433249422764494</v>
+        <v>169.1182340900622</v>
       </c>
       <c r="H97" t="n">
-        <v>17.15987634441676</v>
+        <v>602.0117923148651</v>
       </c>
       <c r="I97" t="n">
-        <v>1.920183555666029</v>
+        <v>31.06740482574503</v>
       </c>
       <c r="J97" t="n">
-        <v>5.616112453982742</v>
+        <v>140.4510058845923</v>
       </c>
       <c r="K97" t="n">
-        <v>15.11581777186157</v>
+        <v>512.6409540287941</v>
       </c>
     </row>
     <row r="98">
@@ -3859,34 +3859,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>455.1100068276476</v>
+        <v>14063.971526152</v>
       </c>
       <c r="C98" t="n">
-        <v>151.3189958809839</v>
+        <v>3010.11584832481</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3324888348110728</v>
+        <v>0.2140302860203812</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6675111651889272</v>
+        <v>0.7859697139796188</v>
       </c>
       <c r="F98" t="n">
-        <v>2.239952932147128</v>
+        <v>3.180603754547902</v>
       </c>
       <c r="G98" t="n">
-        <v>4.206720656490631</v>
+        <v>129.9975800219332</v>
       </c>
       <c r="H98" t="n">
-        <v>10.72662692165226</v>
+        <v>432.893558224803</v>
       </c>
       <c r="I98" t="n">
-        <v>1.332083475668801</v>
+        <v>26.49849450862072</v>
       </c>
       <c r="J98" t="n">
-        <v>3.695928898316713</v>
+        <v>109.3836010588473</v>
       </c>
       <c r="K98" t="n">
-        <v>9.49970531787883</v>
+        <v>372.1899481442017</v>
       </c>
     </row>
     <row r="99">
@@ -3894,34 +3894,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>303.7910109466637</v>
+        <v>11053.85567782719</v>
       </c>
       <c r="C99" t="n">
-        <v>107.0607804587832</v>
+        <v>2621.250441522277</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3524158931666999</v>
+        <v>0.2371344911604206</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6475841068333001</v>
+        <v>0.7628655088395794</v>
       </c>
       <c r="F99" t="n">
-        <v>2.106627458665303</v>
+        <v>2.910568762217488</v>
       </c>
       <c r="G99" t="n">
-        <v>2.674317149560371</v>
+        <v>97.3087245598871</v>
       </c>
       <c r="H99" t="n">
-        <v>6.519906265161629</v>
+        <v>302.8959782028697</v>
       </c>
       <c r="I99" t="n">
-        <v>0.8975922541650867</v>
+        <v>21.97643322283652</v>
       </c>
       <c r="J99" t="n">
-        <v>2.363845422647912</v>
+        <v>82.88510655022662</v>
       </c>
       <c r="K99" t="n">
-        <v>5.803776419562117</v>
+        <v>262.8063470853544</v>
       </c>
     </row>
     <row r="100">
@@ -3929,34 +3929,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>196.7302304878805</v>
+        <v>8432.605236304915</v>
       </c>
       <c r="C100" t="n">
-        <v>73.41470632952579</v>
+        <v>2211.820883335189</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3731745047391101</v>
+        <v>0.2622938962934765</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6268254952608899</v>
+        <v>0.7377061037065235</v>
       </c>
       <c r="F100" t="n">
-        <v>1.980955665391087</v>
+        <v>2.659886945058357</v>
       </c>
       <c r="G100" t="n">
-        <v>1.649376459701933</v>
+        <v>70.69854254848453</v>
       </c>
       <c r="H100" t="n">
-        <v>3.845589115601258</v>
+        <v>205.5872536429827</v>
       </c>
       <c r="I100" t="n">
-        <v>0.5861954699786815</v>
+        <v>17.66075827363061</v>
       </c>
       <c r="J100" t="n">
-        <v>1.466253168482825</v>
+        <v>60.90867332739009</v>
       </c>
       <c r="K100" t="n">
-        <v>3.439930996914204</v>
+        <v>179.9212405351278</v>
       </c>
     </row>
     <row r="101">
@@ -3964,34 +3964,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>123.3155241583547</v>
+        <v>6220.784352969727</v>
       </c>
       <c r="C101" t="n">
-        <v>48.67861231106543</v>
+        <v>1801.439321078805</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3947484523404786</v>
+        <v>0.2895839525796807</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6052515476595214</v>
+        <v>0.7104160474203193</v>
       </c>
       <c r="F101" t="n">
-        <v>1.862628317750065</v>
+        <v>2.427842041981546</v>
       </c>
       <c r="G101" t="n">
-        <v>0.984639253546969</v>
+        <v>49.67118701064035</v>
       </c>
       <c r="H101" t="n">
-        <v>2.196212655899325</v>
+        <v>134.8887110944981</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3701760204298573</v>
+        <v>13.69902729891974</v>
       </c>
       <c r="J101" t="n">
-        <v>0.8800576985041439</v>
+        <v>43.24791505375948</v>
       </c>
       <c r="K101" t="n">
-        <v>1.973677828431379</v>
+        <v>119.0125672077377</v>
       </c>
     </row>
     <row r="102">
@@ -3999,34 +3999,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>74.6369118472893</v>
+        <v>4419.345031890922</v>
       </c>
       <c r="C102" t="n">
-        <v>31.13202726009181</v>
+        <v>1410.013034943303</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4171130140511364</v>
+        <v>0.3190547524052441</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5828869859488636</v>
+        <v>0.6809452475947559</v>
       </c>
       <c r="F102" t="n">
-        <v>1.75134214529361</v>
+        <v>2.213680313081291</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5675756496148752</v>
+        <v>33.60686509216632</v>
       </c>
       <c r="H102" t="n">
-        <v>1.211573402352356</v>
+        <v>85.21752408385778</v>
       </c>
       <c r="I102" t="n">
-        <v>0.2254697046789451</v>
+        <v>10.21183811533101</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5098816780742867</v>
+        <v>29.54888775483975</v>
       </c>
       <c r="K102" t="n">
-        <v>1.093620129927235</v>
+        <v>75.76465215397819</v>
       </c>
     </row>
     <row r="103">
@@ -4034,34 +4034,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>43.50488458719749</v>
+        <v>3009.331996947618</v>
       </c>
       <c r="C103" t="n">
-        <v>19.15233344984342</v>
+        <v>1055.442242658769</v>
       </c>
       <c r="D103" t="n">
-        <v>0.440234093977565</v>
+        <v>0.350723098591086</v>
       </c>
       <c r="E103" t="n">
-        <v>0.559765906022435</v>
+        <v>0.649276901408914</v>
       </c>
       <c r="F103" t="n">
-        <v>1.646800624235226</v>
+        <v>2.016619829765133</v>
       </c>
       <c r="G103" t="n">
-        <v>0.3150785330495074</v>
+        <v>21.79470006768452</v>
       </c>
       <c r="H103" t="n">
-        <v>0.6439977527374806</v>
+        <v>51.61065899169146</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1321031547893621</v>
+        <v>7.279909276763492</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2844119733953417</v>
+        <v>19.33704963950874</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5837384518529481</v>
+        <v>46.21576439913845</v>
       </c>
     </row>
     <row r="104">
@@ -4069,34 +4069,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>24.35255113735407</v>
+        <v>1953.889754288849</v>
       </c>
       <c r="C104" t="n">
-        <v>11.30122484292638</v>
+        <v>751.3950567558261</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4640673898674859</v>
+        <v>0.3845636915319763</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5359326101325141</v>
+        <v>0.6154363084680237</v>
       </c>
       <c r="F104" t="n">
-        <v>1.548714671431352</v>
+        <v>1.835859825713971</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1679716385911212</v>
+        <v>13.4769479305551</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3289192196879732</v>
+        <v>29.81595892400694</v>
       </c>
       <c r="I104" t="n">
-        <v>0.07423824751690122</v>
+        <v>4.935947473103332</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1523088186059796</v>
+        <v>12.05714036274525</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2993264784576066</v>
+        <v>26.87871475962971</v>
       </c>
     </row>
     <row r="105">
@@ -4104,34 +4104,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.05132629442769</v>
+        <v>1202.494697533023</v>
       </c>
       <c r="C105" t="n">
-        <v>6.376325033478565</v>
+        <v>505.6486546670388</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4885576292886769</v>
+        <v>0.4204996959274763</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5114423707113231</v>
+        <v>0.5795003040725237</v>
       </c>
       <c r="F105" t="n">
-        <v>1.456803246535135</v>
+        <v>1.670589884498793</v>
       </c>
       <c r="G105" t="n">
-        <v>0.08573474161749993</v>
+        <v>7.899241032187239</v>
       </c>
       <c r="H105" t="n">
-        <v>0.160947581096852</v>
+        <v>16.33901099345183</v>
       </c>
       <c r="I105" t="n">
-        <v>0.03989177344030764</v>
+        <v>3.163455668659598</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0780705710890784</v>
+        <v>7.121192889641914</v>
       </c>
       <c r="K105" t="n">
-        <v>0.147017659851627</v>
+        <v>14.82157439688447</v>
       </c>
     </row>
     <row r="106">
@@ -4139,34 +4139,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.675001260949127</v>
+        <v>696.8460428659844</v>
       </c>
       <c r="C106" t="n">
-        <v>3.428533707867818</v>
+        <v>319.4294334355642</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5136379116399313</v>
+        <v>0.4583931224202935</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4863620883600687</v>
+        <v>0.5416068775797065</v>
       </c>
       <c r="F106" t="n">
-        <v>1.370793859344105</v>
+        <v>1.519998740763896</v>
       </c>
       <c r="G106" t="n">
-        <v>0.04176036143350181</v>
+        <v>4.359631028661583</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07521283947935208</v>
+        <v>8.439769961264593</v>
       </c>
       <c r="I106" t="n">
-        <v>0.02042829032003105</v>
+        <v>1.903261790312932</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03817879764877075</v>
+        <v>3.957737220982315</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06894708876254854</v>
+        <v>7.700381507242554</v>
       </c>
     </row>
     <row r="107">
@@ -4174,34 +4174,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.246467553081309</v>
+        <v>377.4166094304201</v>
       </c>
       <c r="C107" t="n">
-        <v>1.750590097204365</v>
+        <v>187.9669346543633</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5392291986848392</v>
+        <v>0.4980356718747339</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4607708013151608</v>
+        <v>0.5019643281252661</v>
       </c>
       <c r="F107" t="n">
-        <v>1.290422979472508</v>
+        <v>1.383282474775787</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0193434824737802</v>
+        <v>2.248767760793337</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03345247804585027</v>
+        <v>4.080138932603012</v>
       </c>
       <c r="I107" t="n">
-        <v>0.009933876718200695</v>
+        <v>1.066634821559</v>
       </c>
       <c r="J107" t="n">
-        <v>0.01775050732873971</v>
+        <v>2.054475430669384</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03076829111377778</v>
+        <v>3.742644286260239</v>
       </c>
     </row>
     <row r="108">
@@ -4209,34 +4209,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.495877455876944</v>
+        <v>189.4496747760568</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8455297749699037</v>
+        <v>102.1400742886816</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5652400012100054</v>
+        <v>0.5391409323315997</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4347599987899946</v>
+        <v>0.4608590676684003</v>
       </c>
       <c r="F108" t="n">
-        <v>1.215436345394354</v>
+        <v>1.259651882185864</v>
       </c>
       <c r="G108" t="n">
-        <v>0.008488487542542354</v>
+        <v>1.07504876014894</v>
       </c>
       <c r="H108" t="n">
-        <v>0.01410899557207007</v>
+        <v>1.831371171809675</v>
       </c>
       <c r="I108" t="n">
-        <v>0.004569554960778814</v>
+        <v>0.5520026579510757</v>
       </c>
       <c r="J108" t="n">
-        <v>0.007816630610539013</v>
+        <v>0.9878406091103835</v>
       </c>
       <c r="K108" t="n">
-        <v>0.01301778378503807</v>
+        <v>1.688168855590855</v>
       </c>
     </row>
     <row r="109">
@@ -4244,34 +4244,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6503476809070404</v>
+        <v>87.30960048737522</v>
       </c>
       <c r="C109" t="n">
-        <v>0.384723779978961</v>
+        <v>50.75648198337959</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5915663133331795</v>
+        <v>0.5813390703891592</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4084336866668205</v>
+        <v>0.4186609296108408</v>
       </c>
       <c r="F109" t="n">
-        <v>1.14558916962353</v>
+        <v>1.148338799167237</v>
       </c>
       <c r="G109" t="n">
-        <v>0.003514718889261522</v>
+        <v>0.4718533040955333</v>
       </c>
       <c r="H109" t="n">
-        <v>0.005620508029527715</v>
+        <v>0.756322411660735</v>
       </c>
       <c r="I109" t="n">
-        <v>0.001980180281640882</v>
+        <v>0.2612445344409053</v>
       </c>
       <c r="J109" t="n">
-        <v>0.003247075649760201</v>
+        <v>0.4358379511593078</v>
       </c>
       <c r="K109" t="n">
-        <v>0.005201153174499059</v>
+        <v>0.7003282464804719</v>
       </c>
     </row>
     <row r="110">
@@ -4279,34 +4279,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2656239009280795</v>
+        <v>36.55311850399563</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1641799678883173</v>
+        <v>22.8155567678365</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6180918483415045</v>
+        <v>0.6241753837047455</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3819081516584955</v>
+        <v>0.3758246162952545</v>
       </c>
       <c r="F110" t="n">
-        <v>1.080646236337918</v>
+        <v>1.048601155044226</v>
       </c>
       <c r="G110" t="n">
-        <v>0.001367171041465329</v>
+        <v>0.1881395646976978</v>
       </c>
       <c r="H110" t="n">
-        <v>0.002105789140266193</v>
+        <v>0.2844691075652017</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0008047974057316998</v>
+        <v>0.1118400809383136</v>
       </c>
       <c r="J110" t="n">
-        <v>0.001266895368119319</v>
+        <v>0.1745934167184025</v>
       </c>
       <c r="K110" t="n">
-        <v>0.001954077524738859</v>
+        <v>0.264490295321164</v>
       </c>
     </row>
     <row r="111">
@@ -4314,34 +4314,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1014439330397622</v>
+        <v>13.73756173615913</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0653997502177954</v>
+        <v>9.164522842709285</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6446886300451422</v>
+        <v>0.6671142243959507</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3553113699548578</v>
+        <v>0.3328857756040493</v>
       </c>
       <c r="F111" t="n">
-        <v>1.020381887153683</v>
+        <v>0.95972650874267</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0004972702528067086</v>
+        <v>0.06734045686901761</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0007386180988008644</v>
+        <v>0.09632954286750389</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0003053185505182461</v>
+        <v>0.04278454919489872</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0004620979623876198</v>
+        <v>0.06275333578008885</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0006871821566195388</v>
+        <v>0.08989687860276151</v>
       </c>
     </row>
     <row r="112">
@@ -4349,34 +4349,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.03604418282196675</v>
+        <v>4.573038893449841</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02419350397125737</v>
+        <v>3.244798786062248</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6712179907297799</v>
+        <v>0.7095497899022709</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3287820092702201</v>
+        <v>0.2904502100977291</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9645798900828808</v>
+        <v>0.8810338032872012</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0001682721664405239</v>
+        <v>0.02134921925178472</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0002413478459941559</v>
+        <v>0.02898908599848626</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0001075688623371005</v>
+        <v>0.01442698479493464</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0001567794118693736</v>
+        <v>0.01996878658519014</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0002250841942319191</v>
+        <v>0.02714354282267266</v>
       </c>
     </row>
     <row r="113">
@@ -4384,34 +4384,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01185067885070938</v>
+        <v>1.328240107387593</v>
       </c>
       <c r="C113" t="n">
-        <v>0.008266227958171697</v>
+        <v>0.9972759047259787</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6975320200898771</v>
+        <v>0.7508250196475692</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3024679799101229</v>
+        <v>0.2491749803524308</v>
       </c>
       <c r="F113" t="n">
-        <v>0.91303318607391</v>
+        <v>0.8118730510093035</v>
       </c>
       <c r="G113" t="n">
-        <v>5.269034379673176e-05</v>
+        <v>0.005905604968669862</v>
       </c>
       <c r="H113" t="n">
-        <v>7.307567955363202e-05</v>
+        <v>0.007639866746701546</v>
       </c>
       <c r="I113" t="n">
-        <v>3.500304947406136e-05</v>
+        <v>0.004222929492030791</v>
       </c>
       <c r="J113" t="n">
-        <v>4.921054953227308e-05</v>
+        <v>0.005541801790255502</v>
       </c>
       <c r="K113" t="n">
-        <v>6.830478236254548e-05</v>
+        <v>0.007174756237482523</v>
       </c>
     </row>
     <row r="114">
@@ -4419,34 +4419,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.003584450892537683</v>
+        <v>0.330964202661614</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002593262395458929</v>
+        <v>0.2615475204534835</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7234754982576922</v>
+        <v>0.7902592435983058</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2765245017423078</v>
+        <v>0.2097407564016942</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8655435071065745</v>
+        <v>0.7516226571712508</v>
       </c>
       <c r="G114" t="n">
-        <v>1.517823033234983e-05</v>
+        <v>0.001401456192416696</v>
       </c>
       <c r="H114" t="n">
-        <v>2.038533575690026e-05</v>
+        <v>0.001734261778031684</v>
       </c>
       <c r="I114" t="n">
-        <v>1.045816928796839e-05</v>
+        <v>0.001054774962433695</v>
       </c>
       <c r="J114" t="n">
-        <v>1.420750005821172e-05</v>
+        <v>0.00131887229822471</v>
       </c>
       <c r="K114" t="n">
-        <v>1.909423283027239e-05</v>
+        <v>0.001632954447227022</v>
       </c>
     </row>
     <row r="115">
@@ -4454,34 +4454,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0009911884970787532</v>
+        <v>0.06941668220813053</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0007422894978600364</v>
+        <v>0.05742038543958053</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7488883295636743</v>
+        <v>0.8271842389041042</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2511116704363257</v>
+        <v>0.1728157610958958</v>
       </c>
       <c r="F115" t="n">
-        <v>0.821920859827543</v>
+        <v>0.6996841314395974</v>
       </c>
       <c r="G115" t="n">
-        <v>3.9972881714124e-06</v>
+        <v>0.000279945220820301</v>
       </c>
       <c r="H115" t="n">
-        <v>5.20710542455043e-06</v>
+        <v>0.0003328055856149882</v>
       </c>
       <c r="I115" t="n">
-        <v>2.850973772832064e-06</v>
+        <v>0.0002205393089705543</v>
       </c>
       <c r="J115" t="n">
-        <v>3.749330770243333e-06</v>
+        <v>0.0002640973357910158</v>
       </c>
       <c r="K115" t="n">
-        <v>4.886732772060668e-06</v>
+        <v>0.0003140821490023111</v>
       </c>
     </row>
     <row r="116">
@@ -4489,34 +4489,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0002488989992187168</v>
+        <v>0.01199629676855001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.000192550374358279</v>
+        <v>0.01032865512319663</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7736084715594932</v>
+        <v>0.8609869630997011</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2263915284405068</v>
+        <v>0.1390130369002989</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7819828694866351</v>
+        <v>0.6554740735064797</v>
       </c>
       <c r="G116" t="n">
-        <v>9.559673427987939e-07</v>
+        <v>4.607518704877993e-05</v>
       </c>
       <c r="H116" t="n">
-        <v>1.20981725313803e-06</v>
+        <v>5.286036479468724e-05</v>
       </c>
       <c r="I116" t="n">
-        <v>7.043280332603476e-07</v>
+        <v>3.778108130607592e-05</v>
       </c>
       <c r="J116" t="n">
-        <v>8.983569974112686e-07</v>
+        <v>4.355802682046149e-05</v>
       </c>
       <c r="K116" t="n">
-        <v>1.137402001817335e-06</v>
+        <v>4.998481321129525e-05</v>
       </c>
     </row>
     <row r="117">
@@ -4524,34 +4524,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.634862486043781e-05</v>
+        <v>0.001667641645353378</v>
       </c>
       <c r="C117" t="n">
-        <v>4.493663798422546e-05</v>
+        <v>0.001486128117976159</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7974753260709178</v>
+        <v>0.8911555561814026</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2025246739290822</v>
+        <v>0.1088444438185974</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7455539808802392</v>
+        <v>0.6184136176953448</v>
       </c>
       <c r="G117" t="n">
-        <v>2.06117055119456e-07</v>
+        <v>6.100049216571635e-06</v>
       </c>
       <c r="H117" t="n">
-        <v>2.538499103392359e-07</v>
+        <v>6.785177745907306e-06</v>
       </c>
       <c r="I117" t="n">
-        <v>1.565459673715862e-07</v>
+        <v>5.177231192693166e-06</v>
       </c>
       <c r="J117" t="n">
-        <v>1.94028964150921e-07</v>
+        <v>5.776945514385571e-06</v>
       </c>
       <c r="K117" t="n">
-        <v>2.390450044060666e-07</v>
+        <v>6.426786390833761e-06</v>
       </c>
     </row>
     <row r="118">
@@ -4559,34 +4559,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.141198687621234e-05</v>
+        <v>0.0001815135273772191</v>
       </c>
       <c r="C118" t="n">
-        <v>9.361635434251816e-06</v>
+        <v>0.0001665066240303818</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8203335261246775</v>
+        <v>0.9173234988946578</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1796664738753225</v>
+        <v>0.08267650110534219</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7124645166258825</v>
+        <v>0.5879160528643574</v>
       </c>
       <c r="G118" t="n">
-        <v>3.975598988503858e-08</v>
+        <v>6.323394897560097e-07</v>
       </c>
       <c r="H118" t="n">
-        <v>4.77328552197799e-08</v>
+        <v>6.851285293356713e-07</v>
       </c>
       <c r="I118" t="n">
-        <v>3.106016320663877e-08</v>
+        <v>5.524379745069004e-07</v>
       </c>
       <c r="J118" t="n">
-        <v>3.748299677933477e-08</v>
+        <v>5.997143216924063e-07</v>
       </c>
       <c r="K118" t="n">
-        <v>4.501604025514564e-08</v>
+        <v>6.498408764481888e-07</v>
       </c>
     </row>
     <row r="119">
@@ -4594,34 +4594,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.050351441960529e-06</v>
+        <v>1.500690334683721e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1.7264718093382e-06</v>
+        <v>1.40960668990921e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8420370157066159</v>
+        <v>0.9393055031611787</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1579629842933841</v>
+        <v>0.06069449683882133</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6825495989492163</v>
+        <v>0.563374135201238</v>
       </c>
       <c r="G119" t="n">
-        <v>6.802684302921781e-09</v>
+        <v>4.979011097501358e-08</v>
       </c>
       <c r="H119" t="n">
-        <v>7.97686533474132e-09</v>
+        <v>5.278903957966162e-08</v>
       </c>
       <c r="I119" t="n">
-        <v>5.455344751644282e-09</v>
+        <v>4.454107165889147e-08</v>
       </c>
       <c r="J119" t="n">
-        <v>6.422833572696002e-09</v>
+        <v>4.727634718550587e-08</v>
       </c>
       <c r="K119" t="n">
-        <v>7.533043475810871e-09</v>
+        <v>5.012655475578259e-08</v>
       </c>
     </row>
     <row r="120">
@@ -4629,34 +4629,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.238796326223284e-07</v>
+        <v>9.108364477451084e-07</v>
       </c>
       <c r="C120" t="n">
-        <v>2.7933105163661e-07</v>
+        <v>8.717782608689689e-07</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8624532804825491</v>
+        <v>0.9571183312077233</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1375467195174509</v>
+        <v>0.04288166879227673</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6556479498397396</v>
+        <v>0.5441496099643551</v>
       </c>
       <c r="G120" t="n">
-        <v>1.023402203519318e-09</v>
+        <v>2.878081650645261e-09</v>
       </c>
       <c r="H120" t="n">
-        <v>1.17418103181954e-09</v>
+        <v>2.998928604648049e-09</v>
       </c>
       <c r="I120" t="n">
-        <v>8.406062739793379e-10</v>
+        <v>2.623490196709678e-09</v>
       </c>
       <c r="J120" t="n">
-        <v>9.674888210517205e-10</v>
+        <v>2.735275526614402e-09</v>
       </c>
       <c r="K120" t="n">
-        <v>1.110209903114867e-09</v>
+        <v>2.850207570276717e-09</v>
       </c>
     </row>
     <row r="121">
@@ -4664,34 +4664,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.454858098571844e-08</v>
+        <v>3.905818687613961e-08</v>
       </c>
       <c r="C121" t="n">
-        <v>3.926812852764933e-08</v>
+        <v>3.792475011867999e-08</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8814675497798249</v>
+        <v>0.9709808148275302</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1185324502201751</v>
+        <v>0.02901918517246982</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6316005964067513</v>
+        <v>0.5295683728686125</v>
       </c>
       <c r="G121" t="n">
-        <v>1.34062491277155e-10</v>
+        <v>1.175399467619992e-10</v>
       </c>
       <c r="H121" t="n">
-        <v>1.507788283002223e-10</v>
+        <v>1.208469540027869e-10</v>
       </c>
       <c r="I121" t="n">
-        <v>1.125445101937648e-10</v>
+        <v>1.08694317411191e-10</v>
       </c>
       <c r="J121" t="n">
-        <v>1.268825470723826e-10</v>
+        <v>1.117853299047237e-10</v>
       </c>
       <c r="K121" t="n">
-        <v>1.427210820631468e-10</v>
+        <v>1.149320436623153e-10</v>
       </c>
     </row>
     <row r="122">
@@ -4699,34 +4699,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.280452458069111e-09</v>
+        <v>1.133436757459626e-09</v>
       </c>
       <c r="C122" t="n">
-        <v>4.74705683132055e-09</v>
+        <v>1.112230339312484e-09</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8989867571038398</v>
+        <v>0.9812901619719194</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1010132428961602</v>
+        <v>0.01870983802808057</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6102495237574349</v>
+        <v>0.5189249867933473</v>
       </c>
       <c r="G122" t="n">
-        <v>1.513405292733527e-11</v>
+        <v>3.248489028808286e-12</v>
       </c>
       <c r="H122" t="n">
-        <v>1.671633702306725e-11</v>
+        <v>3.307007240787714e-12</v>
       </c>
       <c r="I122" t="n">
-        <v>1.295744110760287e-11</v>
+        <v>3.035914595469796e-12</v>
       </c>
       <c r="J122" t="n">
-        <v>1.433803687861779e-11</v>
+        <v>3.09101249353268e-12</v>
       </c>
       <c r="K122" t="n">
-        <v>1.583853499076422e-11</v>
+        <v>3.146713757591582e-12</v>
       </c>
     </row>
     <row r="123">
@@ -4734,34 +4734,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.333956267485613e-10</v>
+        <v>2.120641814714245e-11</v>
       </c>
       <c r="C123" t="n">
-        <v>4.880266070796312e-10</v>
+        <v>2.096415582296824e-11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9149430227887552</v>
+        <v>0.9885759904151068</v>
       </c>
       <c r="E123" t="n">
-        <v>0.08505697721124483</v>
+        <v>0.0114240095848932</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5914363364293672</v>
+        <v>0.5114992318449679</v>
       </c>
       <c r="G123" t="n">
-        <v>1.45594263271644e-12</v>
+        <v>5.788447958571409e-14</v>
       </c>
       <c r="H123" t="n">
-        <v>1.582284095731979e-12</v>
+        <v>5.851821197942833e-14</v>
       </c>
       <c r="I123" t="n">
-        <v>1.268671003223427e-12</v>
+        <v>5.449829212962889e-14</v>
       </c>
       <c r="J123" t="n">
-        <v>1.380595771014917e-12</v>
+        <v>5.509789806288417e-14</v>
       </c>
       <c r="K123" t="n">
-        <v>1.500498112146432e-12</v>
+        <v>5.570126405890149e-14</v>
       </c>
     </row>
     <row r="124">
@@ -4769,34 +4769,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.536901966893003e-11</v>
+        <v>2.422623241742084e-13</v>
       </c>
       <c r="C124" t="n">
-        <v>4.216126723831108e-11</v>
+        <v>2.406727317400952e-13</v>
       </c>
       <c r="D124" t="n">
-        <v>0.929296412970199</v>
+        <v>0.9934385487321165</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07070358702980095</v>
+        <v>0.006561451267883545</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5750010102319858</v>
+        <v>0.5065845760646212</v>
       </c>
       <c r="G124" t="n">
-        <v>1.179410279350877e-13</v>
+        <v>6.297836662892882e-16</v>
       </c>
       <c r="H124" t="n">
-        <v>1.263414630155388e-13</v>
+        <v>6.337323937142407e-16</v>
       </c>
       <c r="I124" t="n">
-        <v>1.043830230496143e-13</v>
+        <v>5.958584490034494e-16</v>
       </c>
       <c r="J124" t="n">
-        <v>1.119247677914906e-13</v>
+        <v>5.996059332552768e-16</v>
       </c>
       <c r="K124" t="n">
-        <v>1.199023411315151e-13</v>
+        <v>6.033659960173258e-16</v>
       </c>
     </row>
     <row r="125">
@@ -4804,34 +4804,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.207752430618946e-12</v>
+        <v>1.589592434113274e-15</v>
       </c>
       <c r="C125" t="n">
-        <v>3.021820638167958e-12</v>
+        <v>1.583999940062375e-15</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9420367386596877</v>
+        <v>0.9964818063228775</v>
       </c>
       <c r="E125" t="n">
-        <v>0.05796326134031227</v>
+        <v>0.003518193677122472</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5607808370510761</v>
+        <v>0.5035243417642672</v>
       </c>
       <c r="G125" t="n">
-        <v>7.941765459993006e-15</v>
+        <v>3.935518891110663e-18</v>
       </c>
       <c r="H125" t="n">
-        <v>8.400435080451127e-15</v>
+        <v>3.948727424952528e-18</v>
       </c>
       <c r="I125" t="n">
-        <v>7.125176031554253e-15</v>
+        <v>3.734926641363582e-18</v>
       </c>
       <c r="J125" t="n">
-        <v>7.541744741876285e-15</v>
+        <v>3.74748425182721e-18</v>
       </c>
       <c r="K125" t="n">
-        <v>7.977573340024591e-15</v>
+        <v>3.760062762048989e-18</v>
       </c>
     </row>
     <row r="126">
@@ -4839,34 +4839,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.859317924509878e-13</v>
+        <v>5.592494050899041e-18</v>
       </c>
       <c r="C126" t="n">
-        <v>1.772272451896336e-13</v>
+        <v>5.582728859266499e-18</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9531841911132612</v>
+        <v>0.9982538753651472</v>
       </c>
       <c r="E126" t="n">
-        <v>0.04681580888673875</v>
+        <v>0.001746124634852797</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5486096821609361</v>
+        <v>0.501747512419413</v>
       </c>
       <c r="G126" t="n">
-        <v>4.38410120820038e-16</v>
+        <v>1.318658826562055e-20</v>
       </c>
       <c r="H126" t="n">
-        <v>4.586696204581209e-16</v>
+        <v>1.320853384186469e-20</v>
       </c>
       <c r="I126" t="n">
-        <v>3.97986282275919e-16</v>
+        <v>1.253672651333361e-20</v>
       </c>
       <c r="J126" t="n">
-        <v>4.165687103220322e-16</v>
+        <v>1.255761046362699e-20</v>
       </c>
       <c r="K126" t="n">
-        <v>4.358285981483052e-16</v>
+        <v>1.257851022177886e-20</v>
       </c>
     </row>
     <row r="127">
@@ -4874,34 +4874,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8.704547261354222e-15</v>
+        <v>9.765191632542527e-21</v>
       </c>
       <c r="C127" t="n">
-        <v>8.380639453962839e-15</v>
+        <v>9.757432999938685e-21</v>
       </c>
       <c r="D127" t="n">
-        <v>0.962788666927062</v>
+        <v>0.9992054807631234</v>
       </c>
       <c r="E127" t="n">
-        <v>0.037211333072938</v>
+        <v>0.0007945192368765674</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5383176819295636</v>
+        <v>0.5007947797840027</v>
       </c>
       <c r="G127" t="n">
-        <v>1.954716612411709e-17</v>
+        <v>2.192897773358177e-23</v>
       </c>
       <c r="H127" t="n">
-        <v>2.025949963808301e-17</v>
+        <v>2.194557624413617e-23</v>
       </c>
       <c r="I127" t="n">
-        <v>1.792360953794335e-17</v>
+        <v>2.086814737040705e-23</v>
       </c>
       <c r="J127" t="n">
-        <v>1.858242804611313e-17</v>
+        <v>2.088395029338481e-23</v>
       </c>
       <c r="K127" t="n">
-        <v>1.925988782627299e-17</v>
+        <v>2.089975815186945e-23</v>
       </c>
     </row>
     <row r="128">
@@ -4909,34 +4909,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.239078073913823e-16</v>
+        <v>7.758632603841131e-24</v>
       </c>
       <c r="C128" t="n">
-        <v>3.144910681566172e-16</v>
+        <v>7.756088619702927e-24</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9709277176410056</v>
+        <v>0.999672109214587</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02907228235899439</v>
+        <v>0.0003278907854129542</v>
       </c>
       <c r="F128" t="n">
-        <v>0.5297315028853449</v>
+        <v>0.5003279305446376</v>
       </c>
       <c r="G128" t="n">
-        <v>6.927391516919727e-19</v>
+        <v>1.659332824225584e-26</v>
       </c>
       <c r="H128" t="n">
-        <v>7.123335139659211e-19</v>
+        <v>1.659851055439923e-26</v>
       </c>
       <c r="I128" t="n">
-        <v>6.405710890217652e-19</v>
+        <v>1.579798804078654e-26</v>
       </c>
       <c r="J128" t="n">
-        <v>6.58818508169786e-19</v>
+        <v>1.580292297776063e-26</v>
       </c>
       <c r="K128" t="n">
-        <v>6.774597801598604e-19</v>
+        <v>1.580785848463895e-26</v>
       </c>
     </row>
     <row r="129">
@@ -4944,34 +4944,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9.416739234765037e-18</v>
+        <v>2.543984138204023e-27</v>
       </c>
       <c r="C129" t="n">
-        <v>9.206775705571375e-18</v>
+        <v>2.543675673213176e-27</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9777031598774116</v>
+        <v>0.9998787472821807</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02229684012258837</v>
+        <v>0.0001212527178192646</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5226752244013781</v>
+        <v>0.5001212575237494</v>
       </c>
       <c r="G129" t="n">
-        <v>1.918048401820884e-20</v>
+        <v>5.181713742826877e-30</v>
       </c>
       <c r="H129" t="n">
-        <v>1.959436227394845e-20</v>
+        <v>5.182312143390083e-30</v>
       </c>
       <c r="I129" t="n">
-        <v>1.785982841198188e-20</v>
+        <v>4.934367091383427e-30</v>
       </c>
       <c r="J129" t="n">
-        <v>1.824741914802082e-20</v>
+        <v>4.934936974094016e-30</v>
       </c>
       <c r="K129" t="n">
-        <v>1.864127199007446e-20</v>
+        <v>4.935506878316691e-30</v>
       </c>
     </row>
     <row r="130">
@@ -4979,34 +4979,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.099635291936612e-19</v>
+        <v>3.084649908463374e-31</v>
       </c>
       <c r="C130" t="n">
-        <v>2.064438045410808e-19</v>
+        <v>3.08452764774192e-31</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9832364950898975</v>
+        <v>0.9999603647982486</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01676350491010248</v>
+        <v>3.96352017514312e-05</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5169703095465288</v>
+        <v>0.5000396356487808</v>
       </c>
       <c r="G130" t="n">
-        <v>4.072992244074893e-22</v>
+        <v>5.983779755039931e-34</v>
       </c>
       <c r="H130" t="n">
-        <v>4.138782557396145e-22</v>
+        <v>5.984005632054573e-34</v>
       </c>
       <c r="I130" t="n">
-        <v>3.81401392246908e-22</v>
+        <v>5.698611987354385e-34</v>
       </c>
       <c r="J130" t="n">
-        <v>3.875907360389363e-22</v>
+        <v>5.698827105894475e-34</v>
       </c>
       <c r="K130" t="n">
-        <v>3.938528420536362e-22</v>
+        <v>5.699042226745267e-34</v>
       </c>
     </row>
     <row r="131">
@@ -5014,34 +5014,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.519724652580384e-21</v>
+        <v>1.222607214544796e-35</v>
       </c>
       <c r="C131" t="n">
-        <v>3.476303221262699e-21</v>
+        <v>1.222593425254074e-35</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9876634010885337</v>
+        <v>0.9999887214057314</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01233659891146632</v>
+        <v>1.127859426863775e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5123365989114663</v>
+        <v>0.5000112785942686</v>
       </c>
       <c r="G131" t="n">
-        <v>6.502630998319884e-24</v>
+        <v>2.258745884067974e-38</v>
       </c>
       <c r="H131" t="n">
-        <v>6.57903133212516e-24</v>
+        <v>2.258770146428338e-38</v>
       </c>
       <c r="I131" t="n">
-        <v>6.116581569356517e-24</v>
+        <v>2.151162293894849e-38</v>
       </c>
       <c r="J131" t="n">
-        <v>6.189343792028209e-24</v>
+        <v>2.151185400904719e-38</v>
       </c>
       <c r="K131" t="n">
-        <v>6.262106014699901e-24</v>
+        <v>2.15120850791459e-38</v>
       </c>
     </row>
     <row r="132">
@@ -5049,10 +5049,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.342143131768435e-23</v>
+        <v>1.378929072276011e-40</v>
       </c>
       <c r="C132" t="n">
-        <v>4.342143131768435e-23</v>
+        <v>1.378929072276011e-40</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -5064,19 +5064,19 @@
         <v>0.5</v>
       </c>
       <c r="G132" t="n">
-        <v>7.640033380527642e-26</v>
+        <v>2.426236036415063e-43</v>
       </c>
       <c r="H132" t="n">
-        <v>7.640033380527642e-26</v>
+        <v>2.426236036415063e-43</v>
       </c>
       <c r="I132" t="n">
-        <v>7.276222267169182e-26</v>
+        <v>2.310700987061965e-43</v>
       </c>
       <c r="J132" t="n">
-        <v>7.276222267169182e-26</v>
+        <v>2.310700987061965e-43</v>
       </c>
       <c r="K132" t="n">
-        <v>7.276222267169182e-26</v>
+        <v>2.310700987061965e-43</v>
       </c>
     </row>
   </sheetData>

--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -502,31 +502,31 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>22.31943811206172</v>
+        <v>22.28393070392576</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0002231943811206172</v>
+        <v>0.0002228393070392576</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997768056188794</v>
+        <v>0.9997771606929607</v>
       </c>
       <c r="F2" t="n">
-        <v>84.58322549067582</v>
+        <v>85.56426560366678</v>
       </c>
       <c r="G2" t="n">
         <v>100000</v>
       </c>
       <c r="H2" t="n">
-        <v>2053461.561324982</v>
+        <v>2055241.875593928</v>
       </c>
       <c r="I2" t="n">
-        <v>21.25660772577306</v>
+        <v>21.22279114659596</v>
       </c>
       <c r="J2" t="n">
-        <v>2216.116127381719</v>
+        <v>2131.339257431903</v>
       </c>
       <c r="K2" t="n">
-        <v>146356.3623868444</v>
+        <v>141487.2901493073</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +534,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99977.68056188794</v>
+        <v>99977.71606929608</v>
       </c>
       <c r="C3" t="n">
-        <v>22.35435794280574</v>
+        <v>22.31446446393932</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002235934842373943</v>
+        <v>0.0002231943811206172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997764065157626</v>
+        <v>0.9997768056188794</v>
       </c>
       <c r="F3" t="n">
-        <v>83.60199658375434</v>
+        <v>84.5832254906758</v>
       </c>
       <c r="G3" t="n">
-        <v>95216.83863036947</v>
+        <v>95216.87244694863</v>
       </c>
       <c r="H3" t="n">
-        <v>1953461.561324982</v>
+        <v>1955241.875593928</v>
       </c>
       <c r="I3" t="n">
-        <v>20.27606162612765</v>
+        <v>20.23987706479757</v>
       </c>
       <c r="J3" t="n">
-        <v>2194.859519655945</v>
+        <v>2110.116466285307</v>
       </c>
       <c r="K3" t="n">
-        <v>144140.2462594627</v>
+        <v>139355.9508918754</v>
       </c>
     </row>
     <row r="4">
@@ -569,34 +569,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99955.32620394514</v>
+        <v>99955.40160483214</v>
       </c>
       <c r="C4" t="n">
-        <v>22.39419878504163</v>
+        <v>22.34937651317246</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002240420759505035</v>
+        <v>0.0002235934842373943</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997759579240495</v>
+        <v>0.9997764065157626</v>
       </c>
       <c r="F4" t="n">
-        <v>82.6205818042518</v>
+        <v>83.60199658375426</v>
       </c>
       <c r="G4" t="n">
-        <v>90662.4273958686</v>
+        <v>90662.49578669581</v>
       </c>
       <c r="H4" t="n">
-        <v>1858244.722694613</v>
+        <v>1860025.003146979</v>
       </c>
       <c r="I4" t="n">
-        <v>19.34495089950686</v>
+        <v>19.30623173581466</v>
       </c>
       <c r="J4" t="n">
-        <v>2174.583458029818</v>
+        <v>2089.876589220509</v>
       </c>
       <c r="K4" t="n">
-        <v>141945.3867398067</v>
+        <v>137245.8344255901</v>
       </c>
     </row>
     <row r="5">
@@ -604,34 +604,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99932.9320051601</v>
+        <v>99933.05222831896</v>
       </c>
       <c r="C5" t="n">
-        <v>22.43956940998252</v>
+        <v>22.38920847730267</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002245462927958908</v>
+        <v>0.0002240420759505035</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997754537072041</v>
+        <v>0.9997759579240495</v>
       </c>
       <c r="F5" t="n">
-        <v>81.63898439283163</v>
+        <v>82.62058180425171</v>
       </c>
       <c r="G5" t="n">
-        <v>86325.82399754676</v>
+        <v>86325.92785083161</v>
       </c>
       <c r="H5" t="n">
-        <v>1767582.295298744</v>
+        <v>1769362.507360284</v>
       </c>
       <c r="I5" t="n">
-        <v>18.46108928685683</v>
+        <v>18.41965722290829</v>
       </c>
       <c r="J5" t="n">
-        <v>2155.238507130311</v>
+        <v>2070.570357484694</v>
       </c>
       <c r="K5" t="n">
-        <v>139770.8032817769</v>
+        <v>135155.9578363695</v>
       </c>
     </row>
     <row r="6">
@@ -639,34 +639,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99910.49243575011</v>
+        <v>99910.66301984167</v>
       </c>
       <c r="C6" t="n">
-        <v>22.49115390344323</v>
+        <v>22.43456899188494</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002251130322263872</v>
+        <v>0.0002245462927958908</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997748869677736</v>
+        <v>0.9997754537072041</v>
       </c>
       <c r="F6" t="n">
-        <v>80.6572079430089</v>
+        <v>81.63898439283155</v>
       </c>
       <c r="G6" t="n">
-        <v>82196.60938456721</v>
+        <v>82196.74972452149</v>
       </c>
       <c r="H6" t="n">
-        <v>1681256.471301198</v>
+        <v>1683036.579509452</v>
       </c>
       <c r="I6" t="n">
-        <v>17.62240759741699</v>
+        <v>17.57807183858377</v>
       </c>
       <c r="J6" t="n">
-        <v>2136.777417843454</v>
+        <v>2052.150700261786</v>
       </c>
       <c r="K6" t="n">
-        <v>137615.5647746466</v>
+        <v>133085.3874788849</v>
       </c>
     </row>
     <row r="7">
@@ -674,34 +674,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99888.00128184668</v>
+        <v>99888.22845084978</v>
       </c>
       <c r="C7" t="n">
-        <v>22.54972098039627</v>
+        <v>22.48614199029288</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0002257500469627916</v>
+        <v>0.0002251130322263872</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997742499530372</v>
+        <v>0.9997748869677736</v>
       </c>
       <c r="F7" t="n">
-        <v>79.6752564380952</v>
+        <v>80.65720794300881</v>
       </c>
       <c r="G7" t="n">
-        <v>78264.86272056182</v>
+        <v>78265.04071341998</v>
       </c>
       <c r="H7" t="n">
-        <v>1599059.861916631</v>
+        <v>1600839.82978493</v>
       </c>
       <c r="I7" t="n">
-        <v>16.82694898543168</v>
+        <v>16.77950536411392</v>
       </c>
       <c r="J7" t="n">
-        <v>2119.155010246037</v>
+        <v>2034.572628423202</v>
       </c>
       <c r="K7" t="n">
-        <v>135478.7873568031</v>
+        <v>131033.2367786231</v>
       </c>
     </row>
     <row r="8">
@@ -709,34 +709,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99865.45156086628</v>
+        <v>99865.7423088595</v>
       </c>
       <c r="C8" t="n">
-        <v>22.61613445053062</v>
+        <v>22.54469601619907</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0002264660510421512</v>
+        <v>0.0002257500469627916</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997735339489578</v>
+        <v>0.9997742499530372</v>
       </c>
       <c r="F8" t="n">
-        <v>78.69313429188074</v>
+        <v>79.67525643809513</v>
       </c>
       <c r="G8" t="n">
-        <v>74521.13754678772</v>
+        <v>74521.35450741681</v>
       </c>
       <c r="H8" t="n">
-        <v>1520794.999196068</v>
+        <v>1522574.789071511</v>
       </c>
       <c r="I8" t="n">
-        <v>16.07286451370476</v>
+        <v>16.0220945521716</v>
       </c>
       <c r="J8" t="n">
-        <v>2102.328061260605</v>
+        <v>2017.793123059088</v>
       </c>
       <c r="K8" t="n">
-        <v>133359.6323465571</v>
+        <v>128998.6641501999</v>
       </c>
     </row>
     <row r="9">
@@ -744,34 +744,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99842.83542641575</v>
+        <v>99843.1976128433</v>
       </c>
       <c r="C9" t="n">
-        <v>22.69136497701727</v>
+        <v>22.61109468680176</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002272708390151923</v>
+        <v>0.0002264660510421512</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997727291609848</v>
+        <v>0.9997735339489578</v>
       </c>
       <c r="F9" t="n">
-        <v>77.71084639341211</v>
+        <v>78.69313429188064</v>
       </c>
       <c r="G9" t="n">
-        <v>70956.43908480793</v>
+        <v>70956.69648394002</v>
       </c>
       <c r="H9" t="n">
-        <v>1446273.861649281</v>
+        <v>1448053.434564094</v>
       </c>
       <c r="I9" t="n">
-        <v>15.35840899460446</v>
+        <v>15.30407890258514</v>
       </c>
       <c r="J9" t="n">
-        <v>2086.2551967469</v>
+        <v>2001.771028506917</v>
       </c>
       <c r="K9" t="n">
-        <v>131257.3042852965</v>
+        <v>126980.8710271408</v>
       </c>
     </row>
     <row r="10">
@@ -779,34 +779,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99820.14406143874</v>
+        <v>99820.5865181565</v>
       </c>
       <c r="C10" t="n">
-        <v>22.77650328805234</v>
+        <v>22.68630844897002</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000228175419923593</v>
+        <v>0.0002272708390151923</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997718245800764</v>
+        <v>0.9997727291609848</v>
       </c>
       <c r="F10" t="n">
-        <v>76.72839815625687</v>
+        <v>77.71084639341203</v>
       </c>
       <c r="G10" t="n">
-        <v>67562.20262415582</v>
+        <v>67562.50209627839</v>
       </c>
       <c r="H10" t="n">
-        <v>1375317.422564473</v>
+        <v>1377096.738080154</v>
       </c>
       <c r="I10" t="n">
-        <v>14.68193709974251</v>
+        <v>14.62379670227322</v>
       </c>
       <c r="J10" t="n">
-        <v>2070.896787752296</v>
+        <v>1986.466949604332</v>
       </c>
       <c r="K10" t="n">
-        <v>129171.0490885496</v>
+        <v>124979.0999986339</v>
       </c>
     </row>
     <row r="11">
@@ -814,34 +814,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99797.36755815068</v>
+        <v>99797.90020970753</v>
       </c>
       <c r="C11" t="n">
-        <v>22.87277502014301</v>
+        <v>22.77142778784285</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0002291921678877484</v>
+        <v>0.000228175419923593</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997708078321123</v>
+        <v>0.9997718245800764</v>
       </c>
       <c r="F11" t="n">
-        <v>75.74579557267909</v>
+        <v>76.72839815625679</v>
       </c>
       <c r="G11" t="n">
-        <v>64330.27294304865</v>
+        <v>64330.61629499143</v>
       </c>
       <c r="H11" t="n">
-        <v>1307755.219940317</v>
+        <v>1309534.235983875</v>
       </c>
       <c r="I11" t="n">
-        <v>14.04189973012179</v>
+        <v>13.97968132100305</v>
       </c>
       <c r="J11" t="n">
-        <v>2056.214850652554</v>
+        <v>1971.843152902059</v>
       </c>
       <c r="K11" t="n">
-        <v>127100.1523007973</v>
+        <v>122992.6330490295</v>
       </c>
     </row>
     <row r="12">
@@ -849,34 +849,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99774.49478313055</v>
+        <v>99775.12878191969</v>
       </c>
       <c r="C12" t="n">
-        <v>22.98155739431296</v>
+        <v>22.86767806680746</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002303349913649333</v>
+        <v>0.0002291921678877484</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997696650086351</v>
+        <v>0.9997708078321123</v>
       </c>
       <c r="F12" t="n">
-        <v>74.76304527318707</v>
+        <v>75.745795572679</v>
       </c>
       <c r="G12" t="n">
-        <v>61252.88471269716</v>
+        <v>61253.27393295654</v>
       </c>
       <c r="H12" t="n">
-        <v>1243424.946997268</v>
+        <v>1245203.619688884</v>
       </c>
       <c r="I12" t="n">
-        <v>13.43684063940605</v>
+        <v>13.3702577551585</v>
       </c>
       <c r="J12" t="n">
-        <v>2042.172950922432</v>
+        <v>1957.863471581055</v>
       </c>
       <c r="K12" t="n">
-        <v>125043.9374501448</v>
+        <v>121020.7898961275</v>
       </c>
     </row>
     <row r="13">
@@ -884,34 +884,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99751.51322573623</v>
+        <v>99752.26110385288</v>
       </c>
       <c r="C13" t="n">
-        <v>23.10439795118749</v>
+        <v>22.97643619998853</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002316195233941221</v>
+        <v>0.0002303349913649333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997683804766059</v>
+        <v>0.9997696650086351</v>
       </c>
       <c r="F13" t="n">
-        <v>73.78015459195359</v>
+        <v>74.76304527318699</v>
       </c>
       <c r="G13" t="n">
-        <v>58322.64383811979</v>
+        <v>58323.08110696536</v>
       </c>
       <c r="H13" t="n">
-        <v>1182172.062284571</v>
+        <v>1183950.345755927</v>
       </c>
       <c r="I13" t="n">
-        <v>12.86539330368613</v>
+        <v>12.79413941252302</v>
       </c>
       <c r="J13" t="n">
-        <v>2028.736110283026</v>
+        <v>1944.493213825897</v>
       </c>
       <c r="K13" t="n">
-        <v>123001.7644992223</v>
+        <v>119062.9264245464</v>
       </c>
     </row>
     <row r="14">
@@ -919,34 +919,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99728.40882778504</v>
+        <v>99729.2846676529</v>
       </c>
       <c r="C14" t="n">
-        <v>23.24303559801488</v>
+        <v>23.09924938315849</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002330633354248324</v>
+        <v>0.0002316195233941221</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997669366645752</v>
+        <v>0.9997683804766059</v>
       </c>
       <c r="F14" t="n">
-        <v>72.79713163864989</v>
+        <v>73.78015459195352</v>
       </c>
       <c r="G14" t="n">
-        <v>55532.50969061992</v>
+        <v>55532.99739103068</v>
       </c>
       <c r="H14" t="n">
-        <v>1123849.418446451</v>
+        <v>1125627.264648962</v>
       </c>
       <c r="I14" t="n">
-        <v>12.32627803143591</v>
+        <v>12.25002513176909</v>
       </c>
       <c r="J14" t="n">
-        <v>2015.87071697934</v>
+        <v>1931.699074413374</v>
       </c>
       <c r="K14" t="n">
-        <v>120973.0283889393</v>
+        <v>117118.4332107205</v>
       </c>
     </row>
     <row r="15">
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99705.16579218702</v>
+        <v>99706.18541826974</v>
       </c>
       <c r="C15" t="n">
-        <v>23.3994242525571</v>
+        <v>23.23785613606873</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0002346861776583165</v>
+        <v>0.0002330633354248324</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997653138223417</v>
+        <v>0.9997669366645752</v>
       </c>
       <c r="F15" t="n">
-        <v>71.81398537727979</v>
+        <v>72.79713163864982</v>
       </c>
       <c r="G15" t="n">
-        <v>52875.77818922562</v>
+        <v>52876.31891870697</v>
       </c>
       <c r="H15" t="n">
-        <v>1068316.908755831</v>
+        <v>1070094.267257931</v>
       </c>
       <c r="I15" t="n">
-        <v>11.8182993085127</v>
+        <v>11.73669643064858</v>
       </c>
       <c r="J15" t="n">
-        <v>2003.544438947904</v>
+        <v>1919.449049281605</v>
       </c>
       <c r="K15" t="n">
-        <v>118957.15767196</v>
+        <v>115186.7341363072</v>
       </c>
     </row>
     <row r="16">
@@ -989,34 +989,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99681.76636793447</v>
+        <v>99682.94756213368</v>
       </c>
       <c r="C16" t="n">
-        <v>23.57575940281763</v>
+        <v>23.39420994107155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0002365102491843629</v>
+        <v>0.0002346861776583165</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997634897508156</v>
+        <v>0.9997653138223417</v>
       </c>
       <c r="F16" t="n">
-        <v>70.83072571264688</v>
+        <v>71.81398537727971</v>
       </c>
       <c r="G16" t="n">
-        <v>50346.06569043018</v>
+        <v>50346.66227376646</v>
       </c>
       <c r="H16" t="n">
-        <v>1015441.130566606</v>
+        <v>1017217.948339224</v>
       </c>
       <c r="I16" t="n">
-        <v>11.34034337323423</v>
+        <v>11.25301497798516</v>
       </c>
       <c r="J16" t="n">
-        <v>1991.726139639391</v>
+        <v>1907.712352850956</v>
       </c>
       <c r="K16" t="n">
-        <v>116953.6132330121</v>
+        <v>113267.2850870255</v>
       </c>
     </row>
     <row r="17">
@@ -1024,34 +1024,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>99658.19060853166</v>
+        <v>99659.5533521926</v>
       </c>
       <c r="C17" t="n">
-        <v>23.7745079408261</v>
+        <v>23.57050579692938</v>
       </c>
       <c r="D17" t="n">
-        <v>0.000238560501607088</v>
+        <v>0.0002365102491843629</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997614394983929</v>
+        <v>0.9997634897508156</v>
       </c>
       <c r="F17" t="n">
-        <v>69.84736358513787</v>
+        <v>70.83072571264681</v>
       </c>
       <c r="G17" t="n">
-        <v>47937.29364751265</v>
+        <v>47937.94915051388</v>
       </c>
       <c r="H17" t="n">
-        <v>965095.0648761755</v>
+        <v>966871.2860654577</v>
       </c>
       <c r="I17" t="n">
-        <v>10.89137601736847</v>
+        <v>10.79792028473843</v>
       </c>
       <c r="J17" t="n">
-        <v>1980.385796266157</v>
+        <v>1896.459337872971</v>
       </c>
       <c r="K17" t="n">
-        <v>114961.8870933727</v>
+        <v>111359.5727341746</v>
       </c>
     </row>
     <row r="18">
@@ -1059,34 +1059,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>99634.41610059084</v>
+        <v>99635.98284639567</v>
       </c>
       <c r="C18" t="n">
-        <v>23.99844167239508</v>
+        <v>23.76921004595136</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0002408649803112839</v>
+        <v>0.000238560501607088</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997591350196887</v>
+        <v>0.9997614394983929</v>
       </c>
       <c r="F18" t="n">
-        <v>68.86391107455724</v>
+        <v>69.84736358513778</v>
       </c>
       <c r="G18" t="n">
-        <v>45643.67400256611</v>
+        <v>45644.39174687133</v>
       </c>
       <c r="H18" t="n">
-        <v>917157.7712286628</v>
+        <v>918933.3369149438</v>
       </c>
       <c r="I18" t="n">
-        <v>10.47044060948833</v>
+        <v>10.37042761017529</v>
       </c>
       <c r="J18" t="n">
-        <v>1969.494420248789</v>
+        <v>1885.661417588233</v>
       </c>
       <c r="K18" t="n">
-        <v>112981.5012971065</v>
+        <v>109463.1133963016</v>
       </c>
     </row>
     <row r="19">
@@ -1094,34 +1094,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>99610.41765891845</v>
+        <v>99612.21363634971</v>
       </c>
       <c r="C19" t="n">
-        <v>24.2506749535094</v>
+        <v>23.99309387628278</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000243455208034038</v>
+        <v>0.0002408649803112839</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999756544791966</v>
+        <v>0.9997591350196887</v>
       </c>
       <c r="F19" t="n">
-        <v>67.88038151380422</v>
+        <v>68.86391107455717</v>
       </c>
       <c r="G19" t="n">
-        <v>43459.69527612014</v>
+        <v>43460.47885512443</v>
       </c>
       <c r="H19" t="n">
-        <v>871514.0972260968</v>
+        <v>873288.9451680725</v>
       </c>
       <c r="I19" t="n">
-        <v>10.07665633766069</v>
+        <v>9.969626079770013</v>
       </c>
       <c r="J19" t="n">
-        <v>1959.0239796393</v>
+        <v>1875.290989978057</v>
       </c>
       <c r="K19" t="n">
-        <v>111012.0068768577</v>
+        <v>107577.4519787134</v>
       </c>
     </row>
     <row r="20">
@@ -1129,34 +1129,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>99586.16698396494</v>
+        <v>99588.22054247343</v>
       </c>
       <c r="C20" t="n">
-        <v>24.53470695862222</v>
+        <v>24.24527094990752</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0002463666159836508</v>
+        <v>0.000243455208034038</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997536333840163</v>
+        <v>0.999756544791966</v>
       </c>
       <c r="F20" t="n">
-        <v>66.89678961324034</v>
+        <v>67.88038151380417</v>
       </c>
       <c r="G20" t="n">
-        <v>41380.10932091961</v>
+        <v>41380.96261689586</v>
       </c>
       <c r="H20" t="n">
-        <v>828054.4019499766</v>
+        <v>829828.466312948</v>
       </c>
       <c r="I20" t="n">
-        <v>9.709216668979517</v>
+        <v>9.594677011947743</v>
       </c>
       <c r="J20" t="n">
-        <v>1948.947323301639</v>
+        <v>1865.321363898287</v>
       </c>
       <c r="K20" t="n">
-        <v>109052.9828972184</v>
+        <v>105702.1609887353</v>
       </c>
     </row>
     <row r="21">
@@ -1164,34 +1164,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>99561.63227700631</v>
+        <v>99563.97527152352</v>
       </c>
       <c r="C21" t="n">
-        <v>24.85446914740906</v>
+        <v>24.52923966152514</v>
       </c>
       <c r="D21" t="n">
-        <v>0.000249639028398585</v>
+        <v>0.0002463666159836508</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997503609716014</v>
+        <v>0.9997536333840163</v>
       </c>
       <c r="F21" t="n">
-        <v>65.91315159665604</v>
+        <v>66.89678961324029</v>
       </c>
       <c r="G21" t="n">
-        <v>39399.91870801636</v>
+        <v>39400.84591050792</v>
       </c>
       <c r="H21" t="n">
-        <v>786674.292629057</v>
+        <v>788447.5036960521</v>
       </c>
       <c r="I21" t="n">
-        <v>9.367388024049939</v>
+        <v>9.244812451300099</v>
       </c>
       <c r="J21" t="n">
-        <v>1939.23810663266</v>
+        <v>1855.72668688634</v>
       </c>
       <c r="K21" t="n">
-        <v>107104.0355739168</v>
+        <v>103836.839624837</v>
       </c>
     </row>
     <row r="22">
@@ -1199,34 +1199,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>99536.7778078589</v>
+        <v>99539.446031862</v>
       </c>
       <c r="C22" t="n">
-        <v>25.21437856469267</v>
+        <v>24.84893059472741</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002533172071670364</v>
+        <v>0.000249639028398585</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999746682792833</v>
+        <v>0.9997503609716014</v>
       </c>
       <c r="F22" t="n">
-        <v>64.92948534980736</v>
+        <v>65.91315159665596</v>
       </c>
       <c r="G22" t="n">
-        <v>37514.36471484867</v>
+        <v>37515.37034041338</v>
       </c>
       <c r="H22" t="n">
-        <v>747274.3739210407</v>
+        <v>749046.6577855442</v>
       </c>
       <c r="I22" t="n">
-        <v>9.050508664962937</v>
+        <v>8.919333906470371</v>
       </c>
       <c r="J22" t="n">
-        <v>1929.87071860861</v>
+        <v>1846.48187443504</v>
       </c>
       <c r="K22" t="n">
-        <v>105164.7974672841</v>
+        <v>101981.1129379507</v>
       </c>
     </row>
     <row r="23">
@@ -1234,34 +1234,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>99511.56342929421</v>
+        <v>99514.59710126727</v>
       </c>
       <c r="C23" t="n">
-        <v>25.61939768475418</v>
+        <v>25.20875981004588</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0002574514639492875</v>
+        <v>0.0002533172071670364</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997425485360507</v>
+        <v>0.999746682792833</v>
       </c>
       <c r="F23" t="n">
-        <v>63.94581058255775</v>
+        <v>64.92948534980732</v>
       </c>
       <c r="G23" t="n">
-        <v>35718.91588642901</v>
+        <v>35720.00479982056</v>
       </c>
       <c r="H23" t="n">
-        <v>709760.0092061919</v>
+        <v>711531.2874451309</v>
       </c>
       <c r="I23" t="n">
-        <v>8.757987795850106</v>
+        <v>8.617611291317791</v>
       </c>
       <c r="J23" t="n">
-        <v>1920.820209943647</v>
+        <v>1837.562540528569</v>
       </c>
       <c r="K23" t="n">
-        <v>103234.9267486755</v>
+        <v>100134.6310635157</v>
       </c>
     </row>
     <row r="24">
@@ -1269,34 +1269,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>99485.94403160946</v>
+        <v>99489.38834145722</v>
       </c>
       <c r="C24" t="n">
-        <v>26.07510159630244</v>
+        <v>25.61368867592734</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0002620983481648187</v>
+        <v>0.0002574514639492875</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997379016518352</v>
+        <v>0.9997425485360507</v>
       </c>
       <c r="F24" t="n">
-        <v>62.96214900572465</v>
+        <v>63.94581058255771</v>
       </c>
       <c r="G24" t="n">
-        <v>34009.25714213654</v>
+        <v>34010.43457901398</v>
       </c>
       <c r="H24" t="n">
-        <v>674041.093319763</v>
+        <v>675811.2826453103</v>
       </c>
       <c r="I24" t="n">
-        <v>8.489304875491952</v>
+        <v>8.339082068493923</v>
       </c>
       <c r="J24" t="n">
-        <v>1912.062222147797</v>
+        <v>1828.944929237251</v>
       </c>
       <c r="K24" t="n">
-        <v>101314.1065387319</v>
+        <v>98297.0685229871</v>
       </c>
     </row>
     <row r="25">
@@ -1304,34 +1304,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99459.86893001315</v>
+        <v>99463.77465278129</v>
       </c>
       <c r="C25" t="n">
-        <v>26.58775341928814</v>
+        <v>26.06929103873174</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0002673214202403296</v>
+        <v>0.0002620983481648187</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997326785797597</v>
+        <v>0.9997379016518352</v>
       </c>
       <c r="F25" t="n">
-        <v>61.97852452379811</v>
+        <v>62.96214900572461</v>
       </c>
       <c r="G25" t="n">
-        <v>32381.27940192121</v>
+        <v>32382.55099318291</v>
       </c>
       <c r="H25" t="n">
-        <v>640031.8361776264</v>
+        <v>641800.8480662962</v>
       </c>
       <c r="I25" t="n">
-        <v>8.244009141829055</v>
+        <v>8.083250594929762</v>
       </c>
       <c r="J25" t="n">
-        <v>1903.572917272305</v>
+        <v>1820.605847168757</v>
       </c>
       <c r="K25" t="n">
-        <v>99402.04431658407</v>
+        <v>96468.12359374984</v>
       </c>
     </row>
     <row r="26">
@@ -1339,34 +1339,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99433.28117659387</v>
+        <v>99437.70536174256</v>
       </c>
       <c r="C26" t="n">
-        <v>27.16438895084848</v>
+        <v>26.58182862274045</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002731921206804433</v>
+        <v>0.0002673214202403296</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997268078793196</v>
+        <v>0.9997326785797597</v>
       </c>
       <c r="F26" t="n">
-        <v>60.99496344476378</v>
+        <v>61.97852452379806</v>
       </c>
       <c r="G26" t="n">
-        <v>30831.06970697361</v>
+        <v>30832.44150481737</v>
       </c>
       <c r="H26" t="n">
-        <v>607650.5567757052</v>
+        <v>609418.2970731134</v>
       </c>
       <c r="I26" t="n">
-        <v>8.021719348661613</v>
+        <v>7.849687669090152</v>
       </c>
       <c r="J26" t="n">
-        <v>1895.328908130476</v>
+        <v>1812.522596573828</v>
       </c>
       <c r="K26" t="n">
-        <v>97498.47139931175</v>
+        <v>94647.51774658108</v>
       </c>
     </row>
     <row r="27">
@@ -1374,34 +1374,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99406.11678764303</v>
+        <v>99411.12353311981</v>
       </c>
       <c r="C27" t="n">
-        <v>27.8129116548381</v>
+        <v>27.15833565723852</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0002797907468234939</v>
+        <v>0.0002731921206804433</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9997202092531765</v>
+        <v>0.9997268078793196</v>
       </c>
       <c r="F27" t="n">
-        <v>60.01149470832869</v>
+        <v>60.99496344476375</v>
       </c>
       <c r="G27" t="n">
-        <v>29354.90181110239</v>
+        <v>29356.38031691887</v>
       </c>
       <c r="H27" t="n">
-        <v>576819.4870687316</v>
+        <v>578585.855568296</v>
       </c>
       <c r="I27" t="n">
-        <v>7.822123714913022</v>
+        <v>7.638030280267325</v>
       </c>
       <c r="J27" t="n">
-        <v>1887.307188781814</v>
+        <v>1804.672908904737</v>
       </c>
       <c r="K27" t="n">
-        <v>95603.14249118128</v>
+        <v>92834.99515000726</v>
       </c>
     </row>
     <row r="28">
@@ -1409,34 +1409,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99378.30387598819</v>
+        <v>99383.96519746257</v>
       </c>
       <c r="C28" t="n">
-        <v>28.54219924085526</v>
+        <v>27.80671384487818</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0002872075506186178</v>
+        <v>0.0002797907468234939</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9997127924493814</v>
+        <v>0.9997202092531765</v>
       </c>
       <c r="F28" t="n">
-        <v>59.02815013391167</v>
+        <v>60.01149470832866</v>
       </c>
       <c r="G28" t="n">
-        <v>27949.22722019213</v>
+        <v>27950.81941440437</v>
       </c>
       <c r="H28" t="n">
-        <v>547464.5852576292</v>
+        <v>549229.4752513771</v>
       </c>
       <c r="I28" t="n">
-        <v>7.644980087232934</v>
+        <v>7.447981560271249</v>
       </c>
       <c r="J28" t="n">
-        <v>1879.485065066901</v>
+        <v>1797.03487862447</v>
       </c>
       <c r="K28" t="n">
-        <v>93715.83530239947</v>
+        <v>91030.32224110252</v>
       </c>
     </row>
     <row r="29">
@@ -1444,34 +1444,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>99349.76167674734</v>
+        <v>99356.15848361769</v>
       </c>
       <c r="C29" t="n">
-        <v>29.36222322318767</v>
+        <v>28.53583891695504</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0002955439724025011</v>
+        <v>0.0002872075506186178</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9997044560275975</v>
+        <v>0.9997127924493814</v>
       </c>
       <c r="F29" t="n">
-        <v>58.04496468982128</v>
+        <v>59.02815013391166</v>
       </c>
       <c r="G29" t="n">
-        <v>26610.66665819098</v>
+        <v>26612.38003215818</v>
       </c>
       <c r="H29" t="n">
-        <v>519515.358037437</v>
+        <v>521278.6558369728</v>
       </c>
       <c r="I29" t="n">
-        <v>7.490116316610049</v>
+        <v>7.279310938255203</v>
       </c>
       <c r="J29" t="n">
-        <v>1871.840084979668</v>
+        <v>1789.586897064199</v>
       </c>
       <c r="K29" t="n">
-        <v>91836.35023733258</v>
+        <v>89233.28736247805</v>
       </c>
     </row>
     <row r="30">
@@ -1479,34 +1479,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>99320.39945352415</v>
+        <v>99327.62264470074</v>
       </c>
       <c r="C30" t="n">
-        <v>30.28418301100979</v>
+        <v>29.35568016571148</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0003049140275073192</v>
+        <v>0.0002955439724025011</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9996950859724927</v>
+        <v>0.9997044560275975</v>
       </c>
       <c r="F30" t="n">
-        <v>57.0619767850997</v>
+        <v>58.04496468982128</v>
       </c>
       <c r="G30" t="n">
-        <v>25336.00193910337</v>
+        <v>25337.84452921239</v>
       </c>
       <c r="H30" t="n">
-        <v>492904.6913792461</v>
+        <v>494666.2758048146</v>
       </c>
       <c r="I30" t="n">
-        <v>7.357430849700246</v>
+        <v>7.131854499314675</v>
       </c>
       <c r="J30" t="n">
-        <v>1864.349968663058</v>
+        <v>1782.307586125944</v>
       </c>
       <c r="K30" t="n">
-        <v>89964.51015235289</v>
+        <v>87443.70046541386</v>
       </c>
     </row>
     <row r="31">
@@ -1514,34 +1514,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>99290.11527051314</v>
+        <v>99298.26696453503</v>
       </c>
       <c r="C31" t="n">
-        <v>31.32065625881824</v>
+        <v>30.27743450465336</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0003154458646108527</v>
+        <v>0.0003049140275073192</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9996845541353891</v>
+        <v>0.9996950859724927</v>
       </c>
       <c r="F31" t="n">
-        <v>56.07922858556098</v>
+        <v>57.06197678509969</v>
       </c>
       <c r="G31" t="n">
-        <v>24122.16822543923</v>
+        <v>24124.14864951248</v>
       </c>
       <c r="H31" t="n">
-        <v>467568.6894401427</v>
+        <v>469328.4312756023</v>
       </c>
       <c r="I31" t="n">
-        <v>7.246893535392489</v>
+        <v>7.005515547531529</v>
       </c>
       <c r="J31" t="n">
-        <v>1856.992537813358</v>
+        <v>1775.175731626629</v>
       </c>
       <c r="K31" t="n">
-        <v>88100.16018368983</v>
+        <v>85661.39287928792</v>
       </c>
     </row>
     <row r="32">
@@ -1549,34 +1549,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>99258.79461425432</v>
+        <v>99267.98953003038</v>
       </c>
       <c r="C32" t="n">
-        <v>32.48576740163715</v>
+        <v>31.3136767854815</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0003272835170715638</v>
+        <v>0.0003154458646108527</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9996727164829284</v>
+        <v>0.9996845541353891</v>
       </c>
       <c r="F32" t="n">
-        <v>55.09676635559359</v>
+        <v>56.07922858556097</v>
       </c>
       <c r="G32" t="n">
-        <v>22966.24665450196</v>
+        <v>22968.37415065483</v>
       </c>
       <c r="H32" t="n">
-        <v>443446.5212147034</v>
+        <v>445204.2826260898</v>
       </c>
       <c r="I32" t="n">
-        <v>7.158546646684226</v>
+        <v>6.90026537396083</v>
       </c>
       <c r="J32" t="n">
-        <v>1849.745644277966</v>
+        <v>1768.170216079097</v>
       </c>
       <c r="K32" t="n">
-        <v>86243.16764587647</v>
+        <v>83886.21714766129</v>
       </c>
     </row>
     <row r="33">
@@ -1584,34 +1584,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>99226.30884685268</v>
+        <v>99236.67585324489</v>
       </c>
       <c r="C33" t="n">
-        <v>33.79537651488049</v>
+        <v>32.47852829574072</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0003405888711132121</v>
+        <v>0.0003272835170715638</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9996594111288868</v>
+        <v>0.9996727164829284</v>
       </c>
       <c r="F33" t="n">
-        <v>54.11464082732716</v>
+        <v>55.09676635559358</v>
       </c>
       <c r="G33" t="n">
-        <v>21865.45731478375</v>
+        <v>21867.74178286874</v>
       </c>
       <c r="H33" t="n">
-        <v>420480.2745602015</v>
+        <v>422235.9084754349</v>
       </c>
       <c r="I33" t="n">
-        <v>7.092506117348881</v>
+        <v>6.816144229628636</v>
       </c>
       <c r="J33" t="n">
-        <v>1842.587097631281</v>
+        <v>1761.269950705137</v>
       </c>
       <c r="K33" t="n">
-        <v>84393.42200159852</v>
+        <v>82118.04693158218</v>
       </c>
     </row>
     <row r="34">
@@ -1619,34 +1619,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>99192.5134703378</v>
+        <v>99204.19732494914</v>
       </c>
       <c r="C34" t="n">
-        <v>35.26729087461567</v>
+        <v>33.78784557659677</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000355543877665343</v>
+        <v>0.0003405888711132121</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9996444561223347</v>
+        <v>0.9996594111288868</v>
       </c>
       <c r="F34" t="n">
-        <v>53.13290759878075</v>
+        <v>54.11464082732714</v>
       </c>
       <c r="G34" t="n">
-        <v>20817.15255558146</v>
+        <v>20819.60460135964</v>
       </c>
       <c r="H34" t="n">
-        <v>398614.8172454177</v>
+        <v>400368.1666925661</v>
       </c>
       <c r="I34" t="n">
-        <v>7.048962991964226</v>
+        <v>6.75326250304811</v>
       </c>
       <c r="J34" t="n">
-        <v>1835.494591513932</v>
+        <v>1754.453806475508</v>
       </c>
       <c r="K34" t="n">
-        <v>82550.83490396722</v>
+        <v>80356.77698087705</v>
       </c>
     </row>
     <row r="35">
@@ -1654,34 +1654,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>99157.24617946318</v>
+        <v>99170.40947937254</v>
       </c>
       <c r="C35" t="n">
-        <v>36.92150185147593</v>
+        <v>35.259431935956</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0003723530379681206</v>
+        <v>0.000355543877665343</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9996276469620319</v>
+        <v>0.9996444561223347</v>
       </c>
       <c r="F35" t="n">
-        <v>52.15162756260975</v>
+        <v>53.13290759878074</v>
       </c>
       <c r="G35" t="n">
-        <v>19818.81061375228</v>
+        <v>19821.4415959347</v>
       </c>
       <c r="H35" t="n">
-        <v>377797.6646898363</v>
+        <v>379548.5620912065</v>
       </c>
       <c r="I35" t="n">
-        <v>7.028185086614757</v>
+        <v>6.711802100891188</v>
       </c>
       <c r="J35" t="n">
-        <v>1828.445628521968</v>
+        <v>1747.70054397246</v>
       </c>
       <c r="K35" t="n">
-        <v>80715.34031245329</v>
+        <v>78602.32317440154</v>
       </c>
     </row>
     <row r="36">
@@ -1689,34 +1689,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>99120.3246776117</v>
+        <v>99135.15004743657</v>
       </c>
       <c r="C36" t="n">
-        <v>38.78045005121562</v>
+        <v>36.91327428958848</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0003912461967547909</v>
+        <v>0.0003723530379681206</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9996087538032452</v>
+        <v>0.9996276469620319</v>
       </c>
       <c r="F36" t="n">
-        <v>51.17086736704832</v>
+        <v>52.15162756260975</v>
       </c>
       <c r="G36" t="n">
-        <v>18868.02954229651</v>
+        <v>18870.85162259882</v>
       </c>
       <c r="H36" t="n">
-        <v>357978.854076084</v>
+        <v>359727.1204952718</v>
       </c>
       <c r="I36" t="n">
-        <v>7.030518855886236</v>
+        <v>6.692018029257436</v>
       </c>
       <c r="J36" t="n">
-        <v>1821.417443435353</v>
+        <v>1740.988741871569</v>
       </c>
       <c r="K36" t="n">
-        <v>78886.89468393133</v>
+        <v>76854.62263042908</v>
       </c>
     </row>
     <row r="37">
@@ -1724,34 +1724,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>99081.54422756049</v>
+        <v>99098.23677314699</v>
       </c>
       <c r="C37" t="n">
-        <v>40.86932191748133</v>
+        <v>38.77180824259952</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000412481680984067</v>
+        <v>0.0003912461967547909</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9995875183190159</v>
+        <v>0.9996087538032452</v>
       </c>
       <c r="F37" t="n">
-        <v>50.19069991059918</v>
+        <v>51.17086736704832</v>
       </c>
       <c r="G37" t="n">
-        <v>17962.52142618841</v>
+        <v>17965.54762254105</v>
       </c>
       <c r="H37" t="n">
-        <v>339110.8245337875</v>
+        <v>340856.268872673</v>
       </c>
       <c r="I37" t="n">
-        <v>7.056391459606205</v>
+        <v>6.694240171367866</v>
       </c>
       <c r="J37" t="n">
-        <v>1814.386924579467</v>
+        <v>1734.296723842311</v>
       </c>
       <c r="K37" t="n">
-        <v>77065.47724049598</v>
+        <v>75113.63388855751</v>
       </c>
     </row>
     <row r="38">
@@ -1759,34 +1759,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>99040.67490564301</v>
+        <v>99059.46496490439</v>
       </c>
       <c r="C38" t="n">
-        <v>43.21638133716049</v>
+        <v>40.86021462610606</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0004363498267588861</v>
+        <v>0.000412481680984067</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9995636501732411</v>
+        <v>0.9995875183190159</v>
       </c>
       <c r="F38" t="n">
-        <v>49.21120487194851</v>
+        <v>50.19069991059919</v>
       </c>
       <c r="G38" t="n">
-        <v>17100.10687157698</v>
+        <v>17103.35111462963</v>
       </c>
       <c r="H38" t="n">
-        <v>321148.3031075991</v>
+        <v>322890.721250132</v>
       </c>
       <c r="I38" t="n">
-        <v>7.106313019972429</v>
+        <v>6.718875255450614</v>
       </c>
       <c r="J38" t="n">
-        <v>1807.330533119861</v>
+        <v>1727.602483670943</v>
       </c>
       <c r="K38" t="n">
-        <v>75251.0903159165</v>
+        <v>73379.33716471519</v>
       </c>
     </row>
     <row r="39">
@@ -1794,34 +1794,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>98997.45852430585</v>
+        <v>99018.60475027827</v>
       </c>
       <c r="C39" t="n">
-        <v>45.8533401347286</v>
+        <v>43.20675102869054</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0004631769422996923</v>
+        <v>0.0004363498267588861</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9995368230577003</v>
+        <v>0.9995636501732411</v>
       </c>
       <c r="F39" t="n">
-        <v>48.23246927647484</v>
+        <v>49.2112048719485</v>
       </c>
       <c r="G39" t="n">
-        <v>16278.70975514857</v>
+        <v>16282.18694820134</v>
       </c>
       <c r="H39" t="n">
-        <v>304048.1962360221</v>
+        <v>305787.3701355023</v>
       </c>
       <c r="I39" t="n">
-        <v>7.180879056165609</v>
+        <v>6.766409003908047</v>
       </c>
       <c r="J39" t="n">
-        <v>1800.224220099888</v>
+        <v>1720.883608415493</v>
       </c>
       <c r="K39" t="n">
-        <v>73443.75978279664</v>
+        <v>71651.73468104425</v>
       </c>
     </row>
     <row r="40">
@@ -1829,34 +1829,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>98951.60518417113</v>
+        <v>98975.39799924959</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81577170670011</v>
+        <v>45.84312220818751</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0004933297607031539</v>
+        <v>0.0004631769422996923</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9995066702392968</v>
+        <v>0.9995368230577003</v>
       </c>
       <c r="F40" t="n">
-        <v>47.25458810057204</v>
+        <v>48.23246927647482</v>
       </c>
       <c r="G40" t="n">
-        <v>15496.35222108533</v>
+        <v>15500.07830356879</v>
       </c>
       <c r="H40" t="n">
-        <v>287769.4864808735</v>
+        <v>289505.183187301</v>
       </c>
       <c r="I40" t="n">
-        <v>7.280773079047443</v>
+        <v>6.837408451478852</v>
       </c>
       <c r="J40" t="n">
-        <v>1793.043341043723</v>
+        <v>1714.117199411585</v>
       </c>
       <c r="K40" t="n">
-        <v>71643.53556269675</v>
+        <v>69930.85107262876</v>
       </c>
     </row>
     <row r="41">
@@ -1864,34 +1864,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>98902.78941246444</v>
+        <v>98929.5548770414</v>
       </c>
       <c r="C41" t="n">
-        <v>52.14357242769641</v>
+        <v>48.80489363396037</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0005272204427949623</v>
+        <v>0.0004933297607031539</v>
       </c>
       <c r="E41" t="n">
-        <v>0.999472779557205</v>
+        <v>0.9995066702392968</v>
       </c>
       <c r="F41" t="n">
-        <v>46.27766491481072</v>
+        <v>47.25458810057203</v>
       </c>
       <c r="G41" t="n">
-        <v>14751.14991366889</v>
+        <v>14755.14192828071</v>
       </c>
       <c r="H41" t="n">
-        <v>272273.1342597882</v>
+        <v>274005.1048837322</v>
       </c>
       <c r="I41" t="n">
-        <v>7.406769323066078</v>
+        <v>6.932524415828374</v>
       </c>
       <c r="J41" t="n">
-        <v>1785.762567964675</v>
+        <v>1707.279790960106</v>
       </c>
       <c r="K41" t="n">
-        <v>69850.49222165304</v>
+        <v>68216.73387321718</v>
       </c>
     </row>
     <row r="42">
@@ -1899,34 +1899,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>98850.64584003674</v>
+        <v>98880.74998340744</v>
       </c>
       <c r="C42" t="n">
-        <v>55.88147584856598</v>
+        <v>52.13195279015003</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0005653121977472475</v>
+        <v>0.0005272204427949623</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9994346878022528</v>
+        <v>0.999472779557205</v>
       </c>
       <c r="F42" t="n">
-        <v>45.30181256671295</v>
+        <v>46.27766491481071</v>
       </c>
       <c r="G42" t="n">
-        <v>14041.30743417111</v>
+        <v>14045.58359775627</v>
       </c>
       <c r="H42" t="n">
-        <v>257521.9843461193</v>
+        <v>259249.9629554515</v>
       </c>
       <c r="I42" t="n">
-        <v>7.559735585577178</v>
+        <v>7.052494098783542</v>
       </c>
       <c r="J42" t="n">
-        <v>1778.355798641609</v>
+        <v>1700.347266544277</v>
       </c>
       <c r="K42" t="n">
-        <v>68064.72965368835</v>
+        <v>66509.45408225707</v>
       </c>
     </row>
     <row r="43">
@@ -1934,34 +1934,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>98794.76436418817</v>
+        <v>98828.61803061729</v>
       </c>
       <c r="C43" t="n">
-        <v>60.07962509729477</v>
+        <v>55.86902325921151</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0006081255973831023</v>
+        <v>0.0005653121977472475</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9993918744026169</v>
+        <v>0.9994346878022528</v>
       </c>
       <c r="F43" t="n">
-        <v>44.32715390360497</v>
+        <v>45.30181256671293</v>
       </c>
       <c r="G43" t="n">
-        <v>13365.11401124405</v>
+        <v>13369.69378947862</v>
       </c>
       <c r="H43" t="n">
-        <v>243480.6769119482</v>
+        <v>245204.3793576952</v>
       </c>
       <c r="I43" t="n">
-        <v>7.740636135410535</v>
+        <v>7.198143789845601</v>
       </c>
       <c r="J43" t="n">
-        <v>1770.796063056032</v>
+        <v>1693.294772445494</v>
       </c>
       <c r="K43" t="n">
-        <v>66286.37385504675</v>
+        <v>64809.1068157128</v>
       </c>
     </row>
     <row r="44">
@@ -1969,34 +1969,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>98734.68473909088</v>
+        <v>98772.74900735808</v>
       </c>
       <c r="C44" t="n">
-        <v>64.79420927223983</v>
+        <v>60.06623699527086</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0006562456693254282</v>
+        <v>0.0006081255973831023</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9993437543306746</v>
+        <v>0.9993918744026169</v>
       </c>
       <c r="F44" t="n">
-        <v>43.35382253563196</v>
+        <v>44.32715390360494</v>
       </c>
       <c r="G44" t="n">
-        <v>12720.93937457321</v>
+        <v>12725.8435604755</v>
       </c>
       <c r="H44" t="n">
-        <v>230115.5629007042</v>
+        <v>231834.6855682167</v>
       </c>
       <c r="I44" t="n">
-        <v>7.950534642204753</v>
+        <v>7.370391635636258</v>
       </c>
       <c r="J44" t="n">
-        <v>1763.055426920622</v>
+        <v>1686.096628655648</v>
       </c>
       <c r="K44" t="n">
-        <v>64515.57779199071</v>
+        <v>63115.8120432673</v>
       </c>
     </row>
     <row r="45">
@@ -2004,34 +2004,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>98669.89052981864</v>
+        <v>98712.68277036281</v>
       </c>
       <c r="C45" t="n">
-        <v>70.08816996811052</v>
+        <v>64.7797705755454</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0007103298644780542</v>
+        <v>0.0006562456693254282</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9992896701355219</v>
+        <v>0.9993437543306746</v>
       </c>
       <c r="F45" t="n">
-        <v>42.38196363856193</v>
+        <v>43.35382253563195</v>
       </c>
       <c r="G45" t="n">
-        <v>12107.22982209419</v>
+        <v>12112.48061834103</v>
       </c>
       <c r="H45" t="n">
-        <v>217394.6235261309</v>
+        <v>219108.8420077412</v>
       </c>
       <c r="I45" t="n">
-        <v>8.190597065459828</v>
+        <v>7.570250429118558</v>
       </c>
       <c r="J45" t="n">
-        <v>1755.104892278417</v>
+        <v>1678.726237020012</v>
       </c>
       <c r="K45" t="n">
-        <v>62752.52236507009</v>
+        <v>61429.71541461165</v>
       </c>
     </row>
     <row r="46">
@@ -2039,34 +2039,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>98599.80235985054</v>
+        <v>98647.90299978726</v>
       </c>
       <c r="C46" t="n">
-        <v>76.03198437684915</v>
+        <v>70.07255156888313</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0007711170058877226</v>
+        <v>0.0007103298644780542</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9992288829941123</v>
+        <v>0.9992896701355219</v>
       </c>
       <c r="F46" t="n">
-        <v>41.41173479545922</v>
+        <v>42.38196363856191</v>
       </c>
       <c r="G46" t="n">
-        <v>11522.50447159567</v>
+        <v>11528.12557656234</v>
       </c>
       <c r="H46" t="n">
-        <v>205287.3937040368</v>
+        <v>206996.3613894001</v>
       </c>
       <c r="I46" t="n">
-        <v>8.462094427109285</v>
+        <v>7.798830360462397</v>
       </c>
       <c r="J46" t="n">
-        <v>1746.914295212957</v>
+        <v>1671.155986590893</v>
       </c>
       <c r="K46" t="n">
-        <v>60997.41747279168</v>
+        <v>59750.98917759164</v>
       </c>
     </row>
     <row r="47">
@@ -2074,34 +2074,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>98523.77037547369</v>
+        <v>98577.83044821837</v>
       </c>
       <c r="C47" t="n">
-        <v>82.70453162625618</v>
+        <v>76.01504146213773</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0008394373389393195</v>
+        <v>0.0007711170058877226</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9991605626610607</v>
+        <v>0.9992288829941123</v>
       </c>
       <c r="F47" t="n">
-        <v>40.44330687566833</v>
+        <v>41.41173479545921</v>
       </c>
       <c r="G47" t="n">
-        <v>10965.35168804496</v>
+        <v>10971.36838541319</v>
       </c>
       <c r="H47" t="n">
-        <v>193764.8892324411</v>
+        <v>195468.2358128378</v>
       </c>
       <c r="I47" t="n">
-        <v>8.766405372901174</v>
+        <v>8.05734165700099</v>
       </c>
       <c r="J47" t="n">
-        <v>1738.452200785848</v>
+        <v>1663.357156230431</v>
       </c>
       <c r="K47" t="n">
-        <v>59250.50317757872</v>
+        <v>58079.83319100074</v>
       </c>
     </row>
     <row r="48">
@@ -2109,34 +2109,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>98441.06584384743</v>
+        <v>98501.81540675624</v>
       </c>
       <c r="C48" t="n">
-        <v>90.19404912320255</v>
+        <v>82.68610180573953</v>
       </c>
       <c r="D48" t="n">
-        <v>0.000916223817266193</v>
+        <v>0.0008394373389393195</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9990837761827338</v>
+        <v>0.9991605626610607</v>
       </c>
       <c r="F48" t="n">
-        <v>39.47686494880009</v>
+        <v>40.44330687566832</v>
       </c>
       <c r="G48" t="n">
-        <v>10434.42567847944</v>
+        <v>10440.86493016509</v>
       </c>
       <c r="H48" t="n">
-        <v>182799.5375443961</v>
+        <v>184496.8674274246</v>
       </c>
       <c r="I48" t="n">
-        <v>9.10501840582554</v>
+        <v>8.347097022097758</v>
       </c>
       <c r="J48" t="n">
-        <v>1729.685795412946</v>
+        <v>1655.29981457343</v>
       </c>
       <c r="K48" t="n">
-        <v>57512.05097679287</v>
+        <v>56416.47603477031</v>
       </c>
     </row>
     <row r="49">
@@ -2144,34 +2144,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>98350.87179472423</v>
+        <v>98419.1293049505</v>
       </c>
       <c r="C49" t="n">
-        <v>98.59918560089527</v>
+        <v>90.17395034379679</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001002524774835645</v>
+        <v>0.000916223817266193</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9989974752251644</v>
+        <v>0.9990837761827338</v>
       </c>
       <c r="F49" t="n">
-        <v>38.51260923055082</v>
+        <v>39.47686494880007</v>
       </c>
       <c r="G49" t="n">
-        <v>9928.443246812687</v>
+        <v>9935.333788849415</v>
       </c>
       <c r="H49" t="n">
-        <v>172365.1118659167</v>
+        <v>174056.0024972595</v>
       </c>
       <c r="I49" t="n">
-        <v>9.479533648075586</v>
+        <v>8.669513761746094</v>
       </c>
       <c r="J49" t="n">
-        <v>1720.580777007121</v>
+        <v>1646.952717551332</v>
       </c>
       <c r="K49" t="n">
-        <v>55782.36518137992</v>
+        <v>54761.17622019689</v>
       </c>
     </row>
     <row r="50">
@@ -2179,34 +2179,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>98252.27260912333</v>
+        <v>98328.9553546067</v>
       </c>
       <c r="C50" t="n">
-        <v>108.0301572686121</v>
+        <v>98.57721382670125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001099518152606893</v>
+        <v>0.001002524774835645</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9989004818473931</v>
+        <v>0.9989974752251644</v>
       </c>
       <c r="F50" t="n">
-        <v>37.55075605619838</v>
+        <v>38.51260923055081</v>
       </c>
       <c r="G50" t="n">
-        <v>9446.180701411626</v>
+        <v>9453.553142285315</v>
       </c>
       <c r="H50" t="n">
-        <v>162436.668619104</v>
+        <v>164120.6687084101</v>
       </c>
       <c r="I50" t="n">
-        <v>9.891663956197139</v>
+        <v>9.026115462253701</v>
       </c>
       <c r="J50" t="n">
-        <v>1711.101243359045</v>
+        <v>1638.283203789586</v>
       </c>
       <c r="K50" t="n">
-        <v>54061.78440437281</v>
+        <v>53114.22350264556</v>
       </c>
     </row>
     <row r="51">
@@ -2214,34 +2214,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>98144.24245185472</v>
+        <v>98230.37814078</v>
       </c>
       <c r="C51" t="n">
-        <v>118.6100128409337</v>
+        <v>108.006083903227</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001208527468120391</v>
+        <v>0.001099518152606893</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9987914725318796</v>
+        <v>0.9989004818473931</v>
       </c>
       <c r="F51" t="n">
-        <v>36.59153887650123</v>
+        <v>37.55075605619838</v>
       </c>
       <c r="G51" t="n">
-        <v>8986.47090881678</v>
+        <v>8994.357829571378</v>
       </c>
       <c r="H51" t="n">
-        <v>152990.4879176924</v>
+        <v>154667.1155661248</v>
       </c>
       <c r="I51" t="n">
-        <v>10.34323517597132</v>
+        <v>9.418533052053014</v>
       </c>
       <c r="J51" t="n">
-        <v>1701.209579402848</v>
+        <v>1629.257088327333</v>
       </c>
       <c r="K51" t="n">
-        <v>52350.68316101376</v>
+        <v>51475.94029885596</v>
       </c>
     </row>
     <row r="52">
@@ -2249,34 +2249,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>98025.63243901379</v>
+        <v>98122.37205687677</v>
       </c>
       <c r="C52" t="n">
-        <v>130.4760121754548</v>
+        <v>118.5835818678643</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001331039738576845</v>
+        <v>0.001208527468120391</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9986689602614232</v>
+        <v>0.9987914725318796</v>
       </c>
       <c r="F52" t="n">
-        <v>35.63520926946966</v>
+        <v>36.59153887650121</v>
       </c>
       <c r="G52" t="n">
-        <v>8548.200487506674</v>
+        <v>8556.636542730212</v>
       </c>
       <c r="H52" t="n">
-        <v>144004.0170088756</v>
+        <v>145672.7577365534</v>
       </c>
       <c r="I52" t="n">
-        <v>10.83618527827937</v>
+        <v>9.848505044392528</v>
       </c>
       <c r="J52" t="n">
-        <v>1690.866344226877</v>
+        <v>1619.83855527528</v>
       </c>
       <c r="K52" t="n">
-        <v>50649.47358161092</v>
+        <v>49846.68321052863</v>
       </c>
     </row>
     <row r="53">
@@ -2284,34 +2284,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>97895.15642683834</v>
+        <v>98003.78847500891</v>
       </c>
       <c r="C53" t="n">
-        <v>143.7811216369523</v>
+        <v>130.4469369913162</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001468725592613018</v>
+        <v>0.001331039738576845</v>
       </c>
       <c r="E53" t="n">
-        <v>0.998531274407387</v>
+        <v>0.9986689602614232</v>
       </c>
       <c r="F53" t="n">
-        <v>34.68203796007864</v>
+        <v>35.63520926946964</v>
       </c>
       <c r="G53" t="n">
-        <v>8130.30713615665</v>
+        <v>8139.329154698667</v>
       </c>
       <c r="H53" t="n">
-        <v>135455.8165213689</v>
+        <v>137116.1211938232</v>
       </c>
       <c r="I53" t="n">
-        <v>11.37256206350241</v>
+        <v>10.31787671453429</v>
       </c>
       <c r="J53" t="n">
-        <v>1680.030158948598</v>
+        <v>1609.990050230887</v>
       </c>
       <c r="K53" t="n">
-        <v>48958.60723738403</v>
+        <v>48226.84465525336</v>
       </c>
     </row>
     <row r="54">
@@ -2319,34 +2319,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>97751.37530520138</v>
+        <v>97873.3415380176</v>
       </c>
       <c r="C54" t="n">
-        <v>158.6956269609779</v>
+        <v>143.7490815514412</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001623461833304085</v>
+        <v>0.001468725592613018</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9983765381666959</v>
+        <v>0.998531274407387</v>
       </c>
       <c r="F54" t="n">
-        <v>33.73231583844498</v>
+        <v>34.68203796007863</v>
       </c>
       <c r="G54" t="n">
-        <v>7731.77709141902</v>
+        <v>7741.424175379433</v>
       </c>
       <c r="H54" t="n">
-        <v>127325.5093852123</v>
+        <v>128976.7920391245</v>
       </c>
       <c r="I54" t="n">
-        <v>11.95451905860347</v>
+        <v>10.82859791395515</v>
       </c>
       <c r="J54" t="n">
-        <v>1668.657596885095</v>
+        <v>1599.672173516353</v>
       </c>
       <c r="K54" t="n">
-        <v>47278.57707843544</v>
+        <v>46616.85460502247</v>
       </c>
     </row>
     <row r="55">
@@ -2354,34 +2354,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>97592.6796782404</v>
+        <v>97729.59245646615</v>
       </c>
       <c r="C55" t="n">
-        <v>175.4088610969511</v>
+        <v>158.6602633374356</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001797356745150025</v>
+        <v>0.001623461833304085</v>
       </c>
       <c r="E55" t="n">
-        <v>0.99820264325485</v>
+        <v>0.9983765381666959</v>
       </c>
       <c r="F55" t="n">
-        <v>32.78635496530096</v>
+        <v>33.73231583844497</v>
       </c>
       <c r="G55" t="n">
-        <v>7351.642710864272</v>
+        <v>7361.956331018837</v>
       </c>
       <c r="H55" t="n">
-        <v>119593.7322937933</v>
+        <v>121235.3678637451</v>
       </c>
       <c r="I55" t="n">
-        <v>12.58430915648087</v>
+        <v>11.38271916367662</v>
       </c>
       <c r="J55" t="n">
-        <v>1656.703077826492</v>
+        <v>1588.843575602398</v>
       </c>
       <c r="K55" t="n">
-        <v>45609.91948155034</v>
+        <v>45017.18243150611</v>
       </c>
     </row>
     <row r="56">
@@ -2389,34 +2389,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>97417.27081714345</v>
+        <v>97570.93219312871</v>
       </c>
       <c r="C56" t="n">
-        <v>194.1310400046998</v>
+        <v>175.3697731078956</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00199277847117163</v>
+        <v>0.001797356745150025</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9980072215288284</v>
+        <v>0.99820264325485</v>
       </c>
       <c r="F56" t="n">
-        <v>31.84448955176525</v>
+        <v>32.78635496530094</v>
       </c>
       <c r="G56" t="n">
-        <v>6988.98017738092</v>
+        <v>7000.004262759025</v>
       </c>
       <c r="H56" t="n">
-        <v>112242.089582929</v>
+        <v>113873.4115327262</v>
       </c>
       <c r="I56" t="n">
-        <v>13.26427545993331</v>
+        <v>11.98238559785606</v>
       </c>
       <c r="J56" t="n">
-        <v>1644.118768670011</v>
+        <v>1577.460856438721</v>
       </c>
       <c r="K56" t="n">
-        <v>43953.21640372385</v>
+        <v>43428.33885590371</v>
       </c>
     </row>
     <row r="57">
@@ -2424,34 +2424,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>97223.13977713876</v>
+        <v>97395.56242002081</v>
       </c>
       <c r="C57" t="n">
-        <v>215.0951933315523</v>
+        <v>194.0877799782701</v>
       </c>
       <c r="D57" t="n">
-        <v>0.00221238682297864</v>
+        <v>0.00199277847117163</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9977876131770214</v>
+        <v>0.9980072215288284</v>
       </c>
       <c r="F57" t="n">
-        <v>30.90707689845092</v>
+        <v>31.84448955176525</v>
       </c>
       <c r="G57" t="n">
-        <v>6642.907322045706</v>
+        <v>6654.68834083931</v>
       </c>
       <c r="H57" t="n">
-        <v>105253.1094055481</v>
+        <v>106873.4072699672</v>
       </c>
       <c r="I57" t="n">
-        <v>13.99683869101166</v>
+        <v>12.6298282456966</v>
       </c>
       <c r="J57" t="n">
-        <v>1630.854493210078</v>
+        <v>1565.478470840865</v>
       </c>
       <c r="K57" t="n">
-        <v>42309.09763505384</v>
+        <v>41850.877999465</v>
       </c>
     </row>
     <row r="58">
@@ -2459,34 +2459,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>97008.0445838072</v>
+        <v>97201.47464004254</v>
       </c>
       <c r="C58" t="n">
-        <v>238.5591689098351</v>
+        <v>215.0472616677226</v>
       </c>
       <c r="D58" t="n">
-        <v>0.002459168927003152</v>
+        <v>0.00221238682297864</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9975408310729968</v>
+        <v>0.9977876131770214</v>
       </c>
       <c r="F58" t="n">
-        <v>29.97449827687556</v>
+        <v>30.90707689845091</v>
       </c>
       <c r="G58" t="n">
-        <v>6312.581563257279</v>
+        <v>6325.168591601264</v>
       </c>
       <c r="H58" t="n">
-        <v>98610.20208350237</v>
+        <v>100218.7189291279</v>
       </c>
       <c r="I58" t="n">
-        <v>14.78448040908122</v>
+        <v>13.32735204302571</v>
       </c>
       <c r="J58" t="n">
-        <v>1616.857654519066</v>
+        <v>1552.848642595168</v>
       </c>
       <c r="K58" t="n">
-        <v>40678.24314184376</v>
+        <v>40285.39952862413</v>
       </c>
     </row>
     <row r="59">
@@ -2494,34 +2494,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>96769.48541489737</v>
+        <v>96986.42737837481</v>
       </c>
       <c r="C59" t="n">
-        <v>264.8076796007263</v>
+        <v>238.5060085499472</v>
       </c>
       <c r="D59" t="n">
-        <v>0.002736479154202054</v>
+        <v>0.002459168927003152</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9972635208457979</v>
+        <v>0.9975408310729968</v>
       </c>
       <c r="F59" t="n">
-        <v>29.04715973397455</v>
+        <v>29.97449827687556</v>
       </c>
       <c r="G59" t="n">
-        <v>5997.197960788327</v>
+        <v>6010.642735196273</v>
       </c>
       <c r="H59" t="n">
-        <v>92297.62052024508</v>
+        <v>93893.55033752663</v>
       </c>
       <c r="I59" t="n">
-        <v>15.62972114601935</v>
+        <v>14.07731985305896</v>
       </c>
       <c r="J59" t="n">
-        <v>1602.073174109985</v>
+        <v>1539.521290552143</v>
       </c>
       <c r="K59" t="n">
-        <v>39061.3854873247</v>
+        <v>38732.55088602896</v>
       </c>
     </row>
     <row r="60">
@@ -2529,34 +2529,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>96504.67773529665</v>
+        <v>96747.92136982486</v>
       </c>
       <c r="C60" t="n">
-        <v>294.1543475870587</v>
+        <v>264.7486700409052</v>
       </c>
       <c r="D60" t="n">
-        <v>0.003048083828577686</v>
+        <v>0.002736479154202054</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9969519161714223</v>
+        <v>0.9972635208457979</v>
       </c>
       <c r="F60" t="n">
-        <v>28.12549279829585</v>
+        <v>29.04715973397454</v>
       </c>
       <c r="G60" t="n">
-        <v>5695.987384366673</v>
+        <v>5710.34433271482</v>
       </c>
       <c r="H60" t="n">
-        <v>86300.42255945675</v>
+        <v>87882.90760233036</v>
       </c>
       <c r="I60" t="n">
-        <v>16.53509241340054</v>
+        <v>14.88213164741899</v>
       </c>
       <c r="J60" t="n">
-        <v>1586.443452963965</v>
+        <v>1525.443970699084</v>
       </c>
       <c r="K60" t="n">
-        <v>37459.31231321472</v>
+        <v>37193.02959547682</v>
       </c>
     </row>
     <row r="61">
@@ -2564,34 +2564,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>96210.52338770959</v>
+        <v>96483.17269978396</v>
       </c>
       <c r="C61" t="n">
-        <v>326.9436840941173</v>
+        <v>294.0887984360795</v>
       </c>
       <c r="D61" t="n">
-        <v>0.003398211261948947</v>
+        <v>0.003048083828577686</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9966017887380511</v>
+        <v>0.9969519161714223</v>
       </c>
       <c r="F61" t="n">
-        <v>27.2099550642177</v>
+        <v>28.12549279829583</v>
       </c>
       <c r="G61" t="n">
-        <v>5408.214797459621</v>
+        <v>5423.541042366695</v>
       </c>
       <c r="H61" t="n">
-        <v>80604.43517509008</v>
+        <v>82172.56326961555</v>
       </c>
       <c r="I61" t="n">
-        <v>17.50310136358688</v>
+        <v>15.74419785225265</v>
       </c>
       <c r="J61" t="n">
-        <v>1569.908360550565</v>
+        <v>1510.561839051665</v>
       </c>
       <c r="K61" t="n">
-        <v>35872.86886025075</v>
+        <v>35667.58562477773</v>
       </c>
     </row>
     <row r="62">
@@ -2599,34 +2599,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>95883.57970361547</v>
+        <v>96189.08390134788</v>
       </c>
       <c r="C62" t="n">
-        <v>363.5529208824964</v>
+        <v>326.8708281901125</v>
       </c>
       <c r="D62" t="n">
-        <v>0.003791607718508949</v>
+        <v>0.003398211261948947</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9962083922814911</v>
+        <v>0.9966017887380511</v>
       </c>
       <c r="F62" t="n">
-        <v>26.30103062833073</v>
+        <v>27.2099550642177</v>
       </c>
       <c r="G62" t="n">
-        <v>5133.177658121766</v>
+        <v>5149.532985354123</v>
       </c>
       <c r="H62" t="n">
-        <v>75196.22037763047</v>
+        <v>76749.02222724885</v>
       </c>
       <c r="I62" t="n">
-        <v>18.53618669429731</v>
+        <v>16.66590569962663</v>
       </c>
       <c r="J62" t="n">
-        <v>1552.405259186978</v>
+        <v>1494.817641199412</v>
       </c>
       <c r="K62" t="n">
-        <v>34302.96049970019</v>
+        <v>34157.02378572607</v>
       </c>
     </row>
     <row r="63">
@@ -2634,34 +2634,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>95520.02678273297</v>
+        <v>95862.21307315778</v>
       </c>
       <c r="C63" t="n">
-        <v>404.3935827813897</v>
+        <v>363.4719070015345</v>
       </c>
       <c r="D63" t="n">
-        <v>0.004233599972717883</v>
+        <v>0.003791607718508949</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9957664000272821</v>
+        <v>0.9962083922814911</v>
       </c>
       <c r="F63" t="n">
-        <v>25.39923035002935</v>
+        <v>26.30103062833073</v>
       </c>
       <c r="G63" t="n">
-        <v>4870.204440088336</v>
+        <v>4887.651223209063</v>
       </c>
       <c r="H63" t="n">
-        <v>70063.0427195087</v>
+        <v>71599.48924189471</v>
       </c>
       <c r="I63" t="n">
-        <v>19.6366641758938</v>
+        <v>17.64957724123732</v>
       </c>
       <c r="J63" t="n">
-        <v>1533.869072492681</v>
+        <v>1478.151735499785</v>
       </c>
       <c r="K63" t="n">
-        <v>32750.5552405132</v>
+        <v>32662.20614452666</v>
       </c>
     </row>
     <row r="64">
@@ -2669,34 +2669,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>95115.63319995158</v>
+        <v>95498.74116615624</v>
       </c>
       <c r="C64" t="n">
-        <v>449.9126569686199</v>
+        <v>404.3034679956312</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004730165187701751</v>
+        <v>0.004233599972717883</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9952698348122982</v>
+        <v>0.9957664000272821</v>
       </c>
       <c r="F64" t="n">
-        <v>24.50509190644226</v>
+        <v>25.39923035002934</v>
       </c>
       <c r="G64" t="n">
-        <v>4618.653278765379</v>
+        <v>4637.256349624536</v>
       </c>
       <c r="H64" t="n">
-        <v>65192.83827942036</v>
+        <v>66711.83801868567</v>
       </c>
       <c r="I64" t="n">
-        <v>20.80665995550528</v>
+        <v>18.69741748119644</v>
       </c>
       <c r="J64" t="n">
-        <v>1514.232408316787</v>
+        <v>1460.502158258548</v>
       </c>
       <c r="K64" t="n">
-        <v>31216.68616802053</v>
+        <v>31184.05440902687</v>
       </c>
     </row>
     <row r="65">
@@ -2704,34 +2704,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>94665.72054298296</v>
+        <v>95094.4376981606</v>
       </c>
       <c r="C65" t="n">
-        <v>500.5931735151371</v>
+        <v>449.8123987439124</v>
       </c>
       <c r="D65" t="n">
-        <v>0.00528800890801695</v>
+        <v>0.004730165187701751</v>
       </c>
       <c r="E65" t="n">
-        <v>0.994711991091983</v>
+        <v>0.9952698348122982</v>
       </c>
       <c r="F65" t="n">
-        <v>23.61917961019032</v>
+        <v>24.50509190644226</v>
       </c>
       <c r="G65" t="n">
-        <v>4377.910748392474</v>
+        <v>4397.737201208837</v>
       </c>
       <c r="H65" t="n">
-        <v>60574.18500065498</v>
+        <v>62074.58166906112</v>
       </c>
       <c r="I65" t="n">
-        <v>22.04802955809767</v>
+        <v>19.81145087030379</v>
       </c>
       <c r="J65" t="n">
-        <v>1493.425748361281</v>
+        <v>1441.804740777352</v>
       </c>
       <c r="K65" t="n">
-        <v>29702.45375970373</v>
+        <v>29723.55225076833</v>
       </c>
     </row>
     <row r="66">
@@ -2739,34 +2739,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>94165.12736946782</v>
+        <v>94644.62529941669</v>
       </c>
       <c r="C66" t="n">
-        <v>556.9539617090852</v>
+        <v>500.4816216792419</v>
       </c>
       <c r="D66" t="n">
-        <v>0.005914652029554546</v>
+        <v>0.00528800890801695</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9940853479704455</v>
+        <v>0.994711991091983</v>
       </c>
       <c r="F66" t="n">
-        <v>22.74208395719685</v>
+        <v>23.61917961019031</v>
       </c>
       <c r="G66" t="n">
-        <v>4147.390778434735</v>
+        <v>4168.509693138112</v>
       </c>
       <c r="H66" t="n">
-        <v>56196.2742522625</v>
+        <v>57676.84446785228</v>
       </c>
       <c r="I66" t="n">
-        <v>23.3622602714522</v>
+        <v>20.99344418139937</v>
       </c>
       <c r="J66" t="n">
-        <v>1471.377718803184</v>
+        <v>1421.993289907048</v>
       </c>
       <c r="K66" t="n">
-        <v>28209.02801134245</v>
+        <v>28281.74750999097</v>
       </c>
     </row>
     <row r="67">
@@ -2774,34 +2774,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>93608.17340775873</v>
+        <v>94144.14367773745</v>
       </c>
       <c r="C67" t="n">
-        <v>619.5482867027525</v>
+        <v>556.8298504742046</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006618527679244313</v>
+        <v>0.005914652029554546</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9933814723207557</v>
+        <v>0.9940853479704455</v>
       </c>
       <c r="F67" t="n">
-        <v>21.87442087101169</v>
+        <v>22.74208395719685</v>
       </c>
       <c r="G67" t="n">
-        <v>3926.533719190199</v>
+        <v>3949.015787378708</v>
       </c>
       <c r="H67" t="n">
-        <v>52048.88347382777</v>
+        <v>53508.33477471417</v>
       </c>
       <c r="I67" t="n">
-        <v>24.7503543847109</v>
+        <v>22.24481356339278</v>
       </c>
       <c r="J67" t="n">
-        <v>1448.015458531732</v>
+        <v>1400.999845725649</v>
       </c>
       <c r="K67" t="n">
-        <v>26737.65029253927</v>
+        <v>26859.75422008392</v>
       </c>
     </row>
     <row r="68">
@@ -2809,34 +2809,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>92988.62512105599</v>
+        <v>93587.31382726325</v>
       </c>
       <c r="C68" t="n">
-        <v>688.961000092384</v>
+        <v>619.4102269918658</v>
       </c>
       <c r="D68" t="n">
-        <v>0.00740908900626791</v>
+        <v>0.006618527679244313</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9925909109937321</v>
+        <v>0.9933814723207557</v>
       </c>
       <c r="F68" t="n">
-        <v>21.01683060997341</v>
+        <v>21.87442087101169</v>
       </c>
       <c r="G68" t="n">
-        <v>3714.805568653574</v>
+        <v>3738.722602987757</v>
       </c>
       <c r="H68" t="n">
-        <v>48122.34975463757</v>
+        <v>49559.31898733546</v>
       </c>
       <c r="I68" t="n">
-        <v>26.21269057060382</v>
+        <v>23.56651336465792</v>
       </c>
       <c r="J68" t="n">
-        <v>1423.265104147021</v>
+        <v>1378.755032162256</v>
       </c>
       <c r="K68" t="n">
-        <v>25289.63483400754</v>
+        <v>25458.75437435828</v>
       </c>
     </row>
     <row r="69">
@@ -2844,34 +2844,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>92299.6641209636</v>
+        <v>92967.90360027138</v>
       </c>
       <c r="C69" t="n">
-        <v>765.8037555266245</v>
+        <v>688.8074725005456</v>
       </c>
       <c r="D69" t="n">
-        <v>0.008296928952233218</v>
+        <v>0.00740908900626791</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9917030710477668</v>
+        <v>0.9925909109937321</v>
       </c>
       <c r="F69" t="n">
-        <v>20.16997630416844</v>
+        <v>21.01683060997341</v>
       </c>
       <c r="G69" t="n">
-        <v>3511.697374813753</v>
+        <v>3537.121679957015</v>
       </c>
       <c r="H69" t="n">
-        <v>44407.54418598399</v>
+        <v>45820.59638434771</v>
       </c>
       <c r="I69" t="n">
-        <v>27.74886059102248</v>
+        <v>24.95890414552515</v>
       </c>
       <c r="J69" t="n">
-        <v>1397.052413576417</v>
+        <v>1355.188518797598</v>
       </c>
       <c r="K69" t="n">
-        <v>23866.36972986052</v>
+        <v>24079.99934219602</v>
       </c>
     </row>
     <row r="70">
@@ -2879,34 +2879,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>91533.86036543698</v>
+        <v>92279.09612777084</v>
       </c>
       <c r="C70" t="n">
-        <v>850.7077463975975</v>
+        <v>765.6331043484141</v>
       </c>
       <c r="D70" t="n">
-        <v>0.009293913126806386</v>
+        <v>0.008296928952233218</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9907060868731936</v>
+        <v>0.9917030710477668</v>
       </c>
       <c r="F70" t="n">
-        <v>19.33454209069502</v>
+        <v>20.16997630416844</v>
       </c>
       <c r="G70" t="n">
-        <v>3316.724829707789</v>
+        <v>3343.728410099251</v>
       </c>
       <c r="H70" t="n">
-        <v>40895.84681117024</v>
+        <v>42283.47470439069</v>
       </c>
       <c r="I70" t="n">
-        <v>29.35747850745323</v>
+        <v>26.42159719443545</v>
       </c>
       <c r="J70" t="n">
-        <v>1369.303552985395</v>
+        <v>1330.229614652073</v>
       </c>
       <c r="K70" t="n">
-        <v>22469.3173162841</v>
+        <v>22724.81082339842</v>
       </c>
     </row>
     <row r="71">
@@ -2914,34 +2914,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>90683.15261903938</v>
+        <v>91513.46302342243</v>
       </c>
       <c r="C71" t="n">
-        <v>944.313318271048</v>
+        <v>850.5181752728965</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01041332696314734</v>
+        <v>0.009293913126806386</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9895866730368527</v>
+        <v>0.9907060868731936</v>
       </c>
       <c r="F71" t="n">
-        <v>18.51123081835447</v>
+        <v>19.33454209069502</v>
       </c>
       <c r="G71" t="n">
-        <v>3129.428073595203</v>
+        <v>3158.081650519137</v>
       </c>
       <c r="H71" t="n">
-        <v>37579.12198146245</v>
+        <v>38939.74629429144</v>
       </c>
       <c r="I71" t="n">
-        <v>31.03595975047539</v>
+        <v>27.95327286408208</v>
       </c>
       <c r="J71" t="n">
-        <v>1339.946074477941</v>
+        <v>1303.808017457637</v>
       </c>
       <c r="K71" t="n">
-        <v>21100.01376329871</v>
+        <v>21394.58120874635</v>
       </c>
     </row>
     <row r="72">
@@ -2949,34 +2949,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>89738.83930076833</v>
+        <v>90662.94484814953</v>
       </c>
       <c r="C72" t="n">
-        <v>1047.255696860553</v>
+        <v>944.1028881455758</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01167003835820268</v>
+        <v>0.01041332696314734</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9883299616417973</v>
+        <v>0.9895866730368527</v>
       </c>
       <c r="F72" t="n">
-        <v>17.70076129671537</v>
+        <v>18.51123081835447</v>
       </c>
       <c r="G72" t="n">
-        <v>2949.371729387813</v>
+        <v>2979.743537154143</v>
       </c>
       <c r="H72" t="n">
-        <v>34449.69390786724</v>
+        <v>35781.6646437723</v>
       </c>
       <c r="I72" t="n">
-        <v>32.78026782338511</v>
+        <v>29.55147020829645</v>
       </c>
       <c r="J72" t="n">
-        <v>1308.910114727466</v>
+        <v>1275.854744593555</v>
       </c>
       <c r="K72" t="n">
-        <v>19760.06768882077</v>
+        <v>20090.77319128871</v>
       </c>
     </row>
     <row r="73">
@@ -2984,34 +2984,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>88691.58360390778</v>
+        <v>89718.84196000396</v>
       </c>
       <c r="C73" t="n">
-        <v>1160.145958516126</v>
+        <v>1047.022327126771</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01308067700873716</v>
+        <v>0.01167003835820268</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9869193229912628</v>
+        <v>0.9883299616417973</v>
       </c>
       <c r="F73" t="n">
-        <v>16.90386506965927</v>
+        <v>17.70076129671536</v>
       </c>
       <c r="G73" t="n">
-        <v>2776.145188736437</v>
+        <v>2808.299517557555</v>
       </c>
       <c r="H73" t="n">
-        <v>31500.32217847944</v>
+        <v>32801.92110661816</v>
       </c>
       <c r="I73" t="n">
-        <v>34.58462718402</v>
+        <v>31.21234580116072</v>
       </c>
       <c r="J73" t="n">
-        <v>1276.129846904081</v>
+        <v>1246.303274385259</v>
       </c>
       <c r="K73" t="n">
-        <v>18451.1575740933</v>
+        <v>18814.91844669516</v>
       </c>
     </row>
     <row r="74">
@@ -3019,34 +3019,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>87531.43764539166</v>
+        <v>88671.81963287719</v>
       </c>
       <c r="C74" t="n">
-        <v>1283.546263520706</v>
+        <v>1159.887432394665</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01466383162493712</v>
+        <v>0.01308067700873716</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9853361683750629</v>
+        <v>0.9869193229912628</v>
       </c>
       <c r="F74" t="n">
-        <v>16.12128270013059</v>
+        <v>16.90386506965927</v>
       </c>
       <c r="G74" t="n">
-        <v>2609.363171612586</v>
+        <v>2643.358623301272</v>
       </c>
       <c r="H74" t="n">
-        <v>28724.176989743</v>
+        <v>29993.6215890606</v>
       </c>
       <c r="I74" t="n">
-        <v>36.44120209222749</v>
+        <v>32.93040035206101</v>
       </c>
       <c r="J74" t="n">
-        <v>1241.545219720061</v>
+        <v>1215.090928584098</v>
       </c>
       <c r="K74" t="n">
-        <v>17175.02772718922</v>
+        <v>17568.6151723099</v>
       </c>
     </row>
     <row r="75">
@@ -3054,34 +3054,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>86247.89138187096</v>
+        <v>87511.93220048252</v>
       </c>
       <c r="C75" t="n">
-        <v>1417.938287186227</v>
+        <v>1283.260238960788</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01644026612671801</v>
+        <v>0.01466383162493712</v>
       </c>
       <c r="E75" t="n">
-        <v>0.983559733873282</v>
+        <v>0.9853361683750629</v>
       </c>
       <c r="F75" t="n">
-        <v>15.35375956095466</v>
+        <v>16.12128270013059</v>
       </c>
       <c r="G75" t="n">
-        <v>2448.66658039595</v>
+        <v>2484.554002792007</v>
       </c>
       <c r="H75" t="n">
-        <v>26114.81381813042</v>
+        <v>27350.26296575933</v>
       </c>
       <c r="I75" t="n">
-        <v>38.33974308315234</v>
+        <v>34.69817291429099</v>
       </c>
       <c r="J75" t="n">
-        <v>1205.104017627833</v>
+        <v>1182.160528232037</v>
       </c>
       <c r="K75" t="n">
-        <v>15933.48250746916</v>
+        <v>16353.5242437258</v>
       </c>
     </row>
     <row r="76">
@@ -3089,34 +3089,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>84829.95309468472</v>
+        <v>86228.67196152173</v>
       </c>
       <c r="C76" t="n">
-        <v>1563.683740821884</v>
+        <v>1417.622314800884</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01843315578727889</v>
+        <v>0.01644026612671801</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9815668442127211</v>
+        <v>0.983559733873282</v>
       </c>
       <c r="F76" t="n">
-        <v>14.60204113629195</v>
+        <v>15.35375956095467</v>
       </c>
       <c r="G76" t="n">
-        <v>2293.723666817752</v>
+        <v>2331.543734506668</v>
       </c>
       <c r="H76" t="n">
-        <v>23666.14723773447</v>
+        <v>24865.70896296732</v>
       </c>
       <c r="I76" t="n">
-        <v>40.26720541278114</v>
+        <v>36.50590426797293</v>
       </c>
       <c r="J76" t="n">
-        <v>1166.764274544681</v>
+        <v>1147.462355317746</v>
       </c>
       <c r="K76" t="n">
-        <v>14728.37848984133</v>
+        <v>15171.36371549376</v>
       </c>
     </row>
     <row r="77">
@@ -3124,34 +3124,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>83266.26935386284</v>
+        <v>84811.04964672084</v>
       </c>
       <c r="C77" t="n">
-        <v>1720.975903893247</v>
+        <v>1563.335290620649</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02066834406354257</v>
+        <v>0.01843315578727889</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9793316559364574</v>
+        <v>0.9815668442127211</v>
       </c>
       <c r="F77" t="n">
-        <v>13.86686784953772</v>
+        <v>14.60204113629195</v>
       </c>
       <c r="G77" t="n">
-        <v>2144.23152488984</v>
+        <v>2184.01193811933</v>
       </c>
       <c r="H77" t="n">
-        <v>21372.42357091671</v>
+        <v>22534.16522846066</v>
       </c>
       <c r="I77" t="n">
-        <v>42.20734753173118</v>
+        <v>38.34117361583858</v>
       </c>
       <c r="J77" t="n">
-        <v>1126.4970691319</v>
+        <v>1110.956451049773</v>
       </c>
       <c r="K77" t="n">
-        <v>13561.61421529665</v>
+        <v>14023.90136017602</v>
       </c>
     </row>
     <row r="78">
@@ -3159,34 +3159,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>81545.29344996958</v>
+        <v>83247.71435610019</v>
       </c>
       <c r="C78" t="n">
-        <v>1889.781230762244</v>
+        <v>1720.59240281539</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02317462051837094</v>
+        <v>0.02066834406354257</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9768253794816291</v>
+        <v>0.9793316559364574</v>
       </c>
       <c r="F78" t="n">
-        <v>13.14896944616382</v>
+        <v>13.86686784953773</v>
       </c>
       <c r="G78" t="n">
-        <v>1999.917914268116</v>
+        <v>2041.670196021618</v>
       </c>
       <c r="H78" t="n">
-        <v>19228.19204602687</v>
+        <v>20350.15329034133</v>
       </c>
       <c r="I78" t="n">
-        <v>44.14032260100522</v>
+        <v>40.18851626252876</v>
       </c>
       <c r="J78" t="n">
-        <v>1084.289721600169</v>
+        <v>1072.615277433934</v>
       </c>
       <c r="K78" t="n">
-        <v>12435.11714616475</v>
+        <v>12912.94490912624</v>
       </c>
     </row>
     <row r="79">
@@ -3194,34 +3194,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>79655.51221920735</v>
+        <v>81527.12195328479</v>
       </c>
       <c r="C79" t="n">
-        <v>2069.770403751922</v>
+        <v>1889.360113222323</v>
       </c>
       <c r="D79" t="n">
-        <v>0.02598401976320275</v>
+        <v>0.02317462051837094</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9740159802367973</v>
+        <v>0.9768253794816291</v>
       </c>
       <c r="F79" t="n">
-        <v>12.44905897395524</v>
+        <v>13.14896944616382</v>
       </c>
       <c r="G79" t="n">
-        <v>1860.543405273391</v>
+        <v>1904.259289472345</v>
       </c>
       <c r="H79" t="n">
-        <v>17228.27413175876</v>
+        <v>18308.48309431971</v>
       </c>
       <c r="I79" t="n">
-        <v>46.04228248849554</v>
+        <v>42.02903466867073</v>
       </c>
       <c r="J79" t="n">
-        <v>1040.149398999163</v>
+        <v>1032.426761171406</v>
       </c>
       <c r="K79" t="n">
-        <v>11350.82742456458</v>
+        <v>11840.32963169231</v>
       </c>
     </row>
     <row r="80">
@@ -3229,34 +3229,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>77585.74181545542</v>
+        <v>79637.76184006246</v>
       </c>
       <c r="C80" t="n">
-        <v>2260.238746348506</v>
+        <v>2069.309177549417</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02913214069312742</v>
+        <v>0.02598401976320275</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9708678593068726</v>
+        <v>0.9740159802367973</v>
       </c>
       <c r="F80" t="n">
-        <v>11.76782641805348</v>
+        <v>12.44905897395524</v>
       </c>
       <c r="G80" t="n">
-        <v>1725.903817771876</v>
+        <v>1771.551241019277</v>
       </c>
       <c r="H80" t="n">
-        <v>15367.73072648537</v>
+        <v>16404.22380484736</v>
       </c>
       <c r="I80" t="n">
-        <v>47.88502175441528</v>
+        <v>43.84002138873453</v>
       </c>
       <c r="J80" t="n">
-        <v>994.1071165106678</v>
+        <v>990.3977265027349</v>
       </c>
       <c r="K80" t="n">
-        <v>10310.67802556541</v>
+        <v>10807.9028705209</v>
       </c>
     </row>
     <row r="81">
@@ -3264,34 +3264,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>75325.50306910691</v>
+        <v>77568.45266251305</v>
       </c>
       <c r="C81" t="n">
-        <v>2460.016767056973</v>
+        <v>2259.735076312524</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03265848440202312</v>
+        <v>0.02913214069312742</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9673415155979769</v>
+        <v>0.9708678593068726</v>
       </c>
       <c r="F81" t="n">
-        <v>11.10593206381131</v>
+        <v>11.76782641805348</v>
       </c>
       <c r="G81" t="n">
-        <v>1595.832899933086</v>
+        <v>1643.351636724863</v>
       </c>
       <c r="H81" t="n">
-        <v>13641.82690871349</v>
+        <v>14632.67256382809</v>
       </c>
       <c r="I81" t="n">
-        <v>49.63569892447622</v>
+        <v>45.59462008509516</v>
       </c>
       <c r="J81" t="n">
-        <v>946.2220947562524</v>
+        <v>946.5577051140004</v>
       </c>
       <c r="K81" t="n">
-        <v>9316.570909054746</v>
+        <v>9817.505144018169</v>
       </c>
     </row>
     <row r="82">
@@ -3299,34 +3299,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>72865.48630204993</v>
+        <v>75308.71758620052</v>
       </c>
       <c r="C82" t="n">
-        <v>2667.372866605985</v>
+        <v>2459.468578625294</v>
       </c>
       <c r="D82" t="n">
-        <v>0.03660680799616023</v>
+        <v>0.03265848440202312</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9633931920038398</v>
+        <v>0.9673415155979769</v>
       </c>
       <c r="F82" t="n">
-        <v>10.46399967622096</v>
+        <v>11.10593206381131</v>
       </c>
       <c r="G82" t="n">
-        <v>1470.205158154653</v>
+        <v>1519.502176795726</v>
       </c>
       <c r="H82" t="n">
-        <v>12045.9940087804</v>
+        <v>12989.32092710322</v>
       </c>
       <c r="I82" t="n">
-        <v>51.25668375193501</v>
+        <v>47.26156013306991</v>
       </c>
       <c r="J82" t="n">
-        <v>896.5863958317763</v>
+        <v>900.9630850289052</v>
       </c>
       <c r="K82" t="n">
-        <v>8370.348814298493</v>
+        <v>8870.947438904168</v>
       </c>
     </row>
     <row r="83">
@@ -3334,34 +3334,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>70198.11343544394</v>
+        <v>72849.24900757523</v>
       </c>
       <c r="C83" t="n">
-        <v>2879.912000949628</v>
+        <v>2666.778471084772</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04102549000263478</v>
+        <v>0.03660680799616023</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9589745099973652</v>
+        <v>0.9633931920038398</v>
       </c>
       <c r="F83" t="n">
-        <v>9.842609600028446</v>
+        <v>10.46399967622096</v>
       </c>
       <c r="G83" t="n">
-        <v>1348.938704966782</v>
+        <v>1399.883370148574</v>
       </c>
       <c r="H83" t="n">
-        <v>10575.78885062575</v>
+        <v>11469.8187503075</v>
       </c>
       <c r="I83" t="n">
-        <v>52.70559176645889</v>
+        <v>48.80501118861577</v>
       </c>
       <c r="J83" t="n">
-        <v>845.3297120798412</v>
+        <v>853.7015248958353</v>
       </c>
       <c r="K83" t="n">
-        <v>7473.762418466717</v>
+        <v>7969.984353875263</v>
       </c>
     </row>
     <row r="84">
@@ -3369,34 +3369,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67318.20143449432</v>
+        <v>70182.47053649045</v>
       </c>
       <c r="C84" t="n">
-        <v>3094.4764267367</v>
+        <v>2879.270243354999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.04596790111434956</v>
+        <v>0.04102549000263478</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9540320988856504</v>
+        <v>0.9589745099973652</v>
       </c>
       <c r="F84" t="n">
-        <v>9.24229189893078</v>
+        <v>9.842609600028446</v>
       </c>
       <c r="G84" t="n">
-        <v>1231.997936773334</v>
+        <v>1284.41724609574</v>
       </c>
       <c r="H84" t="n">
-        <v>9226.850145658967</v>
+        <v>10069.93538015892</v>
       </c>
       <c r="I84" t="n">
-        <v>53.93558031493264</v>
+        <v>50.18461608467856</v>
       </c>
       <c r="J84" t="n">
-        <v>792.6241203133823</v>
+        <v>804.8965137072196</v>
       </c>
       <c r="K84" t="n">
-        <v>6628.432706386875</v>
+        <v>7116.282828979428</v>
       </c>
     </row>
     <row r="85">
@@ -3404,34 +3404,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>64223.72500775762</v>
+        <v>67303.20029313545</v>
       </c>
       <c r="C85" t="n">
-        <v>3307.057598883911</v>
+        <v>3093.786855754113</v>
       </c>
       <c r="D85" t="n">
-        <v>0.05149277153395337</v>
+        <v>0.04596790111434956</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9485072284660466</v>
+        <v>0.9540320988856504</v>
       </c>
       <c r="F85" t="n">
-        <v>8.663519664738896</v>
+        <v>9.24229189893078</v>
       </c>
       <c r="G85" t="n">
-        <v>1119.395788040623</v>
+        <v>1173.069904006503</v>
       </c>
       <c r="H85" t="n">
-        <v>7994.852208885633</v>
+        <v>8785.518134063183</v>
       </c>
       <c r="I85" t="n">
-        <v>54.89599197109096</v>
+        <v>51.3557727119909</v>
       </c>
       <c r="J85" t="n">
-        <v>738.6885399984496</v>
+        <v>754.7118976225411</v>
       </c>
       <c r="K85" t="n">
-        <v>5835.808586073493</v>
+        <v>6311.386315272208</v>
       </c>
     </row>
     <row r="86">
@@ -3439,34 +3439,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>60916.66740887371</v>
+        <v>64209.41343738134</v>
       </c>
       <c r="C86" t="n">
-        <v>3512.731791561137</v>
+        <v>3306.320656460233</v>
       </c>
       <c r="D86" t="n">
-        <v>0.05766454307133417</v>
+        <v>0.05149277153395337</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9423354569286658</v>
+        <v>0.9485072284660466</v>
       </c>
       <c r="F86" t="n">
-        <v>8.106702637302172</v>
+        <v>8.663519664738896</v>
       </c>
       <c r="G86" t="n">
-        <v>1011.195234734264</v>
+        <v>1065.853659675154</v>
       </c>
       <c r="H86" t="n">
-        <v>6875.456420845011</v>
+        <v>7612.44823005668</v>
       </c>
       <c r="I86" t="n">
-        <v>55.53343920653509</v>
+        <v>52.27024665360077</v>
       </c>
       <c r="J86" t="n">
-        <v>683.7925480273586</v>
+        <v>703.3561249105501</v>
       </c>
       <c r="K86" t="n">
-        <v>5097.120046075043</v>
+        <v>5556.674417649667</v>
       </c>
     </row>
     <row r="87">
@@ -3474,34 +3474,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>57403.93561731257</v>
+        <v>60903.09278092111</v>
       </c>
       <c r="C87" t="n">
-        <v>3705.635881793019</v>
+        <v>3511.949016842887</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0645536902991618</v>
+        <v>0.05766454307133417</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9354463097008382</v>
+        <v>0.9423354569286658</v>
       </c>
       <c r="F87" t="n">
-        <v>7.572181282549356</v>
+        <v>8.10670263730217</v>
       </c>
       <c r="G87" t="n">
-        <v>907.5096414927641</v>
+        <v>962.8284768465462</v>
       </c>
       <c r="H87" t="n">
-        <v>5864.261186110746</v>
+        <v>6546.594570381525</v>
       </c>
       <c r="I87" t="n">
-        <v>55.7934250861212</v>
+        <v>52.87720397469023</v>
       </c>
       <c r="J87" t="n">
-        <v>628.2591088208237</v>
+        <v>651.0858782569494</v>
       </c>
       <c r="K87" t="n">
-        <v>4413.327498047685</v>
+        <v>4853.318292739117</v>
       </c>
     </row>
     <row r="88">
@@ -3509,34 +3509,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>53698.29973551955</v>
+        <v>57391.14376407822</v>
       </c>
       <c r="C88" t="n">
-        <v>3879.003560289335</v>
+        <v>3704.810120460977</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07223699035899844</v>
+        <v>0.0645536902991618</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9277630096410016</v>
+        <v>0.9354463097008382</v>
       </c>
       <c r="F88" t="n">
-        <v>7.060221478463135</v>
+        <v>7.572181282549356</v>
       </c>
       <c r="G88" t="n">
-        <v>808.5014715736543</v>
+        <v>864.1022977839252</v>
       </c>
       <c r="H88" t="n">
-        <v>4956.751544617982</v>
+        <v>5583.76609353498</v>
       </c>
       <c r="I88" t="n">
-        <v>55.62258381647821</v>
+        <v>53.1247543980358</v>
       </c>
       <c r="J88" t="n">
-        <v>572.4656837347025</v>
+        <v>598.208674282259</v>
       </c>
       <c r="K88" t="n">
-        <v>3785.068389226861</v>
+        <v>4202.232414482168</v>
       </c>
     </row>
     <row r="89">
@@ -3544,34 +3544,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>49819.29617523022</v>
+        <v>53686.33364361724</v>
       </c>
       <c r="C89" t="n">
-        <v>4025.285309740725</v>
+        <v>3878.139165823952</v>
       </c>
       <c r="D89" t="n">
-        <v>0.08079771531862923</v>
+        <v>0.07223699035899844</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9192022846813708</v>
+        <v>0.9277630096410016</v>
       </c>
       <c r="F89" t="n">
-        <v>6.571009956520703</v>
+        <v>7.060221478463134</v>
       </c>
       <c r="G89" t="n">
-        <v>714.3788176822402</v>
+        <v>769.8298149199882</v>
       </c>
       <c r="H89" t="n">
-        <v>4148.250073044328</v>
+        <v>4719.663795751055</v>
       </c>
       <c r="I89" t="n">
-        <v>54.97159651499863</v>
+        <v>52.96208468423308</v>
       </c>
       <c r="J89" t="n">
-        <v>516.8430999182242</v>
+        <v>545.0839198842233</v>
       </c>
       <c r="K89" t="n">
-        <v>3212.602705492158</v>
+        <v>3604.023740199909</v>
       </c>
     </row>
     <row r="90">
@@ -3579,34 +3579,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>45794.01086548949</v>
+        <v>49808.19447779329</v>
       </c>
       <c r="C90" t="n">
-        <v>4136.376737743773</v>
+        <v>4024.388317951662</v>
       </c>
       <c r="D90" t="n">
-        <v>0.09032571420515079</v>
+        <v>0.08079771531862923</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9096742857948492</v>
+        <v>0.9192022846813708</v>
       </c>
       <c r="F90" t="n">
-        <v>6.104650638597075</v>
+        <v>6.571009956520703</v>
       </c>
       <c r="G90" t="n">
-        <v>625.3891822299919</v>
+        <v>680.2091676205175</v>
       </c>
       <c r="H90" t="n">
-        <v>3433.871255362088</v>
+        <v>3949.833980831067</v>
       </c>
       <c r="I90" t="n">
-        <v>53.79878527723734</v>
+        <v>52.34223493573745</v>
       </c>
       <c r="J90" t="n">
-        <v>461.8715034032256</v>
+        <v>492.1218351999902</v>
       </c>
       <c r="K90" t="n">
-        <v>2695.759605573934</v>
+        <v>3058.939820315685</v>
       </c>
     </row>
     <row r="91">
@@ -3614,34 +3614,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>41657.63412774572</v>
+        <v>45783.80615984162</v>
       </c>
       <c r="C91" t="n">
-        <v>4203.977789580765</v>
+        <v>4135.454990417877</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1009173439060175</v>
+        <v>0.09032571420515079</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8990826560939825</v>
+        <v>0.9096742857948492</v>
       </c>
       <c r="F91" t="n">
-        <v>5.661161996241194</v>
+        <v>6.104650638597072</v>
       </c>
       <c r="G91" t="n">
-        <v>541.8099597037072</v>
+        <v>595.4760199409459</v>
       </c>
       <c r="H91" t="n">
-        <v>2808.482073132096</v>
+        <v>3269.624813210549</v>
       </c>
       <c r="I91" t="n">
-        <v>52.07430670011856</v>
+        <v>51.2255207554348</v>
       </c>
       <c r="J91" t="n">
-        <v>408.0727181259882</v>
+        <v>439.7796002642527</v>
       </c>
       <c r="K91" t="n">
-        <v>2233.888102170708</v>
+        <v>2566.817985115695</v>
       </c>
     </row>
     <row r="92">
@@ -3649,34 +3649,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>37453.65633816495</v>
+        <v>41648.35116942375</v>
       </c>
       <c r="C92" t="n">
-        <v>4220.098182289853</v>
+        <v>4203.040978083322</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1126751990296234</v>
+        <v>0.1009173439060175</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8873248009703766</v>
+        <v>0.8990826560939825</v>
       </c>
       <c r="F92" t="n">
-        <v>5.240475540551067</v>
+        <v>5.66116199624119</v>
       </c>
       <c r="G92" t="n">
-        <v>463.9351787319836</v>
+        <v>515.8944982359421</v>
       </c>
       <c r="H92" t="n">
-        <v>2266.672113428389</v>
+        <v>2674.148793269603</v>
       </c>
       <c r="I92" t="n">
-        <v>49.78475104806682</v>
+        <v>49.58352618828467</v>
       </c>
       <c r="J92" t="n">
-        <v>355.9984114258697</v>
+        <v>388.5540795088179</v>
       </c>
       <c r="K92" t="n">
-        <v>1825.81538404472</v>
+        <v>2127.038384851443</v>
       </c>
     </row>
     <row r="93">
@@ -3684,34 +3684,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>33233.5581558751</v>
+        <v>37445.31019134042</v>
       </c>
       <c r="C93" t="n">
-        <v>4177.710191676792</v>
+        <v>4219.157778535268</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1257075806352757</v>
+        <v>0.1126751990296234</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8742924193647243</v>
+        <v>0.8873248009703766</v>
       </c>
       <c r="F93" t="n">
-        <v>4.842435526840783</v>
+        <v>5.240475540551064</v>
       </c>
       <c r="G93" t="n">
-        <v>392.058276315727</v>
+        <v>441.7445673697554</v>
       </c>
       <c r="H93" t="n">
-        <v>1802.736934696405</v>
+        <v>2158.254295033661</v>
       </c>
       <c r="I93" t="n">
-        <v>46.93780703208231</v>
+        <v>47.40348290346864</v>
       </c>
       <c r="J93" t="n">
-        <v>306.2136603778029</v>
+        <v>338.9705533205333</v>
       </c>
       <c r="K93" t="n">
-        <v>1469.816972618851</v>
+        <v>1738.484305342625</v>
       </c>
     </row>
     <row r="94">
@@ -3719,34 +3719,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29055.84796419831</v>
+        <v>33226.15241280515</v>
       </c>
       <c r="C94" t="n">
-        <v>4071.527191899887</v>
+        <v>4176.779233632662</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1401276327201565</v>
+        <v>0.1257075806352757</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8598723672798435</v>
+        <v>0.8742924193647243</v>
       </c>
       <c r="F94" t="n">
-        <v>4.466799929474476</v>
+        <v>4.842435526840782</v>
       </c>
       <c r="G94" t="n">
-        <v>326.4510275543243</v>
+        <v>373.3056288772507</v>
       </c>
       <c r="H94" t="n">
-        <v>1410.678658380678</v>
+        <v>1716.509727663906</v>
       </c>
       <c r="I94" t="n">
-        <v>43.56648541928575</v>
+        <v>44.69271185113265</v>
       </c>
       <c r="J94" t="n">
-        <v>259.2758533457205</v>
+        <v>291.5670704170647</v>
       </c>
       <c r="K94" t="n">
-        <v>1163.603312241048</v>
+        <v>1399.513752022091</v>
       </c>
     </row>
     <row r="95">
@@ -3754,34 +3754,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>24984.32077229842</v>
+        <v>29049.37317917249</v>
       </c>
       <c r="C95" t="n">
-        <v>3898.854823008265</v>
+        <v>4070.619895601847</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1560520639540921</v>
+        <v>0.1401276327201565</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8439479360459079</v>
+        <v>0.8598723672798435</v>
       </c>
       <c r="F95" t="n">
-        <v>4.113242709523528</v>
+        <v>4.466799929474476</v>
       </c>
       <c r="G95" t="n">
-        <v>267.3392551086421</v>
+        <v>310.8364585081537</v>
       </c>
       <c r="H95" t="n">
-        <v>1084.227630826354</v>
+        <v>1343.204098786655</v>
       </c>
       <c r="I95" t="n">
-        <v>39.73223098633635</v>
+        <v>41.48264485129974</v>
       </c>
       <c r="J95" t="n">
-        <v>215.7093679264348</v>
+        <v>246.874358565932</v>
       </c>
       <c r="K95" t="n">
-        <v>904.3274588953274</v>
+        <v>1107.946681605027</v>
       </c>
     </row>
     <row r="96">
@@ -3789,34 +3789,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21085.46594929016</v>
+        <v>24978.75328357064</v>
       </c>
       <c r="C96" t="n">
-        <v>3660.423418685639</v>
+        <v>3897.986004901254</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1735993611660674</v>
+        <v>0.1560520639540921</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8264006388339326</v>
+        <v>0.8439479360459079</v>
       </c>
       <c r="F96" t="n">
-        <v>3.781357362460545</v>
+        <v>4.113242709523528</v>
       </c>
       <c r="G96" t="n">
-        <v>214.8765834028466</v>
+        <v>254.5520775374181</v>
       </c>
       <c r="H96" t="n">
-        <v>816.8883757177118</v>
+        <v>1032.367640278501</v>
       </c>
       <c r="I96" t="n">
-        <v>35.52613105550608</v>
+        <v>37.83178769858684</v>
       </c>
       <c r="J96" t="n">
-        <v>175.9771369400984</v>
+        <v>205.3917137146323</v>
       </c>
       <c r="K96" t="n">
-        <v>688.6180909688926</v>
+        <v>861.0723230390945</v>
       </c>
     </row>
     <row r="97">
@@ -3824,34 +3824,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17425.04253060452</v>
+        <v>21080.76727866939</v>
       </c>
       <c r="C97" t="n">
-        <v>3361.071004452516</v>
+        <v>3659.607732467544</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1928873917265505</v>
+        <v>0.1735993611660674</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8071126082734495</v>
+        <v>0.8264006388339326</v>
       </c>
       <c r="F97" t="n">
-        <v>3.470661696354208</v>
+        <v>3.781357362460543</v>
       </c>
       <c r="G97" t="n">
-        <v>169.1182340900622</v>
+        <v>204.5987623370494</v>
       </c>
       <c r="H97" t="n">
-        <v>602.0117923148651</v>
+        <v>777.8155627410831</v>
       </c>
       <c r="I97" t="n">
-        <v>31.06740482574503</v>
+        <v>33.82687089245699</v>
       </c>
       <c r="J97" t="n">
-        <v>140.4510058845923</v>
+        <v>167.5599260160454</v>
       </c>
       <c r="K97" t="n">
-        <v>512.6409540287941</v>
+        <v>655.6806093244622</v>
       </c>
     </row>
     <row r="98">
@@ -3859,34 +3859,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14063.971526152</v>
+        <v>17421.15954620184</v>
       </c>
       <c r="C98" t="n">
-        <v>3010.11584832481</v>
+        <v>3360.322025718969</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2140302860203812</v>
+        <v>0.1928873917265505</v>
       </c>
       <c r="E98" t="n">
-        <v>0.7859697139796188</v>
+        <v>0.8071126082734495</v>
       </c>
       <c r="F98" t="n">
-        <v>3.180603754547902</v>
+        <v>3.470661696354207</v>
       </c>
       <c r="G98" t="n">
-        <v>129.9975800219332</v>
+        <v>161.0290932380663</v>
       </c>
       <c r="H98" t="n">
-        <v>432.893558224803</v>
+        <v>573.2168004040336</v>
       </c>
       <c r="I98" t="n">
-        <v>26.49849450862072</v>
+        <v>29.58141122550677</v>
       </c>
       <c r="J98" t="n">
-        <v>109.3836010588473</v>
+        <v>133.7330551235884</v>
       </c>
       <c r="K98" t="n">
-        <v>372.1899481442017</v>
+        <v>488.1206833084167</v>
       </c>
     </row>
     <row r="99">
@@ -3894,34 +3894,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11053.85567782719</v>
+        <v>14060.83752048288</v>
       </c>
       <c r="C99" t="n">
-        <v>2621.250441522277</v>
+        <v>3009.445076195057</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2371344911604206</v>
+        <v>0.2140302860203812</v>
       </c>
       <c r="E99" t="n">
-        <v>0.7628655088395794</v>
+        <v>0.7859697139796188</v>
       </c>
       <c r="F99" t="n">
-        <v>2.910568762217488</v>
+        <v>3.180603754547901</v>
       </c>
       <c r="G99" t="n">
-        <v>97.3087245598871</v>
+        <v>123.779629953604</v>
       </c>
       <c r="H99" t="n">
-        <v>302.8959782028697</v>
+        <v>412.1877071659674</v>
       </c>
       <c r="I99" t="n">
-        <v>21.97643322283652</v>
+        <v>25.23103771663505</v>
       </c>
       <c r="J99" t="n">
-        <v>82.88510655022662</v>
+        <v>104.1516438980817</v>
       </c>
       <c r="K99" t="n">
-        <v>262.8063470853544</v>
+        <v>354.3876281848284</v>
       </c>
     </row>
     <row r="100">
@@ -3929,34 +3929,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8432.605236304915</v>
+        <v>11051.39244428782</v>
       </c>
       <c r="C100" t="n">
-        <v>2211.820883335189</v>
+        <v>2620.666323890309</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2622938962934765</v>
+        <v>0.2371344911604206</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7377061037065235</v>
+        <v>0.7628655088395794</v>
       </c>
       <c r="F100" t="n">
-        <v>2.659886945058357</v>
+        <v>2.910568762217487</v>
       </c>
       <c r="G100" t="n">
-        <v>70.69854254848453</v>
+        <v>92.65432414394016</v>
       </c>
       <c r="H100" t="n">
-        <v>205.5872536429827</v>
+        <v>288.4080772123634</v>
       </c>
       <c r="I100" t="n">
-        <v>17.66075827363061</v>
+        <v>20.92527239017706</v>
       </c>
       <c r="J100" t="n">
-        <v>60.90867332739009</v>
+        <v>78.92060618144663</v>
       </c>
       <c r="K100" t="n">
-        <v>179.9212405351278</v>
+        <v>250.2359842867467</v>
       </c>
     </row>
     <row r="101">
@@ -3964,34 +3964,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6220.784352969727</v>
+        <v>8430.726120397509</v>
       </c>
       <c r="C101" t="n">
-        <v>1801.439321078805</v>
+        <v>2211.328002702248</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2895839525796807</v>
+        <v>0.2622938962934765</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7104160474203193</v>
+        <v>0.7377061037065235</v>
       </c>
       <c r="F101" t="n">
-        <v>2.427842041981546</v>
+        <v>2.659886945058356</v>
       </c>
       <c r="G101" t="n">
-        <v>49.67118701064035</v>
+        <v>67.3169410802421</v>
       </c>
       <c r="H101" t="n">
-        <v>134.8887110944981</v>
+        <v>195.7537530684232</v>
       </c>
       <c r="I101" t="n">
-        <v>13.69902729891974</v>
+        <v>16.81602167856676</v>
       </c>
       <c r="J101" t="n">
-        <v>43.24791505375948</v>
+        <v>57.99533379126957</v>
       </c>
       <c r="K101" t="n">
-        <v>119.0125672077377</v>
+        <v>171.3153781053</v>
       </c>
     </row>
     <row r="102">
@@ -3999,34 +3999,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4419.345031890922</v>
+        <v>6219.39811769526</v>
       </c>
       <c r="C102" t="n">
-        <v>1410.013034943303</v>
+        <v>1801.03788958882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3190547524052441</v>
+        <v>0.2895839525796807</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6809452475947559</v>
+        <v>0.7104160474203193</v>
       </c>
       <c r="F102" t="n">
-        <v>2.213680313081291</v>
+        <v>2.427842041981545</v>
       </c>
       <c r="G102" t="n">
-        <v>33.60686509216632</v>
+        <v>47.29535077880668</v>
       </c>
       <c r="H102" t="n">
-        <v>85.21752408385778</v>
+        <v>128.4368119881811</v>
       </c>
       <c r="I102" t="n">
-        <v>10.21183811533101</v>
+        <v>13.04378534968506</v>
       </c>
       <c r="J102" t="n">
-        <v>29.54888775483975</v>
+        <v>41.17931211270281</v>
       </c>
       <c r="K102" t="n">
-        <v>75.76465215397819</v>
+        <v>113.3200443140304</v>
       </c>
     </row>
     <row r="103">
@@ -4034,34 +4034,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3009.331996947618</v>
+        <v>4418.36022810644</v>
       </c>
       <c r="C103" t="n">
-        <v>1055.442242658769</v>
+        <v>1409.698828615678</v>
       </c>
       <c r="D103" t="n">
-        <v>0.350723098591086</v>
+        <v>0.3190547524052441</v>
       </c>
       <c r="E103" t="n">
-        <v>0.649276901408914</v>
+        <v>0.6809452475947559</v>
       </c>
       <c r="F103" t="n">
-        <v>2.016619829765133</v>
+        <v>2.213680313081291</v>
       </c>
       <c r="G103" t="n">
-        <v>21.79470006768452</v>
+        <v>31.99940586822605</v>
       </c>
       <c r="H103" t="n">
-        <v>51.61065899169146</v>
+        <v>81.14146120937447</v>
       </c>
       <c r="I103" t="n">
-        <v>7.279909276763492</v>
+        <v>9.723392872763597</v>
       </c>
       <c r="J103" t="n">
-        <v>19.33704963950874</v>
+        <v>28.13552676301774</v>
       </c>
       <c r="K103" t="n">
-        <v>46.21576439913845</v>
+        <v>72.14073220132764</v>
       </c>
     </row>
     <row r="104">
@@ -4069,34 +4069,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1953.889754288849</v>
+        <v>3008.661399490763</v>
       </c>
       <c r="C104" t="n">
-        <v>751.3950567558261</v>
+        <v>1055.207048640793</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3845636915319763</v>
+        <v>0.350723098591086</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6154363084680237</v>
+        <v>0.649276901408914</v>
       </c>
       <c r="F104" t="n">
-        <v>1.835859825713971</v>
+        <v>2.016619829765133</v>
       </c>
       <c r="G104" t="n">
-        <v>13.4769479305551</v>
+        <v>20.75223176364217</v>
       </c>
       <c r="H104" t="n">
-        <v>29.81595892400694</v>
+        <v>49.14205534114841</v>
       </c>
       <c r="I104" t="n">
-        <v>4.935947473103332</v>
+        <v>6.931701930309464</v>
       </c>
       <c r="J104" t="n">
-        <v>12.05714036274525</v>
+        <v>18.41213389025415</v>
       </c>
       <c r="K104" t="n">
-        <v>26.87871475962971</v>
+        <v>44.00520543830989</v>
       </c>
     </row>
     <row r="105">
@@ -4104,34 +4104,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1202.494697533023</v>
+        <v>1953.454350849969</v>
       </c>
       <c r="C105" t="n">
-        <v>505.6486546670388</v>
+        <v>751.2276164020647</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4204996959274763</v>
+        <v>0.3845636915319763</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5795003040725237</v>
+        <v>0.6154363084680237</v>
       </c>
       <c r="F105" t="n">
-        <v>1.670589884498793</v>
+        <v>1.835859825713971</v>
       </c>
       <c r="G105" t="n">
-        <v>7.899241032187239</v>
+        <v>12.83232832077831</v>
       </c>
       <c r="H105" t="n">
-        <v>16.33901099345183</v>
+        <v>28.38982357750624</v>
       </c>
       <c r="I105" t="n">
-        <v>3.163455668659598</v>
+        <v>4.699854809513177</v>
       </c>
       <c r="J105" t="n">
-        <v>7.121192889641914</v>
+        <v>11.48043195994468</v>
       </c>
       <c r="K105" t="n">
-        <v>14.82157439688447</v>
+        <v>25.59307154805574</v>
       </c>
     </row>
     <row r="106">
@@ -4139,34 +4139,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>696.8460428659844</v>
+        <v>1202.226734447905</v>
       </c>
       <c r="C106" t="n">
-        <v>319.4294334355642</v>
+        <v>505.5359762712267</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4583931224202935</v>
+        <v>0.4204996959274763</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5416068775797065</v>
+        <v>0.5795003040725237</v>
       </c>
       <c r="F106" t="n">
-        <v>1.519998740763896</v>
+        <v>1.670589884498793</v>
       </c>
       <c r="G106" t="n">
-        <v>4.359631028661583</v>
+        <v>7.521410257894741</v>
       </c>
       <c r="H106" t="n">
-        <v>8.439769961264593</v>
+        <v>15.55749525672792</v>
       </c>
       <c r="I106" t="n">
-        <v>1.903261790312932</v>
+        <v>3.012143548943371</v>
       </c>
       <c r="J106" t="n">
-        <v>3.957737220982315</v>
+        <v>6.780577150431506</v>
       </c>
       <c r="K106" t="n">
-        <v>7.700381507242554</v>
+        <v>14.11263958811106</v>
       </c>
     </row>
     <row r="107">
@@ -4174,34 +4174,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>377.4166094304201</v>
+        <v>696.6907581766779</v>
       </c>
       <c r="C107" t="n">
-        <v>187.9669346543633</v>
+        <v>319.358252001969</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4980356718747339</v>
+        <v>0.4583931224202935</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5019643281252661</v>
+        <v>0.5416068775797065</v>
       </c>
       <c r="F107" t="n">
-        <v>1.383282474775787</v>
+        <v>1.519998740763896</v>
       </c>
       <c r="G107" t="n">
-        <v>2.248767760793337</v>
+        <v>4.151104315718287</v>
       </c>
       <c r="H107" t="n">
-        <v>4.080138932603012</v>
+        <v>8.036084998833182</v>
       </c>
       <c r="I107" t="n">
-        <v>1.066634821559</v>
+        <v>1.812226351213773</v>
       </c>
       <c r="J107" t="n">
-        <v>2.054475430669384</v>
+        <v>3.768433601488135</v>
       </c>
       <c r="K107" t="n">
-        <v>3.742644286260239</v>
+        <v>7.332062437679552</v>
       </c>
     </row>
     <row r="108">
@@ -4209,34 +4209,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>189.4496747760568</v>
+        <v>377.3325061747089</v>
       </c>
       <c r="C108" t="n">
-        <v>102.1400742886816</v>
+        <v>187.9250482328983</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5391409323315997</v>
+        <v>0.4980356718747339</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4608590676684003</v>
+        <v>0.5019643281252661</v>
       </c>
       <c r="F108" t="n">
-        <v>1.259651882185864</v>
+        <v>1.383282474775787</v>
       </c>
       <c r="G108" t="n">
-        <v>1.07504876014894</v>
+        <v>2.141206330422691</v>
       </c>
       <c r="H108" t="n">
-        <v>1.831371171809675</v>
+        <v>3.884980683114895</v>
       </c>
       <c r="I108" t="n">
-        <v>0.5520026579510757</v>
+        <v>1.01561631751857</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9878406091103835</v>
+        <v>1.956207250274362</v>
       </c>
       <c r="K108" t="n">
-        <v>1.688168855590855</v>
+        <v>3.563628836191417</v>
       </c>
     </row>
     <row r="109">
@@ -4244,34 +4244,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>87.30960048737522</v>
+        <v>189.4074579418106</v>
       </c>
       <c r="C109" t="n">
-        <v>50.75648198337959</v>
+        <v>102.117313465306</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5813390703891592</v>
+        <v>0.5391409323315997</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4186609296108408</v>
+        <v>0.4608590676684003</v>
       </c>
       <c r="F109" t="n">
-        <v>1.148338799167237</v>
+        <v>1.259651882185864</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4718533040955333</v>
+        <v>1.023627806693517</v>
       </c>
       <c r="H109" t="n">
-        <v>0.756322411660735</v>
+        <v>1.743774352692203</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2612445344409053</v>
+        <v>0.5255996667250409</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4358379511593078</v>
+        <v>0.9405909327557924</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7003282464804719</v>
+        <v>1.607421585917054</v>
       </c>
     </row>
     <row r="110">
@@ -4279,34 +4279,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>36.55311850399563</v>
+        <v>87.29014447650458</v>
       </c>
       <c r="C110" t="n">
-        <v>22.8155567678365</v>
+        <v>50.74517144410657</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6241753837047455</v>
+        <v>0.5813390703891592</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3758246162952545</v>
+        <v>0.4186609296108408</v>
       </c>
       <c r="F110" t="n">
-        <v>1.048601155044226</v>
+        <v>1.148338799167237</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1881395646976978</v>
+        <v>0.4492839586973558</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2844691075652017</v>
+        <v>0.7201465459986865</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1118400809383136</v>
+        <v>0.2487488751332212</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1745934167184025</v>
+        <v>0.4149912660307516</v>
       </c>
       <c r="K110" t="n">
-        <v>0.264490295321164</v>
+        <v>0.6668306531612617</v>
       </c>
     </row>
     <row r="111">
@@ -4314,34 +4314,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>13.73756173615913</v>
+        <v>36.544973032398</v>
       </c>
       <c r="C111" t="n">
-        <v>9.164522842709285</v>
+        <v>22.8104725649766</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6671142243959507</v>
+        <v>0.6241753837047455</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3328857756040493</v>
+        <v>0.3758246162952545</v>
       </c>
       <c r="F111" t="n">
-        <v>0.95972650874267</v>
+        <v>1.048601155044226</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06734045686901761</v>
+        <v>0.179140609340451</v>
       </c>
       <c r="H111" t="n">
-        <v>0.09632954286750389</v>
+        <v>0.2708625873013307</v>
       </c>
       <c r="I111" t="n">
-        <v>0.04278454919489872</v>
+        <v>0.106490627211598</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06275333578008885</v>
+        <v>0.1662423908975305</v>
       </c>
       <c r="K111" t="n">
-        <v>0.08989687860276151</v>
+        <v>0.25183938713051</v>
       </c>
     </row>
     <row r="112">
@@ -4349,34 +4349,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.573038893449841</v>
+        <v>13.73450046742141</v>
       </c>
       <c r="C112" t="n">
-        <v>3.244798786062248</v>
+        <v>9.162480626789653</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7095497899022709</v>
+        <v>0.6671142243959507</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2904502100977291</v>
+        <v>0.3328857756040493</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8810338032872012</v>
+        <v>0.9597265087426701</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02134921925178472</v>
+        <v>0.06411947692216484</v>
       </c>
       <c r="H112" t="n">
-        <v>0.02898908599848626</v>
+        <v>0.09172197796087972</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01442698479493464</v>
+        <v>0.04073810963390864</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01996878658519014</v>
+        <v>0.05975176368593249</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02714354282267266</v>
+        <v>0.08559699623297956</v>
       </c>
     </row>
     <row r="113">
@@ -4384,34 +4384,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.328240107387593</v>
+        <v>4.572019840631752</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9972759047259787</v>
+        <v>3.244075717349274</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7508250196475692</v>
+        <v>0.7095497899022709</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2491749803524308</v>
+        <v>0.2904502100977291</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8118730510093035</v>
+        <v>0.8810338032872012</v>
       </c>
       <c r="G113" t="n">
-        <v>0.005905604968669862</v>
+        <v>0.02032805886339122</v>
       </c>
       <c r="H113" t="n">
-        <v>0.007639866746701546</v>
+        <v>0.02760250103871487</v>
       </c>
       <c r="I113" t="n">
-        <v>0.004222929492030791</v>
+        <v>0.01373692371013356</v>
       </c>
       <c r="J113" t="n">
-        <v>0.005541801790255502</v>
+        <v>0.01901365405202385</v>
       </c>
       <c r="K113" t="n">
-        <v>0.007174756237482523</v>
+        <v>0.02584523254704706</v>
       </c>
     </row>
     <row r="114">
@@ -4419,34 +4419,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.330964202661614</v>
+        <v>1.327944123282478</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2615475204534835</v>
+        <v>0.9970536724544408</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7902592435983058</v>
+        <v>0.7508250196475692</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2097407564016942</v>
+        <v>0.2491749803524308</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7516226571712508</v>
+        <v>0.8118730510093036</v>
       </c>
       <c r="G114" t="n">
-        <v>0.001401456192416696</v>
+        <v>0.005623132350239033</v>
       </c>
       <c r="H114" t="n">
-        <v>0.001734261778031684</v>
+        <v>0.007274442175323642</v>
       </c>
       <c r="I114" t="n">
-        <v>0.001054774962433695</v>
+        <v>0.004020941387951527</v>
       </c>
       <c r="J114" t="n">
-        <v>0.00131887229822471</v>
+        <v>0.005276730341890288</v>
       </c>
       <c r="K114" t="n">
-        <v>0.001632954447227022</v>
+        <v>0.006831578495023214</v>
       </c>
     </row>
     <row r="115">
@@ -4454,34 +4454,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.06941668220813053</v>
+        <v>0.3308904508280375</v>
       </c>
       <c r="C115" t="n">
-        <v>0.05742038543958053</v>
+        <v>0.2614892373852673</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8271842389041042</v>
+        <v>0.7902592435983058</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1728157610958958</v>
+        <v>0.2097407564016942</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6996841314395974</v>
+        <v>0.7516226571712508</v>
       </c>
       <c r="G115" t="n">
-        <v>0.000279945220820301</v>
+        <v>0.001334422755133266</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0003328055856149882</v>
+        <v>0.001651309825084609</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0002205393089705543</v>
+        <v>0.00100432373058284</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0002640973357910158</v>
+        <v>0.00125578895393876</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0003140821490023111</v>
+        <v>0.001554848153132925</v>
       </c>
     </row>
     <row r="116">
@@ -4489,34 +4489,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01199629676855001</v>
+        <v>0.06940121344277018</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01032865512319663</v>
+        <v>0.05740758992067914</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8609869630997011</v>
+        <v>0.8271842389041042</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1390130369002989</v>
+        <v>0.1728157610958958</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6554740735064797</v>
+        <v>0.6996841314395974</v>
       </c>
       <c r="G116" t="n">
-        <v>4.607518704877993e-05</v>
+        <v>0.0002665550838297942</v>
       </c>
       <c r="H116" t="n">
-        <v>5.286036479468724e-05</v>
+        <v>0.0003168870699513432</v>
       </c>
       <c r="I116" t="n">
-        <v>3.778108130607592e-05</v>
+        <v>0.0002099906325178743</v>
       </c>
       <c r="J116" t="n">
-        <v>4.355802682046149e-05</v>
+        <v>0.0002514652233559207</v>
       </c>
       <c r="K116" t="n">
-        <v>4.998481321129525e-05</v>
+        <v>0.0002990591991941651</v>
       </c>
     </row>
     <row r="117">
@@ -4524,34 +4524,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001667641645353378</v>
+        <v>0.01199362352209104</v>
       </c>
       <c r="C117" t="n">
-        <v>0.001486128117976159</v>
+        <v>0.01032635349284631</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8911555561814026</v>
+        <v>0.8609869630997011</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1088444438185974</v>
+        <v>0.1390130369002989</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6184136176953448</v>
+        <v>0.6554740735064797</v>
       </c>
       <c r="G117" t="n">
-        <v>6.100049216571635e-06</v>
+        <v>4.387135208192971e-05</v>
       </c>
       <c r="H117" t="n">
-        <v>6.785177745907306e-06</v>
+        <v>5.0331986121549e-05</v>
       </c>
       <c r="I117" t="n">
-        <v>5.177231192693166e-06</v>
+        <v>3.597396399628419e-05</v>
       </c>
       <c r="J117" t="n">
-        <v>5.776945514385571e-06</v>
+        <v>4.147459083804641e-05</v>
       </c>
       <c r="K117" t="n">
-        <v>6.426786390833761e-06</v>
+        <v>4.759397583824444e-05</v>
       </c>
     </row>
     <row r="118">
@@ -4559,34 +4559,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0001815135273772191</v>
+        <v>0.001667270029244735</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0001665066240303818</v>
+        <v>0.001485796950216175</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9173234988946578</v>
+        <v>0.8911555561814026</v>
       </c>
       <c r="E118" t="n">
-        <v>0.08267650110534219</v>
+        <v>0.1088444438185974</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5879160528643574</v>
+        <v>0.6184136176953448</v>
       </c>
       <c r="G118" t="n">
-        <v>6.323394897560097e-07</v>
+        <v>5.808276081744093e-06</v>
       </c>
       <c r="H118" t="n">
-        <v>6.851285293356713e-07</v>
+        <v>6.460634039619294e-06</v>
       </c>
       <c r="I118" t="n">
-        <v>5.524379745069004e-07</v>
+        <v>4.929597621030281e-06</v>
       </c>
       <c r="J118" t="n">
-        <v>5.997143216924063e-07</v>
+        <v>5.500626841762222e-06</v>
       </c>
       <c r="K118" t="n">
-        <v>6.498408764481888e-07</v>
+        <v>6.119385000198026e-06</v>
       </c>
     </row>
     <row r="119">
@@ -4594,34 +4594,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.500690334683721e-05</v>
+        <v>0.0001814730790285597</v>
       </c>
       <c r="C119" t="n">
-        <v>1.40960668990921e-05</v>
+        <v>0.0001664695198096652</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9393055031611787</v>
+        <v>0.9173234988946578</v>
       </c>
       <c r="E119" t="n">
-        <v>0.06069449683882133</v>
+        <v>0.08267650110534219</v>
       </c>
       <c r="F119" t="n">
-        <v>0.563374135201238</v>
+        <v>0.5879160528643574</v>
       </c>
       <c r="G119" t="n">
-        <v>4.979011097501358e-08</v>
+        <v>6.020938853926645e-07</v>
       </c>
       <c r="H119" t="n">
-        <v>5.278903957966162e-08</v>
+        <v>6.523579578752001e-07</v>
       </c>
       <c r="I119" t="n">
-        <v>4.454107165889147e-08</v>
+        <v>5.26014161534741e-07</v>
       </c>
       <c r="J119" t="n">
-        <v>4.727634718550587e-08</v>
+        <v>5.710292207319407e-07</v>
       </c>
       <c r="K119" t="n">
-        <v>5.012655475578259e-08</v>
+        <v>6.18758158435804e-07</v>
       </c>
     </row>
     <row r="120">
@@ -4629,34 +4629,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.108364477451084e-07</v>
+        <v>1.500355921889457e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>8.717782608689689e-07</v>
+        <v>1.409292574131231e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9571183312077233</v>
+        <v>0.9393055031611787</v>
       </c>
       <c r="E120" t="n">
-        <v>0.04288166879227673</v>
+        <v>0.06069449683882133</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5441496099643551</v>
+        <v>0.563374135201238</v>
       </c>
       <c r="G120" t="n">
-        <v>2.878081650645261e-09</v>
+        <v>4.740858645827276e-08</v>
       </c>
       <c r="H120" t="n">
-        <v>2.998928604648049e-09</v>
+        <v>5.026407248253555e-08</v>
       </c>
       <c r="I120" t="n">
-        <v>2.623490196709678e-09</v>
+        <v>4.241061538795061e-08</v>
       </c>
       <c r="J120" t="n">
-        <v>2.735275526614402e-09</v>
+        <v>4.501505919719964e-08</v>
       </c>
       <c r="K120" t="n">
-        <v>2.850207570276717e-09</v>
+        <v>4.772893770386329e-08</v>
       </c>
     </row>
     <row r="121">
@@ -4664,34 +4664,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.905818687613961e-08</v>
+        <v>9.106334775822652e-07</v>
       </c>
       <c r="C121" t="n">
-        <v>3.792475011867999e-08</v>
+        <v>8.715839944054233e-07</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9709808148275302</v>
+        <v>0.9571183312077233</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02901918517246982</v>
+        <v>0.04288166879227673</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5295683728686125</v>
+        <v>0.5441496099643551</v>
       </c>
       <c r="G121" t="n">
-        <v>1.175399467619992e-10</v>
+        <v>2.740419334213928e-09</v>
       </c>
       <c r="H121" t="n">
-        <v>1.208469540027869e-10</v>
+        <v>2.855486024262784e-09</v>
       </c>
       <c r="I121" t="n">
-        <v>1.08694317411191e-10</v>
+        <v>2.498005314259252e-09</v>
       </c>
       <c r="J121" t="n">
-        <v>1.117853299047237e-10</v>
+        <v>2.604443809249033e-09</v>
       </c>
       <c r="K121" t="n">
-        <v>1.149320436623153e-10</v>
+        <v>2.713878506663651e-09</v>
       </c>
     </row>
     <row r="122">
@@ -4699,34 +4699,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.133436757459626e-09</v>
+        <v>3.904948317684185e-08</v>
       </c>
       <c r="C122" t="n">
-        <v>1.112230339312484e-09</v>
+        <v>3.791629899364383e-08</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9812901619719194</v>
+        <v>0.9709808148275302</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01870983802808057</v>
+        <v>0.02901918517246982</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5189249867933473</v>
+        <v>0.5295683728686125</v>
       </c>
       <c r="G122" t="n">
-        <v>3.248489028808286e-12</v>
+        <v>1.11917861182584e-10</v>
       </c>
       <c r="H122" t="n">
-        <v>3.307007240787714e-12</v>
+        <v>1.150666900488561e-10</v>
       </c>
       <c r="I122" t="n">
-        <v>3.035914595469796e-12</v>
+        <v>1.03495329566495e-10</v>
       </c>
       <c r="J122" t="n">
-        <v>3.09101249353268e-12</v>
+        <v>1.064384949897813e-10</v>
       </c>
       <c r="K122" t="n">
-        <v>3.146713757591582e-12</v>
+        <v>1.094346974146178e-10</v>
       </c>
     </row>
     <row r="123">
@@ -4734,34 +4734,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.120641814714245e-11</v>
+        <v>1.133184183198019e-09</v>
       </c>
       <c r="C123" t="n">
-        <v>2.096415582296824e-11</v>
+        <v>1.111982490674401e-09</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9885759904151068</v>
+        <v>0.9812901619719194</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0114240095848932</v>
+        <v>0.01870983802808057</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5114992318449679</v>
+        <v>0.5189249867933473</v>
       </c>
       <c r="G123" t="n">
-        <v>5.788447958571409e-14</v>
+        <v>3.0931096550135e-12</v>
       </c>
       <c r="H123" t="n">
-        <v>5.851821197942833e-14</v>
+        <v>3.148828866272188e-12</v>
       </c>
       <c r="I123" t="n">
-        <v>5.449829212962889e-14</v>
+        <v>2.890702927966767e-12</v>
       </c>
       <c r="J123" t="n">
-        <v>5.509789806288417e-14</v>
+        <v>2.943165423286253e-12</v>
       </c>
       <c r="K123" t="n">
-        <v>5.570126405890149e-14</v>
+        <v>2.996202424836555e-12</v>
       </c>
     </row>
     <row r="124">
@@ -4769,34 +4769,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.422623241742084e-13</v>
+        <v>2.120169252361771e-11</v>
       </c>
       <c r="C124" t="n">
-        <v>2.406727317400952e-13</v>
+        <v>2.095948418501194e-11</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9934385487321165</v>
+        <v>0.9885759904151068</v>
       </c>
       <c r="E124" t="n">
-        <v>0.006561451267883545</v>
+        <v>0.0114240095848932</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5065845760646212</v>
+        <v>0.5114992318449679</v>
       </c>
       <c r="G124" t="n">
-        <v>6.297836662892882e-16</v>
+        <v>5.511579109370929e-14</v>
       </c>
       <c r="H124" t="n">
-        <v>6.337323937142407e-16</v>
+        <v>5.571921125868718e-14</v>
       </c>
       <c r="I124" t="n">
-        <v>5.958584490034494e-16</v>
+        <v>5.189156930283407e-14</v>
       </c>
       <c r="J124" t="n">
-        <v>5.996059332552768e-16</v>
+        <v>5.246249531948609e-14</v>
       </c>
       <c r="K124" t="n">
-        <v>6.033659960173258e-16</v>
+        <v>5.303700155030216e-14</v>
       </c>
     </row>
     <row r="125">
@@ -4804,34 +4804,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.589592434113274e-15</v>
+        <v>2.422083386057672e-13</v>
       </c>
       <c r="C125" t="n">
-        <v>1.583999940062375e-15</v>
+        <v>2.406191003953305e-13</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9964818063228775</v>
+        <v>0.9934385487321165</v>
       </c>
       <c r="E125" t="n">
-        <v>0.003518193677122472</v>
+        <v>0.006561451267883545</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5035243417642672</v>
+        <v>0.5065845760646212</v>
       </c>
       <c r="G125" t="n">
-        <v>3.935518891110663e-18</v>
+        <v>5.996603102223869e-16</v>
       </c>
       <c r="H125" t="n">
-        <v>3.948727424952528e-18</v>
+        <v>6.034201649778816e-16</v>
       </c>
       <c r="I125" t="n">
-        <v>3.734926641363582e-18</v>
+        <v>5.673577793519799e-16</v>
       </c>
       <c r="J125" t="n">
-        <v>3.74748425182721e-18</v>
+        <v>5.709260166520116e-16</v>
       </c>
       <c r="K125" t="n">
-        <v>3.760062762048989e-18</v>
+        <v>5.745062308160769e-16</v>
       </c>
     </row>
     <row r="126">
@@ -4839,34 +4839,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.592494050899041e-18</v>
+        <v>1.589238210436778e-15</v>
       </c>
       <c r="C126" t="n">
-        <v>5.582728859266499e-18</v>
+        <v>1.583646962613378e-15</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9982538753651472</v>
+        <v>0.9964818063228775</v>
       </c>
       <c r="E126" t="n">
-        <v>0.001746124634852797</v>
+        <v>0.003518193677122472</v>
       </c>
       <c r="F126" t="n">
-        <v>0.501747512419413</v>
+        <v>0.5035243417642672</v>
       </c>
       <c r="G126" t="n">
-        <v>1.318658826562055e-20</v>
+        <v>3.7472780026744e-18</v>
       </c>
       <c r="H126" t="n">
-        <v>1.320853384186469e-20</v>
+        <v>3.75985475549472e-18</v>
       </c>
       <c r="I126" t="n">
-        <v>1.253672651333361e-20</v>
+        <v>3.556280336094258e-18</v>
       </c>
       <c r="J126" t="n">
-        <v>1.255761046362699e-20</v>
+        <v>3.568237300031795e-18</v>
       </c>
       <c r="K126" t="n">
-        <v>1.257851022177886e-20</v>
+        <v>3.580214164065393e-18</v>
       </c>
     </row>
     <row r="127">
@@ -4874,34 +4874,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.765191632542527e-21</v>
+        <v>5.591247823400106e-18</v>
       </c>
       <c r="C127" t="n">
-        <v>9.757432999938685e-21</v>
+        <v>5.5814848078361e-18</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9992054807631234</v>
+        <v>0.9982538753651472</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0007945192368765674</v>
+        <v>0.001746124634852797</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5007947797840027</v>
+        <v>0.501747512419413</v>
       </c>
       <c r="G127" t="n">
-        <v>2.192897773358177e-23</v>
+        <v>1.255585692898019e-20</v>
       </c>
       <c r="H127" t="n">
-        <v>2.194557624413617e-23</v>
+        <v>1.257675282032032e-20</v>
       </c>
       <c r="I127" t="n">
-        <v>2.086814737040705e-23</v>
+        <v>1.193707889322363e-20</v>
       </c>
       <c r="J127" t="n">
-        <v>2.088395029338481e-23</v>
+        <v>1.195696393753636e-20</v>
       </c>
       <c r="K127" t="n">
-        <v>2.089975815186945e-23</v>
+        <v>1.197686403359755e-20</v>
       </c>
     </row>
     <row r="128">
@@ -4909,34 +4909,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7.758632603841131e-24</v>
+        <v>9.763015564006006e-21</v>
       </c>
       <c r="C128" t="n">
-        <v>7.756088619702927e-24</v>
+        <v>9.755258660330479e-21</v>
       </c>
       <c r="D128" t="n">
-        <v>0.999672109214587</v>
+        <v>0.9992054807631234</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0003278907854129542</v>
+        <v>0.0007945192368765674</v>
       </c>
       <c r="F128" t="n">
-        <v>0.5003279305446376</v>
+        <v>0.5007947797840027</v>
       </c>
       <c r="G128" t="n">
-        <v>1.659332824225584e-26</v>
+        <v>2.088008675750428e-23</v>
       </c>
       <c r="H128" t="n">
-        <v>1.659851055439923e-26</v>
+        <v>2.089589134012695e-23</v>
       </c>
       <c r="I128" t="n">
-        <v>1.579798804078654e-26</v>
+        <v>1.986999726372171e-23</v>
       </c>
       <c r="J128" t="n">
-        <v>1.580292297776063e-26</v>
+        <v>1.988504431273633e-23</v>
       </c>
       <c r="K128" t="n">
-        <v>1.580785848463895e-26</v>
+        <v>1.990009606118625e-23</v>
       </c>
     </row>
     <row r="129">
@@ -4944,34 +4944,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.543984138204023e-27</v>
+        <v>7.756903675528103e-24</v>
       </c>
       <c r="C129" t="n">
-        <v>2.543675673213176e-27</v>
+        <v>7.754360258289561e-24</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9998787472821807</v>
+        <v>0.999672109214587</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0001212527178192646</v>
+        <v>0.0003278907854129542</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5001212575237494</v>
+        <v>0.5003279305446376</v>
       </c>
       <c r="G129" t="n">
-        <v>5.181713742826877e-30</v>
+        <v>1.579964818713221e-26</v>
       </c>
       <c r="H129" t="n">
-        <v>5.182312143390083e-30</v>
+        <v>1.580458262267558e-26</v>
       </c>
       <c r="I129" t="n">
-        <v>4.934367091383427e-30</v>
+        <v>1.504235012197989e-26</v>
       </c>
       <c r="J129" t="n">
-        <v>4.934936974094016e-30</v>
+        <v>1.504704901462385e-26</v>
       </c>
       <c r="K129" t="n">
-        <v>4.935506878316691e-30</v>
+        <v>1.505174844991278e-26</v>
       </c>
     </row>
     <row r="130">
@@ -4979,34 +4979,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.084649908463374e-31</v>
+        <v>2.543417238541541e-27</v>
       </c>
       <c r="C130" t="n">
-        <v>3.08452764774192e-31</v>
+        <v>2.543108842288819e-27</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9999603647982486</v>
+        <v>0.9998787472821807</v>
       </c>
       <c r="E130" t="n">
-        <v>3.96352017514312e-05</v>
+        <v>0.0001212527178192646</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5000396356487808</v>
+        <v>0.5001212575237494</v>
       </c>
       <c r="G130" t="n">
-        <v>5.983779755039931e-34</v>
+        <v>4.933865765073465e-30</v>
       </c>
       <c r="H130" t="n">
-        <v>5.984005632054573e-34</v>
+        <v>4.934435543374455e-30</v>
       </c>
       <c r="I130" t="n">
-        <v>5.698611987354385e-34</v>
+        <v>4.698350019466757e-30</v>
       </c>
       <c r="J130" t="n">
-        <v>5.698827105894475e-34</v>
+        <v>4.698892643960396e-30</v>
       </c>
       <c r="K130" t="n">
-        <v>5.699042226745267e-34</v>
+        <v>4.69943528893717e-30</v>
       </c>
     </row>
     <row r="131">
@@ -5014,34 +5014,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.222607214544796e-35</v>
+        <v>3.083962527215307e-31</v>
       </c>
       <c r="C131" t="n">
-        <v>1.222593425254074e-35</v>
+        <v>3.083840293738347e-31</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9999887214057314</v>
+        <v>0.9999603647982486</v>
       </c>
       <c r="E131" t="n">
-        <v>1.127859426863775e-05</v>
+        <v>3.96352017514312e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5000112785942686</v>
+        <v>0.5000396356487808</v>
       </c>
       <c r="G131" t="n">
-        <v>2.258745884067974e-38</v>
+        <v>5.697567936862695e-34</v>
       </c>
       <c r="H131" t="n">
-        <v>2.258770146428338e-38</v>
+        <v>5.697783009891615e-34</v>
       </c>
       <c r="I131" t="n">
-        <v>2.151162293894849e-38</v>
+        <v>5.426040107245738e-34</v>
       </c>
       <c r="J131" t="n">
-        <v>2.151185400904719e-38</v>
+        <v>5.426244936391665e-34</v>
       </c>
       <c r="K131" t="n">
-        <v>2.15120850791459e-38</v>
+        <v>5.42644976773777e-34</v>
       </c>
     </row>
     <row r="132">
@@ -5049,34 +5049,69 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.378929072276011e-40</v>
+        <v>1.222334769600324e-35</v>
       </c>
       <c r="C132" t="n">
-        <v>1.378929072276011e-40</v>
+        <v>1.222320983382397e-35</v>
       </c>
       <c r="D132" t="n">
+        <v>0.9999887214057314</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.127859426863775e-05</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.5000112785942686</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.150707187333701e-38</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2.150730289194421e-38</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2.048269457504708e-38</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.048291459276823e-38</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2.048313461048938e-38</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.378621792677086e-40</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.378621792677086e-40</v>
+      </c>
+      <c r="D133" t="n">
         <v>1</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E133" t="n">
         <v>0</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F133" t="n">
         <v>0.5</v>
       </c>
-      <c r="G132" t="n">
-        <v>2.426236036415063e-43</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2.426236036415063e-43</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2.310700987061965e-43</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2.310700987061965e-43</v>
-      </c>
-      <c r="K132" t="n">
-        <v>2.310700987061965e-43</v>
+      <c r="G133" t="n">
+        <v>2.310186072055228e-43</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2.310186072055228e-43</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2.20017721148117e-43</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.20017721148117e-43</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2.20017721148117e-43</v>
       </c>
     </row>
   </sheetData>

--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm.xlsx
@@ -522,19 +522,19 @@
         <v>100000</v>
       </c>
       <c r="H2" t="n">
-        <v>1966592.653316626</v>
+        <v>2338213.625244919</v>
       </c>
       <c r="I2" t="n">
-        <v>35191215.82611085</v>
+        <v>47591113.61750585</v>
       </c>
       <c r="J2" t="n">
-        <v>46.6732571532878</v>
+        <v>47.12203847206941</v>
       </c>
       <c r="K2" t="n">
-        <v>6352.730794446275</v>
+        <v>10068.70672134908</v>
       </c>
       <c r="L2" t="n">
-        <v>290820.4711208699</v>
+        <v>507786.1784177672</v>
       </c>
     </row>
     <row r="3">
@@ -557,22 +557,22 @@
         <v>63.94681901007349</v>
       </c>
       <c r="G3" t="n">
-        <v>95191.42198094194</v>
+        <v>96106.72411537408</v>
       </c>
       <c r="H3" t="n">
-        <v>1866592.653316626</v>
+        <v>2238213.625244919</v>
       </c>
       <c r="I3" t="n">
-        <v>33224623.17279422</v>
+        <v>45252899.99226093</v>
       </c>
       <c r="J3" t="n">
-        <v>47.08064651461545</v>
+        <v>47.99039643339823</v>
       </c>
       <c r="K3" t="n">
-        <v>6306.057537292987</v>
+        <v>10021.58468287701</v>
       </c>
       <c r="L3" t="n">
-        <v>284467.7403264236</v>
+        <v>497717.4716964181</v>
       </c>
     </row>
     <row r="4">
@@ -595,22 +595,22 @@
         <v>62.97978524517268</v>
       </c>
       <c r="G4" t="n">
-        <v>90611.416478192</v>
+        <v>92362.32125296473</v>
       </c>
       <c r="H4" t="n">
-        <v>1771401.231335684</v>
+        <v>2142106.901129545</v>
       </c>
       <c r="I4" t="n">
-        <v>31358030.5194776</v>
+        <v>43014686.36701601</v>
       </c>
       <c r="J4" t="n">
-        <v>47.52877841800584</v>
+        <v>48.91302603349738</v>
       </c>
       <c r="K4" t="n">
-        <v>6258.976890778372</v>
+        <v>9973.594286443607</v>
       </c>
       <c r="L4" t="n">
-        <v>278161.6827891306</v>
+        <v>487695.8870135411</v>
       </c>
     </row>
     <row r="5">
@@ -633,22 +633,22 @@
         <v>62.01421562534783</v>
       </c>
       <c r="G5" t="n">
-        <v>86249.0583436696</v>
+        <v>88761.01125566337</v>
       </c>
       <c r="H5" t="n">
-        <v>1680789.814857492</v>
+        <v>2049744.57987658</v>
       </c>
       <c r="I5" t="n">
-        <v>29586629.28814191</v>
+        <v>40872579.46588647</v>
       </c>
       <c r="J5" t="n">
-        <v>48.01690885590795</v>
+        <v>49.89052079940027</v>
       </c>
       <c r="K5" t="n">
-        <v>6211.448112360365</v>
+        <v>9924.681260410111</v>
       </c>
       <c r="L5" t="n">
-        <v>271902.7058983522</v>
+        <v>477722.2927270975</v>
       </c>
     </row>
     <row r="6">
@@ -671,22 +671,22 @@
         <v>61.05019541096939</v>
       </c>
       <c r="G6" t="n">
-        <v>82093.94341844847</v>
+        <v>85297.2356865692</v>
       </c>
       <c r="H6" t="n">
-        <v>1594540.756513823</v>
+        <v>1960983.568620917</v>
       </c>
       <c r="I6" t="n">
-        <v>27905839.47328442</v>
+        <v>38822834.88600989</v>
       </c>
       <c r="J6" t="n">
-        <v>48.54433528529105</v>
+        <v>50.92351316157525</v>
       </c>
       <c r="K6" t="n">
-        <v>6163.431203504459</v>
+        <v>9874.790739610709</v>
       </c>
       <c r="L6" t="n">
-        <v>265691.2577859919</v>
+        <v>467797.6114666874</v>
       </c>
     </row>
     <row r="7">
@@ -709,22 +709,22 @@
         <v>60.08781395850356</v>
       </c>
       <c r="G7" t="n">
-        <v>78136.16368228468</v>
+        <v>81965.64926238573</v>
       </c>
       <c r="H7" t="n">
-        <v>1512446.813095374</v>
+        <v>1875686.332934348</v>
       </c>
       <c r="I7" t="n">
-        <v>26311298.7167706</v>
+        <v>36861851.31738897</v>
       </c>
       <c r="J7" t="n">
-        <v>49.11039258560777</v>
+        <v>52.01267194385677</v>
       </c>
       <c r="K7" t="n">
-        <v>6114.886868219166</v>
+        <v>9823.867226449134</v>
       </c>
       <c r="L7" t="n">
-        <v>259527.8265824874</v>
+        <v>457922.8207270767</v>
       </c>
     </row>
     <row r="8">
@@ -747,22 +747,22 @@
         <v>59.12716486856024</v>
       </c>
       <c r="G8" t="n">
-        <v>74366.28359054265</v>
+        <v>78761.11161881164</v>
       </c>
       <c r="H8" t="n">
-        <v>1434310.64941309</v>
+        <v>1793720.683671962</v>
       </c>
       <c r="I8" t="n">
-        <v>24798851.90367522</v>
+        <v>34986164.98445462</v>
       </c>
       <c r="J8" t="n">
-        <v>49.71444894909636</v>
+        <v>53.15869958624891</v>
       </c>
       <c r="K8" t="n">
-        <v>6065.776475633559</v>
+        <v>9771.854554505277</v>
       </c>
       <c r="L8" t="n">
-        <v>253412.9397142683</v>
+        <v>448098.9535006275</v>
       </c>
     </row>
     <row r="9">
@@ -785,22 +785,22 @@
         <v>58.1683461347998</v>
       </c>
       <c r="G9" t="n">
-        <v>70775.31754204389</v>
+        <v>75678.67939542494</v>
       </c>
       <c r="H9" t="n">
-        <v>1359944.365822547</v>
+        <v>1714959.57205315</v>
       </c>
       <c r="I9" t="n">
-        <v>23364541.25426213</v>
+        <v>33192444.30078267</v>
       </c>
       <c r="J9" t="n">
-        <v>50.35590168073924</v>
+        <v>54.3623290641297</v>
       </c>
       <c r="K9" t="n">
-        <v>6016.062026684463</v>
+        <v>9718.695854919028</v>
       </c>
       <c r="L9" t="n">
-        <v>247347.1632386347</v>
+        <v>438327.0989461223</v>
       </c>
     </row>
     <row r="10">
@@ -823,22 +823,22 @@
         <v>57.21146029320089</v>
       </c>
       <c r="G10" t="n">
-        <v>67354.70842407535</v>
+        <v>72713.59862807524</v>
       </c>
       <c r="H10" t="n">
-        <v>1289169.048280503</v>
+        <v>1639280.892657725</v>
       </c>
       <c r="I10" t="n">
-        <v>22004596.88843959</v>
+        <v>31477484.72872952</v>
       </c>
       <c r="J10" t="n">
-        <v>51.03417288452412</v>
+        <v>55.62432046439247</v>
       </c>
       <c r="K10" t="n">
-        <v>5965.706125003724</v>
+        <v>9664.333525854898</v>
       </c>
       <c r="L10" t="n">
-        <v>241331.1012119502</v>
+        <v>428608.4030912033</v>
       </c>
     </row>
     <row r="11">
@@ -861,22 +861,22 @@
         <v>56.25661457113546</v>
       </c>
       <c r="G11" t="n">
-        <v>64096.30718337771</v>
+        <v>69861.29743730025</v>
       </c>
       <c r="H11" t="n">
-        <v>1221814.339856428</v>
+        <v>1566567.29402965</v>
       </c>
       <c r="I11" t="n">
-        <v>20715427.84015908</v>
+        <v>29838203.83607179</v>
       </c>
       <c r="J11" t="n">
-        <v>51.74870501086727</v>
+        <v>56.94545717468687</v>
       </c>
       <c r="K11" t="n">
-        <v>5914.671952119199</v>
+        <v>9608.709205390507</v>
       </c>
       <c r="L11" t="n">
-        <v>235365.3950869465</v>
+        <v>418944.0695653483</v>
       </c>
     </row>
     <row r="12">
@@ -899,22 +899,22 @@
         <v>55.30392103563822</v>
       </c>
       <c r="G12" t="n">
-        <v>60992.35337439647</v>
+        <v>67117.37900176785</v>
       </c>
       <c r="H12" t="n">
-        <v>1157718.03267305</v>
+        <v>1496705.99659235</v>
       </c>
       <c r="I12" t="n">
-        <v>19493613.50030266</v>
+        <v>28271636.54204214</v>
       </c>
       <c r="J12" t="n">
-        <v>52.49895623913086</v>
+        <v>58.3265416382352</v>
       </c>
       <c r="K12" t="n">
-        <v>5862.923247108332</v>
+        <v>9551.763748215819</v>
       </c>
       <c r="L12" t="n">
-        <v>229450.7231348273</v>
+        <v>409335.3603599578</v>
       </c>
     </row>
     <row r="13">
@@ -937,22 +937,22 @@
         <v>54.35349674019601</v>
       </c>
       <c r="G13" t="n">
-        <v>58035.45663842418</v>
+        <v>64477.61480621547</v>
       </c>
       <c r="H13" t="n">
-        <v>1096725.679298654</v>
+        <v>1429588.617590582</v>
       </c>
       <c r="I13" t="n">
-        <v>18335895.4676296</v>
+        <v>26774930.54544979</v>
       </c>
       <c r="J13" t="n">
-        <v>53.28439566732622</v>
+        <v>59.76839062179605</v>
       </c>
       <c r="K13" t="n">
-        <v>5810.424290869201</v>
+        <v>9493.437206577584</v>
       </c>
       <c r="L13" t="n">
-        <v>223587.799887719</v>
+        <v>399783.596611742</v>
       </c>
     </row>
     <row r="14">
@@ -975,22 +975,22 @@
         <v>53.40546386931685</v>
       </c>
       <c r="G14" t="n">
-        <v>55218.57906949856</v>
+        <v>61937.93815381615</v>
       </c>
       <c r="H14" t="n">
-        <v>1038690.222660229</v>
+        <v>1365111.002784366</v>
       </c>
       <c r="I14" t="n">
-        <v>17239169.78833095</v>
+        <v>25345341.92785921</v>
       </c>
       <c r="J14" t="n">
-        <v>54.10449827964489</v>
+        <v>61.27182993959153</v>
       </c>
       <c r="K14" t="n">
-        <v>5757.139895201875</v>
+        <v>9433.668815955789</v>
       </c>
       <c r="L14" t="n">
-        <v>217777.3755968498</v>
+        <v>390290.1594051645</v>
       </c>
     </row>
     <row r="15">
@@ -1013,22 +1013,22 @@
         <v>52.45994988007146</v>
       </c>
       <c r="G15" t="n">
-        <v>52535.01842505231</v>
+        <v>59494.43793334516</v>
       </c>
       <c r="H15" t="n">
-        <v>983471.6435907306</v>
+        <v>1303173.06463055</v>
       </c>
       <c r="I15" t="n">
-        <v>16200479.56567072</v>
+        <v>23980230.92507484</v>
       </c>
       <c r="J15" t="n">
-        <v>54.95873966087241</v>
+        <v>62.83768857084058</v>
       </c>
       <c r="K15" t="n">
-        <v>5703.035396922231</v>
+        <v>9372.396986016196</v>
       </c>
       <c r="L15" t="n">
-        <v>212020.2357016479</v>
+        <v>380856.4905892087</v>
       </c>
     </row>
     <row r="16">
@@ -1051,22 +1051,22 @@
         <v>51.51708763972916</v>
       </c>
       <c r="G16" t="n">
-        <v>49978.39214134132</v>
+        <v>57143.35263195334</v>
       </c>
       <c r="H16" t="n">
-        <v>930936.6251656783</v>
+        <v>1243678.626697205</v>
       </c>
       <c r="I16" t="n">
-        <v>15217007.92207999</v>
+        <v>22677057.86044429</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84659042470685</v>
+        <v>64.46679210255894</v>
       </c>
       <c r="K16" t="n">
-        <v>5648.076657261357</v>
+        <v>9309.559297445356</v>
       </c>
       <c r="L16" t="n">
-        <v>206317.2003047257</v>
+        <v>371484.0936031925</v>
       </c>
     </row>
     <row r="17">
@@ -1089,22 +1089,22 @@
         <v>50.57701555853745</v>
       </c>
       <c r="G17" t="n">
-        <v>47542.62211561465</v>
+        <v>54881.06458477566</v>
       </c>
       <c r="H17" t="n">
-        <v>880958.2330243371</v>
+        <v>1186535.274065252</v>
       </c>
       <c r="I17" t="n">
-        <v>14286071.29691431</v>
+        <v>21433379.23374708</v>
       </c>
       <c r="J17" t="n">
-        <v>56.76751032154039</v>
+        <v>66.15995542362661</v>
       </c>
       <c r="K17" t="n">
-        <v>5592.230066836652</v>
+        <v>9245.092505342796</v>
       </c>
       <c r="L17" t="n">
-        <v>200669.1236474643</v>
+        <v>362174.5343057471</v>
       </c>
     </row>
     <row r="18">
@@ -1127,22 +1127,22 @@
         <v>49.63987771661997</v>
       </c>
       <c r="G18" t="n">
-        <v>45221.92021883526</v>
+        <v>52704.0944530145</v>
       </c>
       <c r="H18" t="n">
-        <v>833415.6109087224</v>
+        <v>1131654.209480476</v>
       </c>
       <c r="I18" t="n">
-        <v>13405113.06388998</v>
+        <v>20246843.95968183</v>
       </c>
       <c r="J18" t="n">
-        <v>57.72094198894966</v>
+        <v>67.91797458915985</v>
       </c>
       <c r="K18" t="n">
-        <v>5535.462556515111</v>
+        <v>9178.932549919173</v>
       </c>
       <c r="L18" t="n">
-        <v>195076.8935806277</v>
+        <v>352929.4418004043</v>
       </c>
     </row>
     <row r="19">
@@ -1165,22 +1165,22 @@
         <v>48.70582398389137</v>
       </c>
       <c r="G19" t="n">
-        <v>43010.77450452083</v>
+        <v>50609.09592254017</v>
       </c>
       <c r="H19" t="n">
-        <v>788193.6906898872</v>
+        <v>1078950.115027462</v>
       </c>
       <c r="I19" t="n">
-        <v>12571697.45298126</v>
+        <v>19115189.75020136</v>
       </c>
       <c r="J19" t="n">
-        <v>58.70630430661134</v>
+        <v>69.74161776779331</v>
       </c>
       <c r="K19" t="n">
-        <v>5477.741614526161</v>
+        <v>9111.014575330009</v>
       </c>
       <c r="L19" t="n">
-        <v>189541.4310241126</v>
+        <v>343750.5092504851</v>
       </c>
     </row>
     <row r="20">
@@ -1203,22 +1203,22 @@
         <v>47.77501013180996</v>
       </c>
       <c r="G20" t="n">
-        <v>40903.93608095132</v>
+        <v>48592.8506154439</v>
       </c>
       <c r="H20" t="n">
-        <v>745182.9161853663</v>
+        <v>1028341.019104921</v>
       </c>
       <c r="I20" t="n">
-        <v>11783503.76229137</v>
+        <v>18036239.63517389</v>
       </c>
       <c r="J20" t="n">
-        <v>59.72298531506633</v>
+        <v>71.63161517679346</v>
       </c>
       <c r="K20" t="n">
-        <v>5419.03531021955</v>
+        <v>9041.272957562218</v>
       </c>
       <c r="L20" t="n">
-        <v>184063.6894095864</v>
+        <v>334639.4946751551</v>
       </c>
     </row>
     <row r="21">
@@ -1241,22 +1241,22 @@
         <v>46.84759793571111</v>
       </c>
       <c r="G21" t="n">
-        <v>38896.40661559095</v>
+        <v>46652.26320736542</v>
       </c>
       <c r="H21" t="n">
-        <v>704278.980104415</v>
+        <v>979748.1684894777</v>
       </c>
       <c r="I21" t="n">
-        <v>11038320.846106</v>
+        <v>17007898.61606897</v>
       </c>
       <c r="J21" t="n">
-        <v>60.77033465623719</v>
+        <v>73.58864790274964</v>
       </c>
       <c r="K21" t="n">
-        <v>5359.312324904484</v>
+        <v>8969.641342385425</v>
       </c>
       <c r="L21" t="n">
-        <v>178644.6540993668</v>
+        <v>325598.2217175929</v>
       </c>
     </row>
     <row r="22">
@@ -1279,22 +1279,22 @@
         <v>45.92375526638664</v>
       </c>
       <c r="G22" t="n">
-        <v>36983.42644209704</v>
+        <v>44784.35674379476</v>
       </c>
       <c r="H22" t="n">
-        <v>665382.5734888241</v>
+        <v>933095.9052821123</v>
       </c>
       <c r="I22" t="n">
-        <v>10334041.86600159</v>
+        <v>16028150.44757949</v>
       </c>
       <c r="J22" t="n">
-        <v>61.84765549142659</v>
+        <v>75.61333549724523</v>
       </c>
       <c r="K22" t="n">
-        <v>5298.541990248246</v>
+        <v>8896.052694482674</v>
       </c>
       <c r="L22" t="n">
-        <v>173285.3417744623</v>
+        <v>316628.5803752075</v>
       </c>
     </row>
     <row r="23">
@@ -1317,22 +1317,22 @@
         <v>45.00365616949839</v>
       </c>
       <c r="G23" t="n">
-        <v>35160.46324174386</v>
+        <v>42986.26814892079</v>
       </c>
       <c r="H23" t="n">
-        <v>628399.1470467269</v>
+        <v>888311.5485383176</v>
       </c>
       <c r="I23" t="n">
-        <v>9668659.292512763</v>
+        <v>15095054.54229738</v>
       </c>
       <c r="J23" t="n">
-        <v>62.95419585108905</v>
+        <v>77.70622222903515</v>
       </c>
       <c r="K23" t="n">
-        <v>5236.694334756819</v>
+        <v>8820.43935898543</v>
       </c>
       <c r="L23" t="n">
-        <v>167986.7997842141</v>
+        <v>307732.5276807248</v>
       </c>
     </row>
     <row r="24">
@@ -1355,22 +1355,22 @@
         <v>44.08748093133803</v>
       </c>
       <c r="G24" t="n">
-        <v>33423.20127247638</v>
+        <v>41255.24392096403</v>
       </c>
       <c r="H24" t="n">
-        <v>593238.683804983</v>
+        <v>845325.2803893967</v>
       </c>
       <c r="I24" t="n">
-        <v>9040260.145466037</v>
+        <v>14206742.99375906</v>
       </c>
       <c r="J24" t="n">
-        <v>64.08913936912944</v>
+        <v>79.86776186586435</v>
       </c>
       <c r="K24" t="n">
-        <v>5173.74013890573</v>
+        <v>8742.733136756395</v>
       </c>
       <c r="L24" t="n">
-        <v>162750.1054494573</v>
+        <v>298912.0883217394</v>
       </c>
     </row>
     <row r="25">
@@ -1393,22 +1393,22 @@
         <v>43.17541612937382</v>
       </c>
       <c r="G25" t="n">
-        <v>31767.53112013219</v>
+        <v>39588.63600829185</v>
       </c>
       <c r="H25" t="n">
-        <v>559815.4825325067</v>
+        <v>804070.0364684328</v>
       </c>
       <c r="I25" t="n">
-        <v>8447021.461661052</v>
+        <v>13361417.71336967</v>
       </c>
       <c r="J25" t="n">
-        <v>65.25159535323171</v>
+        <v>82.09830085062249</v>
       </c>
       <c r="K25" t="n">
-        <v>5109.650999536601</v>
+        <v>8662.865374890529</v>
       </c>
       <c r="L25" t="n">
-        <v>157576.3653105515</v>
+        <v>290169.355184983</v>
       </c>
     </row>
     <row r="26">
@@ -1431,22 +1431,22 @@
         <v>42.26765466595422</v>
       </c>
       <c r="G26" t="n">
-        <v>30189.5399476298</v>
+        <v>37983.89786096846</v>
       </c>
       <c r="H26" t="n">
-        <v>528047.9514123745</v>
+        <v>764481.4004601409</v>
       </c>
       <c r="I26" t="n">
-        <v>7887205.979128545</v>
+        <v>12557347.67690123</v>
       </c>
       <c r="J26" t="n">
-        <v>66.44058814205299</v>
+        <v>84.39805972843303</v>
       </c>
       <c r="K26" t="n">
-        <v>5044.39940418337</v>
+        <v>8580.767074039908</v>
       </c>
       <c r="L26" t="n">
-        <v>152466.7143110149</v>
+        <v>281506.4898100925</v>
       </c>
     </row>
     <row r="27">
@@ -1469,22 +1469,22 @@
         <v>41.3643957834749</v>
       </c>
       <c r="G27" t="n">
-        <v>28685.50221912442</v>
+        <v>36438.58065274124</v>
       </c>
       <c r="H27" t="n">
-        <v>497858.4114647447</v>
+        <v>726497.5025991724</v>
       </c>
       <c r="I27" t="n">
-        <v>7359158.027716171</v>
+        <v>11792866.27644109</v>
       </c>
       <c r="J27" t="n">
-        <v>67.65504569975879</v>
+        <v>86.76711267322919</v>
       </c>
       <c r="K27" t="n">
-        <v>4977.958816041317</v>
+        <v>8496.369014311473</v>
       </c>
       <c r="L27" t="n">
-        <v>147422.3149068316</v>
+        <v>272925.7227360526</v>
       </c>
     </row>
     <row r="28">
@@ -1507,22 +1507,22 @@
         <v>40.46584505925763</v>
       </c>
       <c r="G28" t="n">
-        <v>27251.87087727588</v>
+        <v>34950.32966880873</v>
       </c>
       <c r="H28" t="n">
-        <v>469172.9092456203</v>
+        <v>690058.9219464313</v>
       </c>
       <c r="I28" t="n">
-        <v>6861299.616251427</v>
+        <v>11066368.77384192</v>
       </c>
       <c r="J28" t="n">
-        <v>68.89378739880681</v>
+        <v>89.20536495502421</v>
       </c>
       <c r="K28" t="n">
-        <v>4910.303770341558</v>
+        <v>8409.601901638245</v>
       </c>
       <c r="L28" t="n">
-        <v>142444.3560907902</v>
+        <v>264429.3537217411</v>
       </c>
     </row>
     <row r="29">
@@ -1545,22 +1545,22 @@
         <v>39.57221437833791</v>
       </c>
       <c r="G29" t="n">
-        <v>25885.26895286393</v>
+        <v>33516.88085505336</v>
       </c>
       <c r="H29" t="n">
-        <v>441921.0383683444</v>
+        <v>655108.5922776225</v>
       </c>
       <c r="I29" t="n">
-        <v>6392126.707005806</v>
+        <v>10376309.85189549</v>
       </c>
       <c r="J29" t="n">
-        <v>70.15551094312171</v>
+        <v>91.71252818254203</v>
       </c>
       <c r="K29" t="n">
-        <v>4841.409982942751</v>
+        <v>8320.39653668322</v>
       </c>
       <c r="L29" t="n">
-        <v>137534.0523204487</v>
+        <v>256019.7518201028</v>
       </c>
     </row>
     <row r="30">
@@ -1583,22 +1583,22 @@
         <v>38.68372188231744</v>
       </c>
       <c r="G30" t="n">
-        <v>24582.48158702253</v>
+        <v>32136.05752475338</v>
       </c>
       <c r="H30" t="n">
-        <v>416035.7694154806</v>
+        <v>621591.7114225691</v>
       </c>
       <c r="I30" t="n">
-        <v>5950205.668637461</v>
+        <v>9721201.259617867</v>
       </c>
       <c r="J30" t="n">
-        <v>71.43877838611468</v>
+        <v>94.28809315059651</v>
       </c>
       <c r="K30" t="n">
-        <v>4771.254471999629</v>
+        <v>8228.684008500679</v>
       </c>
       <c r="L30" t="n">
-        <v>132692.642337506</v>
+        <v>247699.3552834197</v>
       </c>
     </row>
     <row r="31">
@@ -1621,22 +1621,22 @@
         <v>37.80059189240577</v>
       </c>
       <c r="G31" t="n">
-        <v>23340.44844734963</v>
+        <v>30805.76721911227</v>
       </c>
       <c r="H31" t="n">
-        <v>391453.287828458</v>
+        <v>589455.6538978157</v>
       </c>
       <c r="I31" t="n">
-        <v>5534169.899221981</v>
+        <v>9099609.548195297</v>
       </c>
       <c r="J31" t="n">
-        <v>72.74200120152376</v>
+        <v>96.931300117899</v>
       </c>
       <c r="K31" t="n">
-        <v>4699.815693613515</v>
+        <v>8134.395915350082</v>
       </c>
       <c r="L31" t="n">
-        <v>127921.3878655063</v>
+        <v>239470.6712749189</v>
       </c>
     </row>
     <row r="32">
@@ -1659,22 +1659,22 @@
         <v>36.9230548047572</v>
       </c>
       <c r="G32" t="n">
-        <v>22156.25652008383</v>
+        <v>29523.99871825928</v>
       </c>
       <c r="H32" t="n">
-        <v>368112.8393811084</v>
+        <v>558649.8866787036</v>
       </c>
       <c r="I32" t="n">
-        <v>5142716.611393522</v>
+        <v>8510153.894297484</v>
       </c>
       <c r="J32" t="n">
-        <v>74.06342437031718</v>
+        <v>99.64110633971977</v>
       </c>
       <c r="K32" t="n">
-        <v>4627.07369241199</v>
+        <v>8037.464615232183</v>
       </c>
       <c r="L32" t="n">
-        <v>123221.5721718928</v>
+        <v>231336.2753595689</v>
       </c>
     </row>
     <row r="33">
@@ -1697,22 +1697,22 @@
         <v>36.05134695620406</v>
       </c>
       <c r="G33" t="n">
-        <v>21027.13326142381</v>
+        <v>28288.81919967882</v>
       </c>
       <c r="H33" t="n">
-        <v>345956.5828610246</v>
+        <v>529125.8879604442</v>
       </c>
       <c r="I33" t="n">
-        <v>4774603.772012414</v>
+        <v>7951504.007618779</v>
       </c>
       <c r="J33" t="n">
-        <v>75.40110945379806</v>
+        <v>102.4161506811036</v>
       </c>
       <c r="K33" t="n">
-        <v>4553.010268041673</v>
+        <v>7937.823508892463</v>
       </c>
       <c r="L33" t="n">
-        <v>118594.4984794808</v>
+        <v>223298.8107443367</v>
       </c>
     </row>
     <row r="34">
@@ -1735,22 +1735,22 @@
         <v>35.18571045849907</v>
       </c>
       <c r="G34" t="n">
-        <v>19950.44009190221</v>
+        <v>27098.37154131776</v>
       </c>
       <c r="H34" t="n">
-        <v>324929.4495996007</v>
+        <v>500837.0687607654</v>
       </c>
       <c r="I34" t="n">
-        <v>4428647.18915139</v>
+        <v>7422378.119658334</v>
       </c>
       <c r="J34" t="n">
-        <v>76.75291663256256</v>
+        <v>105.2547151417342</v>
       </c>
       <c r="K34" t="n">
-        <v>4477.609158587875</v>
+        <v>7835.40735821136</v>
       </c>
       <c r="L34" t="n">
-        <v>114041.4882114392</v>
+        <v>215360.9872354442</v>
       </c>
     </row>
     <row r="35">
@@ -1773,22 +1773,22 @@
         <v>34.32639299920876</v>
       </c>
       <c r="G35" t="n">
-        <v>18923.6662185124</v>
+        <v>25950.87176689457</v>
       </c>
       <c r="H35" t="n">
-        <v>304979.0095076986</v>
+        <v>473738.6972194476</v>
       </c>
       <c r="I35" t="n">
-        <v>4103717.739551789</v>
+        <v>6921541.050897568</v>
       </c>
       <c r="J35" t="n">
-        <v>78.11648570293771</v>
+        <v>108.1546831332174</v>
       </c>
       <c r="K35" t="n">
-        <v>4400.856241955313</v>
+        <v>7730.152643069626</v>
       </c>
       <c r="L35" t="n">
-        <v>109563.8790528513</v>
+        <v>207525.5798772329</v>
       </c>
     </row>
     <row r="36">
@@ -1811,22 +1811,22 @@
         <v>33.47364760744942</v>
       </c>
       <c r="G36" t="n">
-        <v>17944.42277002316</v>
+        <v>24844.60663118848</v>
       </c>
       <c r="H36" t="n">
-        <v>286055.3432891861</v>
+        <v>447787.8254525531</v>
       </c>
       <c r="I36" t="n">
-        <v>3798738.73004409</v>
+        <v>6447802.353678122</v>
       </c>
       <c r="J36" t="n">
-        <v>79.48921603781611</v>
+        <v>111.1134943650752</v>
       </c>
       <c r="K36" t="n">
-        <v>4322.739756252375</v>
+        <v>7621.997959936408</v>
       </c>
       <c r="L36" t="n">
-        <v>105163.022810896</v>
+        <v>199795.4272341632</v>
       </c>
     </row>
     <row r="37">
@@ -1849,22 +1849,22 @@
         <v>32.62773238272808</v>
       </c>
       <c r="G37" t="n">
-        <v>17010.43723160328</v>
+        <v>23777.93134331615</v>
       </c>
       <c r="H37" t="n">
-        <v>268110.920519163</v>
+        <v>422943.2188213646</v>
       </c>
       <c r="I37" t="n">
-        <v>3512683.386754904</v>
+        <v>6000014.528225569</v>
       </c>
       <c r="J37" t="n">
-        <v>80.86824553787471</v>
+        <v>114.1280962182771</v>
       </c>
       <c r="K37" t="n">
-        <v>4243.250540214559</v>
+        <v>7510.884465571333</v>
       </c>
       <c r="L37" t="n">
-        <v>100840.2830546436</v>
+        <v>192173.4292742269</v>
       </c>
     </row>
     <row r="38">
@@ -1887,22 +1887,22 @@
         <v>31.78891018524615</v>
       </c>
       <c r="G38" t="n">
-        <v>16119.54816551287</v>
+        <v>22749.2674262011</v>
       </c>
       <c r="H38" t="n">
-        <v>251100.4832875597</v>
+        <v>399165.2874780484</v>
       </c>
       <c r="I38" t="n">
-        <v>3244572.466235741</v>
+        <v>5577071.309404204</v>
       </c>
       <c r="J38" t="n">
-        <v>82.25042862264644</v>
+        <v>117.1948915161834</v>
       </c>
       <c r="K38" t="n">
-        <v>4162.382294676684</v>
+        <v>7396.756369353056</v>
       </c>
       <c r="L38" t="n">
-        <v>96597.03251442903</v>
+        <v>184662.5448086555</v>
       </c>
     </row>
     <row r="39">
@@ -1925,22 +1925,22 @@
         <v>30.95744828614454</v>
       </c>
       <c r="G39" t="n">
-        <v>15269.70020519913</v>
+        <v>21757.10071060026</v>
       </c>
       <c r="H39" t="n">
-        <v>234980.9351220469</v>
+        <v>376416.0200518473</v>
       </c>
       <c r="I39" t="n">
-        <v>2993471.982948182</v>
+        <v>5177906.021926155</v>
       </c>
       <c r="J39" t="n">
-        <v>83.63231333941512</v>
+        <v>120.3096826439148</v>
       </c>
       <c r="K39" t="n">
-        <v>4080.131866054038</v>
+        <v>7279.561477836873</v>
       </c>
       <c r="L39" t="n">
-        <v>92434.65021975232</v>
+        <v>177265.7884393025</v>
       </c>
     </row>
     <row r="40">
@@ -1963,22 +1963,22 @@
         <v>30.13361797631731</v>
       </c>
       <c r="G40" t="n">
-        <v>14458.93931065976</v>
+        <v>20799.97946216402</v>
       </c>
       <c r="H40" t="n">
-        <v>219711.2349168477</v>
+        <v>354658.9193412471</v>
       </c>
       <c r="I40" t="n">
-        <v>2758491.047826135</v>
+        <v>4801490.001874308</v>
       </c>
       <c r="J40" t="n">
-        <v>85.01011770242815</v>
+        <v>123.4676120207015</v>
       </c>
       <c r="K40" t="n">
-        <v>3996.499552714623</v>
+        <v>7159.251795192958</v>
       </c>
       <c r="L40" t="n">
-        <v>88354.51835369829</v>
+        <v>169986.2269614656</v>
       </c>
     </row>
     <row r="41">
@@ -2001,22 +2001,22 @@
         <v>29.31769413259914</v>
       </c>
       <c r="G41" t="n">
-        <v>13685.4082734021</v>
+        <v>19876.51264006009</v>
       </c>
       <c r="H41" t="n">
-        <v>205252.2956061879</v>
+        <v>333858.939879083</v>
       </c>
       <c r="I41" t="n">
-        <v>2538779.812909287</v>
+        <v>4446831.082533062</v>
       </c>
       <c r="J41" t="n">
-        <v>86.37970541594881</v>
+        <v>126.6630989974066</v>
       </c>
       <c r="K41" t="n">
-        <v>3911.489435012195</v>
+        <v>7035.784183172256</v>
       </c>
       <c r="L41" t="n">
-        <v>84358.01880098367</v>
+        <v>162826.9751662726</v>
       </c>
     </row>
     <row r="42">
@@ -2039,22 +2039,22 @@
         <v>28.50995474034033</v>
       </c>
       <c r="G42" t="n">
-        <v>12947.34245972891</v>
+        <v>18985.36828567576</v>
       </c>
       <c r="H42" t="n">
-        <v>191566.8873327858</v>
+        <v>313982.4272390229</v>
       </c>
       <c r="I42" t="n">
-        <v>2333527.517303099</v>
+        <v>4112972.142653978</v>
       </c>
       <c r="J42" t="n">
-        <v>87.73656118344815</v>
+        <v>129.8897733361592</v>
       </c>
       <c r="K42" t="n">
-        <v>3825.109729596246</v>
+        <v>6909.121084174851</v>
       </c>
       <c r="L42" t="n">
-        <v>80446.52936597148</v>
+        <v>155791.1909831004</v>
       </c>
     </row>
     <row r="43">
@@ -2077,22 +2077,22 @@
         <v>27.71068037162395</v>
       </c>
       <c r="G43" t="n">
-        <v>12243.06578141551</v>
+        <v>18125.2720398136</v>
       </c>
       <c r="H43" t="n">
-        <v>178619.5448730569</v>
+        <v>294997.0589533472</v>
       </c>
       <c r="I43" t="n">
-        <v>2141960.629970314</v>
+        <v>3798989.715414955</v>
       </c>
       <c r="J43" t="n">
-        <v>89.0757658624652</v>
+        <v>133.1404055332724</v>
       </c>
       <c r="K43" t="n">
-        <v>3737.373168412798</v>
+        <v>6779.231310838691</v>
       </c>
       <c r="L43" t="n">
-        <v>76621.41963637523</v>
+        <v>148882.0698989255</v>
       </c>
     </row>
     <row r="44">
@@ -2115,22 +2115,22 @@
         <v>26.92015361865358</v>
       </c>
       <c r="G44" t="n">
-        <v>11570.98688310469</v>
+        <v>17295.00578659519</v>
       </c>
       <c r="H44" t="n">
-        <v>166376.4790916414</v>
+        <v>276871.7869135336</v>
       </c>
       <c r="I44" t="n">
-        <v>1963341.085097257</v>
+        <v>3503992.656461608</v>
       </c>
       <c r="J44" t="n">
-        <v>90.39197179131797</v>
+        <v>136.40683437338</v>
       </c>
       <c r="K44" t="n">
-        <v>3648.297402550333</v>
+        <v>6646.090905305418</v>
       </c>
       <c r="L44" t="n">
-        <v>72884.04646796244</v>
+        <v>142102.8385880868</v>
       </c>
     </row>
     <row r="45">
@@ -2153,22 +2153,22 @@
         <v>26.13865848214731</v>
       </c>
       <c r="G45" t="n">
-        <v>10929.59553592744</v>
+        <v>16493.40642196815</v>
       </c>
       <c r="H45" t="n">
-        <v>154805.4922085367</v>
+        <v>259576.7811269384</v>
       </c>
       <c r="I45" t="n">
-        <v>1796964.606005615</v>
+        <v>3227120.869548074</v>
       </c>
       <c r="J45" t="n">
-        <v>91.67937869100888</v>
+        <v>139.6798922553973</v>
       </c>
       <c r="K45" t="n">
-        <v>3557.905430759015</v>
+        <v>6509.684070932039</v>
       </c>
       <c r="L45" t="n">
-        <v>69235.74906541211</v>
+        <v>135456.7476827814</v>
       </c>
     </row>
     <row r="46">
@@ -2191,22 +2191,22 @@
         <v>25.36647971491492</v>
       </c>
       <c r="G46" t="n">
-        <v>10317.45922695417</v>
+        <v>15719.36474425244</v>
       </c>
       <c r="H46" t="n">
-        <v>143875.8966726093</v>
+        <v>243083.3747049702</v>
       </c>
       <c r="I46" t="n">
-        <v>1642159.113797078</v>
+        <v>2967544.088421136</v>
       </c>
       <c r="J46" t="n">
-        <v>92.93171063402698</v>
+        <v>142.9493290125532</v>
       </c>
       <c r="K46" t="n">
-        <v>3466.226052068006</v>
+        <v>6370.004178676641</v>
       </c>
       <c r="L46" t="n">
-        <v>65677.84363465308</v>
+        <v>128947.0636118494</v>
       </c>
     </row>
     <row r="47">
@@ -2229,22 +2229,22 @@
         <v>24.6039021211693</v>
       </c>
       <c r="G47" t="n">
-        <v>9733.219934084227</v>
+        <v>14971.82446353787</v>
       </c>
       <c r="H47" t="n">
-        <v>133558.4374456551</v>
+        <v>227364.0099607178</v>
       </c>
       <c r="I47" t="n">
-        <v>1498283.217124469</v>
+        <v>2724460.713716165</v>
       </c>
       <c r="J47" t="n">
-        <v>94.14219467227532</v>
+        <v>146.2037351630657</v>
       </c>
       <c r="K47" t="n">
-        <v>3373.294341433979</v>
+        <v>6227.054849664088</v>
       </c>
       <c r="L47" t="n">
-        <v>62211.61758258509</v>
+        <v>122577.0594331727</v>
       </c>
     </row>
     <row r="48">
@@ -2267,22 +2267,22 @@
         <v>23.85120981253063</v>
       </c>
       <c r="G48" t="n">
-        <v>9175.591075884131</v>
+        <v>14249.78132593104</v>
       </c>
       <c r="H48" t="n">
-        <v>123825.2175115709</v>
+        <v>212392.1854971799</v>
       </c>
       <c r="I48" t="n">
-        <v>1364724.779678814</v>
+        <v>2497096.703755448</v>
       </c>
       <c r="J48" t="n">
-        <v>95.30354182944598</v>
+        <v>149.4304657781052</v>
       </c>
       <c r="K48" t="n">
-        <v>3279.152146761704</v>
+        <v>6080.851114501022</v>
       </c>
       <c r="L48" t="n">
-        <v>58838.3232411511</v>
+        <v>116350.0045835086</v>
       </c>
     </row>
     <row r="49">
@@ -2305,22 +2305,22 @@
         <v>23.10868542211918</v>
       </c>
       <c r="G49" t="n">
-        <v>8643.354625679251</v>
+        <v>13552.28234761712</v>
       </c>
       <c r="H49" t="n">
-        <v>114649.6264356867</v>
+        <v>198142.4041712488</v>
       </c>
       <c r="I49" t="n">
-        <v>1240899.562167243</v>
+        <v>2284704.518258268</v>
       </c>
       <c r="J49" t="n">
-        <v>96.4079312893201</v>
+        <v>152.6155664429188</v>
       </c>
       <c r="K49" t="n">
-        <v>3183.848604932257</v>
+        <v>5931.420648722917</v>
       </c>
       <c r="L49" t="n">
-        <v>55559.17109438941</v>
+        <v>110269.1534690076</v>
       </c>
     </row>
     <row r="50">
@@ -2343,22 +2343,22 @@
         <v>22.37660927859926</v>
       </c>
       <c r="G50" t="n">
-        <v>8135.358378881394</v>
+        <v>12878.42515241969</v>
       </c>
       <c r="H50" t="n">
-        <v>106006.2718100075</v>
+        <v>184590.1218236317</v>
       </c>
       <c r="I50" t="n">
-        <v>1126249.935731556</v>
+        <v>2086562.114087019</v>
       </c>
       <c r="J50" t="n">
-        <v>97.44699875038228</v>
+        <v>155.7437031177247</v>
       </c>
       <c r="K50" t="n">
-        <v>3087.440673642937</v>
+        <v>5778.805082279998</v>
       </c>
       <c r="L50" t="n">
-        <v>52375.32248945715</v>
+        <v>104337.7328202847</v>
       </c>
     </row>
     <row r="51">
@@ -2381,22 +2381,22 @@
         <v>21.65525854252947</v>
       </c>
       <c r="G51" t="n">
-        <v>7650.51336208904</v>
+        <v>12227.35740497813</v>
       </c>
       <c r="H51" t="n">
-        <v>97870.91343112612</v>
+        <v>171711.6966712121</v>
       </c>
       <c r="I51" t="n">
-        <v>1020243.663921549</v>
+        <v>1901971.992263387</v>
       </c>
       <c r="J51" t="n">
-        <v>98.41183006826952</v>
+        <v>158.7980980792534</v>
       </c>
       <c r="K51" t="n">
-        <v>2989.993674892555</v>
+        <v>5623.061379162273</v>
       </c>
       <c r="L51" t="n">
-        <v>49287.88181581421</v>
+        <v>98558.92773800468</v>
       </c>
     </row>
     <row r="52">
@@ -2419,22 +2419,22 @@
         <v>20.94490630788763</v>
       </c>
       <c r="G52" t="n">
-        <v>7187.791371921291</v>
+        <v>11598.27632978434</v>
       </c>
       <c r="H52" t="n">
-        <v>90220.40006903707</v>
+        <v>159484.3392662339</v>
       </c>
       <c r="I52" t="n">
-        <v>922372.7504904227</v>
+        <v>1730260.295592175</v>
       </c>
       <c r="J52" t="n">
-        <v>99.29296146944188</v>
+        <v>161.7604745421819</v>
       </c>
       <c r="K52" t="n">
-        <v>2891.581844824285</v>
+        <v>5464.263281083019</v>
       </c>
       <c r="L52" t="n">
-        <v>46297.88814092166</v>
+        <v>92935.86635884242</v>
       </c>
     </row>
     <row r="53">
@@ -2457,22 +2457,22 @@
         <v>20.24582067217148</v>
       </c>
       <c r="G53" t="n">
-        <v>6746.222630836551</v>
+        <v>10990.4283040966</v>
       </c>
       <c r="H53" t="n">
-        <v>83032.60869711578</v>
+        <v>147886.0629364496</v>
       </c>
       <c r="I53" t="n">
-        <v>832152.3504213857</v>
+        <v>1570775.956325941</v>
       </c>
       <c r="J53" t="n">
-        <v>100.0803877895225</v>
+        <v>164.6110130208562</v>
       </c>
       <c r="K53" t="n">
-        <v>2792.288883354844</v>
+        <v>5302.502806540837</v>
       </c>
       <c r="L53" t="n">
-        <v>43406.30629609738</v>
+        <v>87471.60307775941</v>
       </c>
     </row>
     <row r="54">
@@ -2495,22 +2495,22 @@
         <v>19.55826377901818</v>
       </c>
       <c r="G54" t="n">
-        <v>6324.893546340525</v>
+        <v>10403.10851014896</v>
       </c>
       <c r="H54" t="n">
-        <v>76286.38606627923</v>
+        <v>136895.634632353</v>
       </c>
       <c r="I54" t="n">
-        <v>749119.7417242699</v>
+        <v>1422889.893389492</v>
       </c>
       <c r="J54" t="n">
-        <v>100.7635803645887</v>
+        <v>167.3283229925412</v>
       </c>
       <c r="K54" t="n">
-        <v>2692.208495565321</v>
+        <v>5137.891793519982</v>
       </c>
       <c r="L54" t="n">
-        <v>40614.01741274253</v>
+        <v>82169.10027121857</v>
       </c>
     </row>
     <row r="55">
@@ -2533,22 +2533,22 @@
         <v>18.88249083783577</v>
       </c>
       <c r="G55" t="n">
-        <v>5922.94455900734</v>
+        <v>9835.66062907376</v>
       </c>
       <c r="H55" t="n">
-        <v>69961.49251993871</v>
+        <v>126492.526122204</v>
       </c>
       <c r="I55" t="n">
-        <v>672833.3556579908</v>
+        <v>1285994.258757139</v>
       </c>
       <c r="J55" t="n">
-        <v>101.3315163777455</v>
+        <v>169.8894339568365</v>
       </c>
       <c r="K55" t="n">
-        <v>2591.444915200732</v>
+        <v>4970.563470527441</v>
       </c>
       <c r="L55" t="n">
-        <v>37921.80891717721</v>
+        <v>77031.20847769859</v>
       </c>
     </row>
     <row r="56">
@@ -2571,22 +2571,22 @@
         <v>18.21874912548601</v>
       </c>
       <c r="G56" t="n">
-        <v>5539.568063629245</v>
+        <v>9287.476555537163</v>
       </c>
       <c r="H56" t="n">
-        <v>64038.54796093136</v>
+        <v>116656.8654931303</v>
       </c>
       <c r="I56" t="n">
-        <v>602871.8631380521</v>
+        <v>1159501.732634935</v>
       </c>
       <c r="J56" t="n">
-        <v>101.7727216296647</v>
+        <v>172.2698105414786</v>
       </c>
       <c r="K56" t="n">
-        <v>2490.113398822987</v>
+        <v>4800.674036570604</v>
       </c>
       <c r="L56" t="n">
-        <v>35330.36400197647</v>
+        <v>72060.64500717114</v>
       </c>
     </row>
     <row r="57">
@@ -2609,22 +2609,22 @@
         <v>17.56727697559616</v>
       </c>
       <c r="G57" t="n">
-        <v>5174.006386588664</v>
+        <v>8757.996108244255</v>
       </c>
       <c r="H57" t="n">
-        <v>58498.97989730211</v>
+        <v>107369.3889375931</v>
       </c>
       <c r="I57" t="n">
-        <v>538833.3151771207</v>
+        <v>1042844.867141804</v>
       </c>
       <c r="J57" t="n">
-        <v>102.0753288509655</v>
+        <v>174.4433968666528</v>
       </c>
       <c r="K57" t="n">
-        <v>2388.340677193322</v>
+        <v>4628.404226029125</v>
       </c>
       <c r="L57" t="n">
-        <v>32840.25060315349</v>
+        <v>67259.97097060054</v>
       </c>
     </row>
     <row r="58">
@@ -2647,22 +2647,22 @@
         <v>16.92830276159658</v>
       </c>
       <c r="G58" t="n">
-        <v>4825.549801233476</v>
+        <v>8246.70670721436</v>
       </c>
       <c r="H58" t="n">
-        <v>53324.97351071345</v>
+        <v>98611.39282934886</v>
       </c>
       <c r="I58" t="n">
-        <v>480334.3352798186</v>
+        <v>935475.4782042113</v>
       </c>
       <c r="J58" t="n">
-        <v>102.2271537941826</v>
+        <v>176.3826959258431</v>
       </c>
       <c r="K58" t="n">
-        <v>2286.265348342356</v>
+        <v>4453.960829162473</v>
       </c>
       <c r="L58" t="n">
-        <v>30451.90992596016</v>
+        <v>62631.56674457141</v>
       </c>
     </row>
     <row r="59">
@@ -2685,22 +2685,22 @@
         <v>16.30204388007246</v>
       </c>
       <c r="G59" t="n">
-        <v>4493.53456166627</v>
+        <v>7753.142984087963</v>
       </c>
       <c r="H59" t="n">
-        <v>48499.42370947998</v>
+        <v>90364.6861221345</v>
       </c>
       <c r="I59" t="n">
-        <v>427009.3617691051</v>
+        <v>836864.0853748624</v>
       </c>
       <c r="J59" t="n">
-        <v>102.2157914186338</v>
+        <v>178.0588902416696</v>
       </c>
       <c r="K59" t="n">
-        <v>2184.038194548174</v>
+        <v>4277.57813323663</v>
       </c>
       <c r="L59" t="n">
-        <v>28165.64457761781</v>
+        <v>58177.60591540895</v>
       </c>
     </row>
     <row r="60">
@@ -2723,22 +2723,22 @@
         <v>15.68870574147229</v>
       </c>
       <c r="G60" t="n">
-        <v>4177.340933977814</v>
+        <v>7276.886286765987</v>
       </c>
       <c r="H60" t="n">
-        <v>44005.8891478137</v>
+        <v>82611.54313804652</v>
       </c>
       <c r="I60" t="n">
-        <v>378509.9380596252</v>
+        <v>746499.3992527281</v>
       </c>
       <c r="J60" t="n">
-        <v>102.0287344942458</v>
+        <v>179.4420104713943</v>
       </c>
       <c r="K60" t="n">
-        <v>2081.82240312954</v>
+        <v>4099.51924299496</v>
       </c>
       <c r="L60" t="n">
-        <v>25981.60638306963</v>
+        <v>53900.02778217231</v>
       </c>
     </row>
     <row r="61">
@@ -2761,22 +2761,22 @@
         <v>15.08848077562196</v>
       </c>
       <c r="G61" t="n">
-        <v>3876.391202627482</v>
+        <v>6817.5640344959</v>
       </c>
       <c r="H61" t="n">
-        <v>39828.54821383589</v>
+        <v>75334.65685128054</v>
       </c>
       <c r="I61" t="n">
-        <v>334504.0489118114</v>
+        <v>663887.8561146815</v>
       </c>
       <c r="J61" t="n">
-        <v>101.653516878276</v>
+        <v>180.5011589200519</v>
       </c>
       <c r="K61" t="n">
-        <v>1979.793668635295</v>
+        <v>3920.077232523566</v>
       </c>
       <c r="L61" t="n">
-        <v>23899.78397994009</v>
+        <v>49800.50853917735</v>
       </c>
     </row>
     <row r="62">
@@ -2799,22 +2799,22 @@
         <v>14.50154745984086</v>
       </c>
       <c r="G62" t="n">
-        <v>3590.14762848123</v>
+        <v>6374.848874249083</v>
       </c>
       <c r="H62" t="n">
-        <v>35952.15701120841</v>
+        <v>68517.09281678464</v>
       </c>
       <c r="I62" t="n">
-        <v>294675.5006979756</v>
+        <v>588553.1992634009</v>
       </c>
       <c r="J62" t="n">
-        <v>101.0778835361697</v>
+        <v>181.2047950094832</v>
       </c>
       <c r="K62" t="n">
-        <v>1878.140151757018</v>
+        <v>3739.576073603514</v>
       </c>
       <c r="L62" t="n">
-        <v>21919.99031130479</v>
+        <v>45880.43130665379</v>
       </c>
     </row>
     <row r="63">
@@ -2837,22 +2837,22 @@
         <v>13.92806937773566</v>
       </c>
       <c r="G63" t="n">
-        <v>3318.110334065002</v>
+        <v>5948.457584076173</v>
       </c>
       <c r="H63" t="n">
-        <v>32362.00938272718</v>
+        <v>62142.24394253557</v>
       </c>
       <c r="I63" t="n">
-        <v>258723.3436867671</v>
+        <v>520036.1064466163</v>
       </c>
       <c r="J63" t="n">
-        <v>100.2899890553112</v>
+        <v>181.5210895769714</v>
       </c>
       <c r="K63" t="n">
-        <v>1777.062268220849</v>
+        <v>3558.371278594031</v>
       </c>
       <c r="L63" t="n">
-        <v>20041.85015954778</v>
+        <v>42140.85523305027</v>
       </c>
     </row>
     <row r="64">
@@ -2875,22 +2875,22 @@
         <v>13.36819431694695</v>
       </c>
       <c r="G64" t="n">
-        <v>3059.815091006595</v>
+        <v>5538.149664342425</v>
       </c>
       <c r="H64" t="n">
-        <v>29043.89904866217</v>
+        <v>56193.78635845939</v>
       </c>
       <c r="I64" t="n">
-        <v>226361.33430404</v>
+        <v>457893.8625040808</v>
       </c>
       <c r="J64" t="n">
-        <v>99.27862590597229</v>
+        <v>181.4183543536685</v>
       </c>
       <c r="K64" t="n">
-        <v>1676.772279165538</v>
+        <v>3376.850189017059</v>
       </c>
       <c r="L64" t="n">
-        <v>18264.78789132693</v>
+        <v>38582.48395445625</v>
       </c>
     </row>
     <row r="65">
@@ -2913,22 +2913,22 @@
         <v>12.82205341423472</v>
       </c>
       <c r="G65" t="n">
-        <v>2814.830984576499</v>
+        <v>5143.725553667894</v>
       </c>
       <c r="H65" t="n">
-        <v>25984.08395765558</v>
+        <v>50655.63669411696</v>
       </c>
       <c r="I65" t="n">
-        <v>197317.4352553778</v>
+        <v>401700.0761456214</v>
       </c>
       <c r="J65" t="n">
-        <v>98.03348300324693</v>
+        <v>180.865552005532</v>
       </c>
       <c r="K65" t="n">
-        <v>1577.493653259565</v>
+        <v>3195.431834663391</v>
       </c>
       <c r="L65" t="n">
-        <v>16588.01561216139</v>
+        <v>35205.63376543918</v>
       </c>
     </row>
     <row r="66">
@@ -2951,22 +2951,22 @@
         <v>12.28976035630122</v>
       </c>
       <c r="G66" t="n">
-        <v>2582.757930879133</v>
+        <v>4765.024403444365</v>
       </c>
       <c r="H66" t="n">
-        <v>23169.25297307908</v>
+        <v>45511.91114044907</v>
       </c>
       <c r="I66" t="n">
-        <v>171333.3512977222</v>
+        <v>351044.4394515044</v>
       </c>
       <c r="J66" t="n">
-        <v>96.54543418279911</v>
+        <v>179.8328906040973</v>
       </c>
       <c r="K66" t="n">
-        <v>1479.460170256318</v>
+        <v>3014.566282657859</v>
       </c>
       <c r="L66" t="n">
-        <v>15010.52195890183</v>
+        <v>32010.20193077579</v>
       </c>
     </row>
     <row r="67">
@@ -2989,22 +2989,22 @@
         <v>11.77141064465656</v>
       </c>
       <c r="G67" t="n">
-        <v>2363.224023797327</v>
+        <v>4401.921343477023</v>
       </c>
       <c r="H67" t="n">
-        <v>20586.49504219995</v>
+        <v>40746.88673700471</v>
       </c>
       <c r="I67" t="n">
-        <v>148164.0983246431</v>
+        <v>305532.5283110553</v>
       </c>
       <c r="J67" t="n">
-        <v>94.80685498965046</v>
+        <v>178.2925042224816</v>
       </c>
       <c r="K67" t="n">
-        <v>1382.914736073519</v>
+        <v>2834.733392053762</v>
       </c>
       <c r="L67" t="n">
-        <v>13531.06178864551</v>
+        <v>28995.63564811793</v>
       </c>
     </row>
     <row r="68">
@@ -3027,22 +3027,22 @@
         <v>11.26708093262626</v>
       </c>
       <c r="G68" t="n">
-        <v>2155.882691483995</v>
+        <v>4054.324172197732</v>
       </c>
       <c r="H68" t="n">
-        <v>18223.27101840262</v>
+        <v>36344.96539352768</v>
       </c>
       <c r="I68" t="n">
-        <v>127577.6032824432</v>
+        <v>264785.6415740506</v>
       </c>
       <c r="J68" t="n">
-        <v>92.81196466651589</v>
+        <v>176.2192184168744</v>
       </c>
       <c r="K68" t="n">
-        <v>1288.107881083869</v>
+        <v>2656.44088783128</v>
       </c>
       <c r="L68" t="n">
-        <v>12148.14705257199</v>
+        <v>26160.90225606418</v>
       </c>
     </row>
     <row r="69">
@@ -3065,22 +3065,22 @@
         <v>10.77682844227633</v>
       </c>
       <c r="G69" t="n">
-        <v>1960.409646270621</v>
+        <v>3722.169408696329</v>
       </c>
       <c r="H69" t="n">
-        <v>16067.38832691863</v>
+        <v>32290.64122132995</v>
       </c>
       <c r="I69" t="n">
-        <v>109354.3322640406</v>
+        <v>228440.6761805229</v>
       </c>
       <c r="J69" t="n">
-        <v>90.55718840000205</v>
+        <v>173.59139556001</v>
       </c>
       <c r="K69" t="n">
-        <v>1195.295916417353</v>
+        <v>2480.221669414405</v>
       </c>
       <c r="L69" t="n">
-        <v>10860.03917148812</v>
+        <v>23504.46136823289</v>
       </c>
     </row>
     <row r="70">
@@ -3103,22 +3103,22 @@
         <v>10.30069046858717</v>
       </c>
       <c r="G70" t="n">
-        <v>1776.499617572018</v>
+        <v>3405.417651263384</v>
       </c>
       <c r="H70" t="n">
-        <v>14106.978680648</v>
+        <v>28568.47181263362</v>
       </c>
       <c r="I70" t="n">
-        <v>93286.94393712192</v>
+        <v>196150.034959193</v>
       </c>
       <c r="J70" t="n">
-        <v>88.0415327390636</v>
+        <v>170.3918502699239</v>
       </c>
       <c r="K70" t="n">
-        <v>1104.738728017351</v>
+        <v>2306.630273854395</v>
       </c>
       <c r="L70" t="n">
-        <v>9664.743255070767</v>
+        <v>21024.23969881849</v>
       </c>
     </row>
     <row r="71">
@@ -3141,22 +3141,22 @@
         <v>9.838683977641454</v>
       </c>
       <c r="G71" t="n">
-        <v>1603.862864948573</v>
+        <v>3104.04819902179</v>
       </c>
       <c r="H71" t="n">
-        <v>12330.47906307599</v>
+        <v>25163.05416137024</v>
       </c>
       <c r="I71" t="n">
-        <v>79179.96525647392</v>
+        <v>167581.5631465593</v>
       </c>
       <c r="J71" t="n">
-        <v>85.26696466313716</v>
+        <v>166.6088194951262</v>
       </c>
       <c r="K71" t="n">
-        <v>1016.697195278287</v>
+        <v>2136.238423584472</v>
       </c>
       <c r="L71" t="n">
-        <v>8560.004527053414</v>
+        <v>18717.60942496409</v>
       </c>
     </row>
     <row r="72">
@@ -3179,22 +3179,22 @@
         <v>9.39080530490523</v>
       </c>
       <c r="G72" t="n">
-        <v>1442.221478145027</v>
+        <v>2818.052910333519</v>
       </c>
       <c r="H72" t="n">
-        <v>10726.61619812741</v>
+        <v>22059.00596234844</v>
       </c>
       <c r="I72" t="n">
-        <v>66849.48619339793</v>
+        <v>142418.5089851891</v>
       </c>
       <c r="J72" t="n">
-        <v>82.23878210102563</v>
+        <v>162.2369652088376</v>
       </c>
       <c r="K72" t="n">
-        <v>931.43023061515</v>
+        <v>1969.629604089346</v>
       </c>
       <c r="L72" t="n">
-        <v>7543.307331775128</v>
+        <v>16581.37100137962</v>
       </c>
     </row>
     <row r="73">
@@ -3217,22 +3217,22 @@
         <v>8.957029958879351</v>
       </c>
       <c r="G73" t="n">
-        <v>1291.305482799</v>
+        <v>2547.429294727237</v>
       </c>
       <c r="H73" t="n">
-        <v>9284.394719982387</v>
+        <v>19240.95305201493</v>
       </c>
       <c r="I73" t="n">
-        <v>56122.86999527052</v>
+        <v>120359.5030228407</v>
       </c>
       <c r="J73" t="n">
-        <v>78.96596087931229</v>
+        <v>157.2783802496154</v>
       </c>
       <c r="K73" t="n">
-        <v>849.1914485141243</v>
+        <v>1807.392638880508</v>
       </c>
       <c r="L73" t="n">
-        <v>6611.877101159978</v>
+        <v>14611.74139729028</v>
       </c>
     </row>
     <row r="74">
@@ -3255,22 +3255,22 @@
         <v>8.537312534487128</v>
       </c>
       <c r="G74" t="n">
-        <v>1150.848784643545</v>
+        <v>2292.17286468042</v>
       </c>
       <c r="H74" t="n">
-        <v>7993.089237183386</v>
+        <v>16693.52375728769</v>
       </c>
       <c r="I74" t="n">
-        <v>46838.47527528813</v>
+        <v>101118.5499708257</v>
       </c>
       <c r="J74" t="n">
-        <v>75.46146025242517</v>
+        <v>151.7435598564047</v>
       </c>
       <c r="K74" t="n">
-        <v>770.2254876348121</v>
+        <v>1650.114258630892</v>
       </c>
       <c r="L74" t="n">
-        <v>5762.685652645854</v>
+        <v>12804.34875840977</v>
       </c>
     </row>
     <row r="75">
@@ -3293,22 +3293,22 @@
         <v>8.131586739553166</v>
       </c>
       <c r="G75" t="n">
-        <v>1020.585001312856</v>
+        <v>2052.268810028615</v>
       </c>
       <c r="H75" t="n">
-        <v>6842.240452539841</v>
+        <v>14401.35089260727</v>
       </c>
       <c r="I75" t="n">
-        <v>38845.38603810475</v>
+        <v>84425.02621353805</v>
       </c>
       <c r="J75" t="n">
-        <v>71.74246653287877</v>
+        <v>145.6522932568434</v>
       </c>
       <c r="K75" t="n">
-        <v>694.7640273823869</v>
+        <v>1498.370698774488</v>
       </c>
       <c r="L75" t="n">
-        <v>4992.460165011042</v>
+        <v>11154.23449977888</v>
       </c>
     </row>
     <row r="76">
@@ -3331,22 +3331,22 @@
         <v>7.739765536629853</v>
       </c>
       <c r="G76" t="n">
-        <v>900.2432490031745</v>
+        <v>1827.68310100144</v>
       </c>
       <c r="H76" t="n">
-        <v>5821.655451226985</v>
+        <v>12349.08208257865</v>
       </c>
       <c r="I76" t="n">
-        <v>32003.1455855649</v>
+        <v>70023.67532093078</v>
       </c>
       <c r="J76" t="n">
-        <v>67.8305521573174</v>
+        <v>139.0344218174225</v>
       </c>
       <c r="K76" t="n">
-        <v>623.0215608495081</v>
+        <v>1352.718405517644</v>
       </c>
       <c r="L76" t="n">
-        <v>4297.696137628655</v>
+        <v>9655.863801004389</v>
       </c>
     </row>
     <row r="77">
@@ -3369,22 +3369,22 @@
         <v>7.361741401257083</v>
       </c>
       <c r="G77" t="n">
-        <v>789.5439707028487</v>
+        <v>1618.353175299346</v>
       </c>
       <c r="H77" t="n">
-        <v>4921.412202223811</v>
+        <v>10521.39898157721</v>
       </c>
       <c r="I77" t="n">
-        <v>26181.49013433792</v>
+        <v>57674.59323835212</v>
       </c>
       <c r="J77" t="n">
-        <v>63.75172610977355</v>
+        <v>131.930403473625</v>
       </c>
       <c r="K77" t="n">
-        <v>555.1910086921907</v>
+        <v>1213.683983700222</v>
       </c>
       <c r="L77" t="n">
-        <v>3674.674576779147</v>
+        <v>8303.145395486743</v>
       </c>
     </row>
     <row r="78">
@@ -3407,22 +3407,22 @@
         <v>6.997386696514347</v>
       </c>
       <c r="G78" t="n">
-        <v>688.1949126548441</v>
+        <v>1424.178418929592</v>
       </c>
       <c r="H78" t="n">
-        <v>4131.868231520963</v>
+        <v>8903.045806277867</v>
       </c>
       <c r="I78" t="n">
-        <v>21260.07793211411</v>
+        <v>47153.19425677492</v>
       </c>
       <c r="J78" t="n">
-        <v>59.53635134866691</v>
+        <v>124.3916183315883</v>
       </c>
       <c r="K78" t="n">
-        <v>491.4392825824172</v>
+        <v>1081.753580226597</v>
       </c>
       <c r="L78" t="n">
-        <v>3119.483568086956</v>
+        <v>7089.461411786522</v>
       </c>
     </row>
     <row r="79">
@@ -3445,22 +3445,22 @@
         <v>6.646554162461735</v>
       </c>
       <c r="G79" t="n">
-        <v>595.8873749892799</v>
+        <v>1245.01070756225</v>
       </c>
       <c r="H79" t="n">
-        <v>3443.673318866118</v>
+        <v>7478.867387348276</v>
       </c>
       <c r="I79" t="n">
-        <v>17128.20970059315</v>
+        <v>38250.14845049704</v>
       </c>
       <c r="J79" t="n">
-        <v>55.21890615434498</v>
+        <v>116.4803485377825</v>
       </c>
       <c r="K79" t="n">
-        <v>431.9029312337502</v>
+        <v>957.3619618950086</v>
       </c>
       <c r="L79" t="n">
-        <v>2628.044285504539</v>
+        <v>6007.707831559925</v>
       </c>
     </row>
     <row r="80">
@@ -3483,22 +3483,22 @@
         <v>6.309077517789036</v>
       </c>
       <c r="G80" t="n">
-        <v>512.2928795497311</v>
+        <v>1080.645331810535</v>
       </c>
       <c r="H80" t="n">
-        <v>2847.785943876838</v>
+        <v>6233.856679786025</v>
       </c>
       <c r="I80" t="n">
-        <v>13684.53638172703</v>
+        <v>30771.28106314877</v>
       </c>
       <c r="J80" t="n">
-        <v>50.83756953988719</v>
+        <v>108.2693679292898</v>
       </c>
       <c r="K80" t="n">
-        <v>376.6840250794053</v>
+        <v>840.8816133572259</v>
       </c>
       <c r="L80" t="n">
-        <v>2196.141354270789</v>
+        <v>5050.345869664916</v>
       </c>
     </row>
     <row r="81">
@@ -3521,22 +3521,22 @@
         <v>5.984772169721794</v>
       </c>
       <c r="G81" t="n">
-        <v>437.0604109836661</v>
+        <v>930.8126818885323</v>
       </c>
       <c r="H81" t="n">
-        <v>2335.493064327107</v>
+        <v>5153.21134797549</v>
       </c>
       <c r="I81" t="n">
-        <v>10836.75043785019</v>
+        <v>24537.42438336274</v>
       </c>
       <c r="J81" t="n">
-        <v>46.43361641912664</v>
+        <v>99.84108480515111</v>
       </c>
       <c r="K81" t="n">
-        <v>325.8464555395181</v>
+        <v>732.6122454279362</v>
       </c>
       <c r="L81" t="n">
-        <v>1819.457329191383</v>
+        <v>4209.46425630769</v>
       </c>
     </row>
     <row r="82">
@@ -3559,22 +3559,22 @@
         <v>5.673436026993337</v>
       </c>
       <c r="G82" t="n">
-        <v>369.8143940415078</v>
+        <v>795.1711093184375</v>
       </c>
       <c r="H82" t="n">
-        <v>1898.432653343441</v>
+        <v>4222.398666086958</v>
       </c>
       <c r="I82" t="n">
-        <v>8501.257373523085</v>
+        <v>19384.21303538726</v>
       </c>
       <c r="J82" t="n">
-        <v>42.05061636990405</v>
+        <v>91.28619548332085</v>
       </c>
       <c r="K82" t="n">
-        <v>279.4128391203915</v>
+        <v>632.771160622785</v>
       </c>
       <c r="L82" t="n">
-        <v>1493.610873651865</v>
+        <v>3476.852010879754</v>
       </c>
     </row>
     <row r="83">
@@ -3597,22 +3597,22 @@
         <v>5.374850409505471</v>
       </c>
       <c r="G83" t="n">
-        <v>310.1535684315319</v>
+        <v>673.3014096305612</v>
       </c>
       <c r="H83" t="n">
-        <v>1528.618259301933</v>
+        <v>3427.22755676852</v>
       </c>
       <c r="I83" t="n">
-        <v>6602.824720179644</v>
+        <v>15161.8143693003</v>
       </c>
       <c r="J83" t="n">
-        <v>37.73344065733703</v>
+        <v>82.70182791079094</v>
       </c>
       <c r="K83" t="n">
-        <v>237.3622227504874</v>
+        <v>541.4849651394642</v>
       </c>
       <c r="L83" t="n">
-        <v>1214.198034531474</v>
+        <v>2844.080850256969</v>
       </c>
     </row>
     <row r="84">
@@ -3635,22 +3635,22 @@
         <v>5.088781047190323</v>
       </c>
       <c r="G84" t="n">
-        <v>257.6509102298362</v>
+        <v>564.7033736570564</v>
       </c>
       <c r="H84" t="n">
-        <v>1218.464690870401</v>
+        <v>2753.926147137959</v>
       </c>
       <c r="I84" t="n">
-        <v>5074.206460877711</v>
+        <v>11734.58681253178</v>
       </c>
       <c r="J84" t="n">
-        <v>33.52709551899893</v>
+        <v>74.1891837299752</v>
       </c>
       <c r="K84" t="n">
-        <v>199.6287820931504</v>
+        <v>458.7831372286732</v>
       </c>
       <c r="L84" t="n">
-        <v>976.8358117809865</v>
+        <v>2302.595885117505</v>
       </c>
     </row>
     <row r="85">
@@ -3673,22 +3673,22 @@
         <v>4.814979159573591</v>
       </c>
       <c r="G85" t="n">
-        <v>211.8547237475117</v>
+        <v>468.7948294018098</v>
       </c>
       <c r="H85" t="n">
-        <v>960.8137806405653</v>
+        <v>2189.222773480902</v>
       </c>
       <c r="I85" t="n">
-        <v>3855.741770007309</v>
+        <v>8980.660665393822</v>
       </c>
       <c r="J85" t="n">
-        <v>29.47541504277867</v>
+        <v>65.85072334459772</v>
       </c>
       <c r="K85" t="n">
-        <v>166.1016865741514</v>
+        <v>384.5939534986981</v>
       </c>
       <c r="L85" t="n">
-        <v>777.2070296878361</v>
+        <v>1843.812747888831</v>
       </c>
     </row>
     <row r="86">
@@ -3711,22 +3711,22 @@
         <v>4.553182606644601</v>
       </c>
       <c r="G86" t="n">
-        <v>172.2909885262801</v>
+        <v>384.9135356956039</v>
       </c>
       <c r="H86" t="n">
-        <v>748.9590568930536</v>
+        <v>1720.427944079092</v>
       </c>
       <c r="I86" t="n">
-        <v>2894.927989366744</v>
+        <v>6791.437891912921</v>
       </c>
       <c r="J86" t="n">
-        <v>25.61966335568471</v>
+        <v>57.78698011927372</v>
       </c>
       <c r="K86" t="n">
-        <v>136.6262715313728</v>
+        <v>318.7432301541003</v>
       </c>
       <c r="L86" t="n">
-        <v>611.1053431136847</v>
+        <v>1459.218794390134</v>
       </c>
     </row>
     <row r="87">
@@ -3749,22 +3749,22 @@
         <v>4.303117100878824</v>
       </c>
       <c r="G87" t="n">
-        <v>138.4669923836296</v>
+        <v>312.322188818807</v>
       </c>
       <c r="H87" t="n">
-        <v>576.6680683667735</v>
+        <v>1335.514408383488</v>
       </c>
       <c r="I87" t="n">
-        <v>2145.968932473691</v>
+        <v>5071.009947833829</v>
       </c>
       <c r="J87" t="n">
-        <v>21.99711190749785</v>
+        <v>50.09313412056417</v>
       </c>
       <c r="K87" t="n">
-        <v>111.006608175688</v>
+        <v>260.9562500348266</v>
       </c>
       <c r="L87" t="n">
-        <v>474.4790715823119</v>
+        <v>1140.475564236033</v>
       </c>
     </row>
     <row r="88">
@@ -3787,22 +3787,22 @@
         <v>4.064497469647982</v>
       </c>
       <c r="G88" t="n">
-        <v>109.8762141721494</v>
+        <v>250.2166628205964</v>
       </c>
       <c r="H88" t="n">
-        <v>438.2010759831439</v>
+        <v>1023.192219564682</v>
       </c>
       <c r="I88" t="n">
-        <v>1569.300864106917</v>
+        <v>3735.49553945034</v>
       </c>
       <c r="J88" t="n">
-        <v>18.63967157565037</v>
+        <v>42.85551871253487</v>
       </c>
       <c r="K88" t="n">
-        <v>89.00949626819019</v>
+        <v>210.8631159142624</v>
       </c>
       <c r="L88" t="n">
-        <v>363.4724634066239</v>
+        <v>879.5193142012067</v>
       </c>
     </row>
     <row r="89">
@@ -3825,22 +3825,22 @@
         <v>3.837028956802605</v>
       </c>
       <c r="G89" t="n">
-        <v>86.0043419216348</v>
+        <v>197.7374263072693</v>
       </c>
       <c r="H89" t="n">
-        <v>328.3248618109944</v>
+        <v>772.9755567440852</v>
       </c>
       <c r="I89" t="n">
-        <v>1131.099788123773</v>
+        <v>2712.303319885658</v>
       </c>
       <c r="J89" t="n">
-        <v>15.5726690239255</v>
+        <v>36.1482696459086</v>
       </c>
       <c r="K89" t="n">
-        <v>70.36982469253981</v>
+        <v>168.0075972017275</v>
       </c>
       <c r="L89" t="n">
-        <v>274.4629671384337</v>
+        <v>668.6561982869443</v>
       </c>
     </row>
     <row r="90">
@@ -3863,22 +3863,22 @@
         <v>3.620408551928819</v>
       </c>
       <c r="G90" t="n">
-        <v>66.33622804429811</v>
+        <v>153.9838710341581</v>
       </c>
       <c r="H90" t="n">
-        <v>242.3205198893596</v>
+        <v>575.2381304368159</v>
       </c>
       <c r="I90" t="n">
-        <v>802.7749263127786</v>
+        <v>1939.327763141573</v>
       </c>
       <c r="J90" t="n">
-        <v>12.8138600019487</v>
+        <v>30.03035003776252</v>
       </c>
       <c r="K90" t="n">
-        <v>54.79715566861431</v>
+        <v>131.8593275558189</v>
       </c>
       <c r="L90" t="n">
-        <v>204.0931424458939</v>
+        <v>500.6486010852168</v>
       </c>
     </row>
     <row r="91">
@@ -3901,22 +3901,22 @@
         <v>3.414326335668077</v>
       </c>
       <c r="G91" t="n">
-        <v>50.36350004023998</v>
+        <v>118.0310644181587</v>
       </c>
       <c r="H91" t="n">
-        <v>175.9842918450615</v>
+        <v>421.2542594026579</v>
       </c>
       <c r="I91" t="n">
-        <v>560.4544064234191</v>
+        <v>1364.089632704757</v>
       </c>
       <c r="J91" t="n">
-        <v>10.37276707032531</v>
+        <v>24.54318974437771</v>
       </c>
       <c r="K91" t="n">
-        <v>41.98329566666561</v>
+        <v>101.8289775180564</v>
       </c>
       <c r="L91" t="n">
-        <v>149.2959867772796</v>
+        <v>368.7892735293979</v>
       </c>
     </row>
     <row r="92">
@@ -3939,22 +3939,22 @@
         <v>3.218466829543793</v>
       </c>
       <c r="G92" t="n">
-        <v>37.59247106323658</v>
+        <v>88.94821835000562</v>
       </c>
       <c r="H92" t="n">
-        <v>125.6207918048215</v>
+        <v>303.2231949844992</v>
       </c>
       <c r="I92" t="n">
-        <v>384.4701145783575</v>
+        <v>942.8353733020995</v>
       </c>
       <c r="J92" t="n">
-        <v>8.250414182887027</v>
+        <v>19.70915888143421</v>
       </c>
       <c r="K92" t="n">
-        <v>31.6105285963403</v>
+        <v>77.28578777367871</v>
       </c>
       <c r="L92" t="n">
-        <v>107.312691110614</v>
+        <v>266.9602960113415</v>
       </c>
     </row>
     <row r="93">
@@ -3977,22 +3977,22 @@
         <v>3.032510338956331</v>
       </c>
       <c r="G93" t="n">
-        <v>27.55193921067161</v>
+        <v>65.81797414741735</v>
       </c>
       <c r="H93" t="n">
-        <v>88.02832074158495</v>
+        <v>214.2749766344936</v>
       </c>
       <c r="I93" t="n">
-        <v>258.849322773536</v>
+        <v>639.6121783176001</v>
       </c>
       <c r="J93" t="n">
-        <v>6.439505304142465</v>
+        <v>15.53104951192527</v>
       </c>
       <c r="K93" t="n">
-        <v>23.36011441345327</v>
+        <v>57.5766288922445</v>
       </c>
       <c r="L93" t="n">
-        <v>75.70216251427371</v>
+        <v>189.6745082376628</v>
       </c>
     </row>
     <row r="94">
@@ -4015,22 +4015,22 @@
         <v>2.856134278377099</v>
       </c>
       <c r="G94" t="n">
-        <v>19.80043680125907</v>
+        <v>47.75546409136063</v>
       </c>
       <c r="H94" t="n">
-        <v>60.47638153091333</v>
+        <v>148.4570024870763</v>
       </c>
       <c r="I94" t="n">
-        <v>170.821002031951</v>
+        <v>425.3372016831066</v>
       </c>
       <c r="J94" t="n">
-        <v>4.925059876412312</v>
+        <v>11.99266696440796</v>
       </c>
       <c r="K94" t="n">
-        <v>16.92060910931081</v>
+        <v>42.04557938031922</v>
       </c>
       <c r="L94" t="n">
-        <v>52.34204810082043</v>
+        <v>132.0978793454183</v>
       </c>
     </row>
     <row r="95">
@@ -4053,22 +4053,22 @@
         <v>2.689014468278793</v>
       </c>
       <c r="G95" t="n">
-        <v>13.93249898192966</v>
+        <v>33.92604850805418</v>
       </c>
       <c r="H95" t="n">
-        <v>40.67594472965428</v>
+        <v>100.7015383957157</v>
       </c>
       <c r="I95" t="n">
-        <v>110.3446205010377</v>
+        <v>276.8801991960303</v>
       </c>
       <c r="J95" t="n">
-        <v>3.685477246148955</v>
+        <v>9.06053730298715</v>
       </c>
       <c r="K95" t="n">
-        <v>11.9955492328985</v>
+        <v>30.05291241591125</v>
       </c>
       <c r="L95" t="n">
-        <v>35.42143899150962</v>
+        <v>90.05229996509908</v>
       </c>
     </row>
     <row r="96">
@@ -4091,22 +4091,22 @@
         <v>2.530826393963575</v>
       </c>
       <c r="G96" t="n">
-        <v>9.583569403307861</v>
+        <v>23.56066318552648</v>
       </c>
       <c r="H96" t="n">
-        <v>26.74344574772461</v>
+        <v>66.77548988766148</v>
       </c>
       <c r="I96" t="n">
-        <v>69.66867577138338</v>
+        <v>176.1786608003146</v>
       </c>
       <c r="J96" t="n">
-        <v>2.693959532766802</v>
+        <v>6.686629283619119</v>
       </c>
       <c r="K96" t="n">
-        <v>8.310071986749545</v>
+        <v>20.9923751129241</v>
       </c>
       <c r="L96" t="n">
-        <v>23.42588975861112</v>
+        <v>59.99938754918782</v>
       </c>
     </row>
     <row r="97">
@@ -4129,22 +4129,22 @@
         <v>2.381246417171943</v>
       </c>
       <c r="G97" t="n">
-        <v>6.433249422764494</v>
+        <v>15.96785454861787</v>
       </c>
       <c r="H97" t="n">
-        <v>17.15987634441676</v>
+        <v>43.21482670213501</v>
       </c>
       <c r="I97" t="n">
-        <v>42.92523002365876</v>
+        <v>109.4031709126532</v>
       </c>
       <c r="J97" t="n">
-        <v>1.920183555666029</v>
+        <v>4.811881062387916</v>
       </c>
       <c r="K97" t="n">
-        <v>5.616112453982742</v>
+        <v>14.30574582930499</v>
       </c>
       <c r="L97" t="n">
-        <v>15.11581777186157</v>
+        <v>39.00701243626371</v>
       </c>
     </row>
     <row r="98">
@@ -4167,22 +4167,22 @@
         <v>2.239952932147128</v>
       </c>
       <c r="G98" t="n">
-        <v>4.206720656490631</v>
+        <v>10.54182523436004</v>
       </c>
       <c r="H98" t="n">
-        <v>10.72662692165226</v>
+        <v>27.24697215351713</v>
       </c>
       <c r="I98" t="n">
-        <v>25.76535367924201</v>
+        <v>66.18834421051815</v>
       </c>
       <c r="J98" t="n">
-        <v>1.332083475668801</v>
+        <v>3.370229989379167</v>
       </c>
       <c r="K98" t="n">
-        <v>3.695928898316713</v>
+        <v>9.493864766917069</v>
       </c>
       <c r="L98" t="n">
-        <v>9.49970531787883</v>
+        <v>24.70126660695873</v>
       </c>
     </row>
     <row r="99">
@@ -4205,22 +4205,22 @@
         <v>2.106627458665303</v>
       </c>
       <c r="G99" t="n">
-        <v>2.674317149560371</v>
+        <v>6.766140428274715</v>
       </c>
       <c r="H99" t="n">
-        <v>6.519906265161629</v>
+        <v>16.70514691915709</v>
       </c>
       <c r="I99" t="n">
-        <v>15.03872675758975</v>
+        <v>38.94137205700102</v>
       </c>
       <c r="J99" t="n">
-        <v>0.8975922541650867</v>
+        <v>2.29278405992476</v>
       </c>
       <c r="K99" t="n">
-        <v>2.363845422647912</v>
+        <v>6.123634777537902</v>
       </c>
       <c r="L99" t="n">
-        <v>5.803776419562117</v>
+        <v>15.20740184004166</v>
       </c>
     </row>
     <row r="100">
@@ -4243,22 +4243,22 @@
         <v>1.980955665391087</v>
       </c>
       <c r="G100" t="n">
-        <v>1.649376459701933</v>
+        <v>4.213120198031696</v>
       </c>
       <c r="H100" t="n">
-        <v>3.845589115601258</v>
+        <v>9.939006490882376</v>
       </c>
       <c r="I100" t="n">
-        <v>8.518820492428119</v>
+        <v>22.23622513784393</v>
       </c>
       <c r="J100" t="n">
-        <v>0.5861954699786815</v>
+        <v>1.511758695487327</v>
       </c>
       <c r="K100" t="n">
-        <v>1.466253168482825</v>
+        <v>3.830850717613143</v>
       </c>
       <c r="L100" t="n">
-        <v>3.439930996914204</v>
+        <v>9.08376706250376</v>
       </c>
     </row>
     <row r="101">
@@ -4281,22 +4281,22 @@
         <v>1.862628317750065</v>
       </c>
       <c r="G101" t="n">
-        <v>0.984639253546969</v>
+        <v>2.539318418004689</v>
       </c>
       <c r="H101" t="n">
-        <v>2.196212655899325</v>
+        <v>5.725886292850679</v>
       </c>
       <c r="I101" t="n">
-        <v>4.673231376826861</v>
+        <v>12.29721864696155</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3701760204298573</v>
+        <v>0.9638384764490608</v>
       </c>
       <c r="K101" t="n">
-        <v>0.8800576985041439</v>
+        <v>2.319092022125816</v>
       </c>
       <c r="L101" t="n">
-        <v>1.973677828431379</v>
+        <v>5.252916344890618</v>
       </c>
     </row>
     <row r="102">
@@ -4319,22 +4319,22 @@
         <v>1.75134214529361</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5675756496148752</v>
+        <v>1.477813848555447</v>
       </c>
       <c r="H102" t="n">
-        <v>1.211573402352356</v>
+        <v>3.18656787484599</v>
       </c>
       <c r="I102" t="n">
-        <v>2.477018720927536</v>
+        <v>6.571332354110874</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2254697046789451</v>
+        <v>0.5927071044014157</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5098816780742867</v>
+        <v>1.355253545676755</v>
       </c>
       <c r="L102" t="n">
-        <v>1.093620129927235</v>
+        <v>2.933824322764802</v>
       </c>
     </row>
     <row r="103">
@@ -4357,22 +4357,22 @@
         <v>1.646800624235226</v>
       </c>
       <c r="G103" t="n">
-        <v>0.3150785330495074</v>
+        <v>0.8282677499788221</v>
       </c>
       <c r="H103" t="n">
-        <v>0.6439977527374806</v>
+        <v>1.708754026290543</v>
       </c>
       <c r="I103" t="n">
-        <v>1.26544531857518</v>
+        <v>3.384764479264884</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1321031547893621</v>
+        <v>0.350607406233426</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2844119733953417</v>
+        <v>0.7625464412753395</v>
       </c>
       <c r="L103" t="n">
-        <v>0.5837384518529481</v>
+        <v>1.578570777088047</v>
       </c>
     </row>
     <row r="104">
@@ -4395,22 +4395,22 @@
         <v>1.548714671431352</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1679716385911212</v>
+        <v>0.4458038918231336</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3289192196879732</v>
+        <v>0.8804862763117208</v>
       </c>
       <c r="I104" t="n">
-        <v>0.6214475658376993</v>
+        <v>1.676010452974342</v>
       </c>
       <c r="J104" t="n">
-        <v>0.07423824751690122</v>
+        <v>0.198926008145316</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1523088186059796</v>
+        <v>0.4119390350419135</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2993264784576066</v>
+        <v>0.8160243358127075</v>
       </c>
     </row>
     <row r="105">
@@ -4433,22 +4433,22 @@
         <v>1.456803246535135</v>
       </c>
       <c r="G105" t="n">
-        <v>0.08573474161749993</v>
+        <v>0.2297315801461586</v>
       </c>
       <c r="H105" t="n">
-        <v>0.160947581096852</v>
+        <v>0.4346823844885872</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2925283461497262</v>
+        <v>0.7955241766626211</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03989177344030764</v>
+        <v>0.1079203040086047</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0780705710890784</v>
+        <v>0.2130130268965975</v>
       </c>
       <c r="L105" t="n">
-        <v>0.147017659851627</v>
+        <v>0.4040853007707941</v>
       </c>
     </row>
     <row r="106">
@@ -4471,22 +4471,22 @@
         <v>1.370793859344105</v>
       </c>
       <c r="G106" t="n">
-        <v>0.04176036143350181</v>
+        <v>0.1129754461319324</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07521283947935208</v>
+        <v>0.2049508043424286</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1315807650528742</v>
+        <v>0.3608417921740338</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02042829032003105</v>
+        <v>0.05579660790172626</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03817879764877075</v>
+        <v>0.1050927228879928</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06894708876254854</v>
+        <v>0.1910722738741965</v>
       </c>
     </row>
     <row r="107">
@@ -4509,22 +4509,22 @@
         <v>1.290422979472508</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0193434824737802</v>
+        <v>0.05283362876359334</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03345247804585027</v>
+        <v>0.09197535821049618</v>
       </c>
       <c r="I107" t="n">
-        <v>0.05636792557352208</v>
+        <v>0.1558909878316053</v>
       </c>
       <c r="J107" t="n">
-        <v>0.009933876718200695</v>
+        <v>0.02739368779019684</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01775050732873971</v>
+        <v>0.04929611498626656</v>
       </c>
       <c r="L107" t="n">
-        <v>0.03076829111377778</v>
+        <v>0.08597955098620366</v>
       </c>
     </row>
     <row r="108">
@@ -4547,22 +4547,22 @@
         <v>1.215436345394354</v>
       </c>
       <c r="G108" t="n">
-        <v>0.008488487542542354</v>
+        <v>0.02340787832864291</v>
       </c>
       <c r="H108" t="n">
-        <v>0.01410899557207007</v>
+        <v>0.03914172944690286</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02291544752767182</v>
+        <v>0.06391562962110907</v>
       </c>
       <c r="J108" t="n">
-        <v>0.004569554960778814</v>
+        <v>0.01272218189885171</v>
       </c>
       <c r="K108" t="n">
-        <v>0.007816630610539013</v>
+        <v>0.02190242719606972</v>
       </c>
       <c r="L108" t="n">
-        <v>0.01301778378503807</v>
+        <v>0.0366834359999371</v>
       </c>
     </row>
     <row r="109">
@@ -4585,22 +4585,22 @@
         <v>1.14558916962353</v>
       </c>
       <c r="G109" t="n">
-        <v>0.003514718889261522</v>
+        <v>0.00978539341715109</v>
       </c>
       <c r="H109" t="n">
-        <v>0.005620508029527715</v>
+        <v>0.01573385111825993</v>
       </c>
       <c r="I109" t="n">
-        <v>0.008806451955601745</v>
+        <v>0.02477390017420622</v>
       </c>
       <c r="J109" t="n">
-        <v>0.001980180281640882</v>
+        <v>0.00556606645028734</v>
       </c>
       <c r="K109" t="n">
-        <v>0.003247075649760201</v>
+        <v>0.009180245297218014</v>
       </c>
       <c r="L109" t="n">
-        <v>0.005201153174499059</v>
+        <v>0.01478100880386738</v>
       </c>
     </row>
     <row r="110">
@@ -4623,22 +4623,22 @@
         <v>1.080646236337918</v>
       </c>
       <c r="G110" t="n">
-        <v>0.001367171041465329</v>
+        <v>0.003842965681588707</v>
       </c>
       <c r="H110" t="n">
-        <v>0.002105789140266193</v>
+        <v>0.005948457701108843</v>
       </c>
       <c r="I110" t="n">
-        <v>0.003185943926074031</v>
+        <v>0.009040049055946285</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0008047974057316998</v>
+        <v>0.002283947847352051</v>
       </c>
       <c r="K110" t="n">
-        <v>0.001266895368119319</v>
+        <v>0.003614178846930674</v>
       </c>
       <c r="L110" t="n">
-        <v>0.001954077524738859</v>
+        <v>0.005600763506649369</v>
       </c>
     </row>
     <row r="111">
@@ -4661,22 +4661,22 @@
         <v>1.020381887153683</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0004972702528067086</v>
+        <v>0.001411211461867859</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0007386180988008644</v>
+        <v>0.002105492019520135</v>
       </c>
       <c r="I111" t="n">
-        <v>0.001080154785807837</v>
+        <v>0.003091591354837442</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0003053185505182461</v>
+        <v>0.0008747999846688387</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0004620979623876198</v>
+        <v>0.001330230999578623</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0006871821566195388</v>
+        <v>0.001986584659718695</v>
       </c>
     </row>
     <row r="112">
@@ -4699,22 +4699,22 @@
         <v>0.9645798900828808</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0001682721664405239</v>
+        <v>0.0004821341132810254</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0002413478459941559</v>
+        <v>0.0006942805576522764</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0003415366870069733</v>
+        <v>0.000986099335317307</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0001075688623371005</v>
+        <v>0.000311170279594975</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0001567794118693736</v>
+        <v>0.000455431014909784</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0002250841942319191</v>
+        <v>0.0006563536601400723</v>
       </c>
     </row>
     <row r="113">
@@ -4737,22 +4737,22 @@
         <v>0.91303318607391</v>
       </c>
       <c r="G113" t="n">
-        <v>5.269034379673176e-05</v>
+        <v>0.0001524202139444725</v>
       </c>
       <c r="H113" t="n">
-        <v>7.307567955363202e-05</v>
+        <v>0.000212146444371251</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0001001888410128173</v>
+        <v>0.0002918187776650308</v>
       </c>
       <c r="J113" t="n">
-        <v>3.500304947406136e-05</v>
+        <v>0.00010222882666848</v>
       </c>
       <c r="K113" t="n">
-        <v>4.921054953227308e-05</v>
+        <v>0.000144260735314809</v>
       </c>
       <c r="L113" t="n">
-        <v>6.830478236254548e-05</v>
+        <v>0.0002009226452302883</v>
       </c>
     </row>
     <row r="114">
@@ -4775,22 +4775,22 @@
         <v>0.8655435071065745</v>
       </c>
       <c r="G114" t="n">
-        <v>1.517823033234983e-05</v>
+        <v>4.432907135505129e-05</v>
       </c>
       <c r="H114" t="n">
-        <v>2.038533575690026e-05</v>
+        <v>5.972623042677853e-05</v>
       </c>
       <c r="I114" t="n">
-        <v>2.711316145918528e-05</v>
+        <v>7.967233329377972e-05</v>
       </c>
       <c r="J114" t="n">
-        <v>1.045816928796839e-05</v>
+        <v>3.083749710182357e-05</v>
       </c>
       <c r="K114" t="n">
-        <v>1.420750005821172e-05</v>
+        <v>4.203190864632904e-05</v>
       </c>
       <c r="L114" t="n">
-        <v>1.909423283027239e-05</v>
+        <v>5.666190991547931e-05</v>
       </c>
     </row>
     <row r="115">
@@ -4813,22 +4813,22 @@
         <v>0.821920859827543</v>
       </c>
       <c r="G115" t="n">
-        <v>3.9972881714124e-06</v>
+        <v>1.178660997034112e-05</v>
       </c>
       <c r="H115" t="n">
-        <v>5.20710542455043e-06</v>
+        <v>1.539715907172724e-05</v>
       </c>
       <c r="I115" t="n">
-        <v>6.727825702285014e-06</v>
+        <v>1.994610286700119e-05</v>
       </c>
       <c r="J115" t="n">
-        <v>2.850973772832064e-06</v>
+        <v>8.487360242218568e-06</v>
       </c>
       <c r="K115" t="n">
-        <v>3.749330770243333e-06</v>
+        <v>1.119441154450546e-05</v>
       </c>
       <c r="L115" t="n">
-        <v>4.886732772060668e-06</v>
+        <v>1.463000126915027e-05</v>
       </c>
     </row>
     <row r="116">
@@ -4851,22 +4851,22 @@
         <v>0.7819828694866351</v>
       </c>
       <c r="G116" t="n">
-        <v>9.559673427987939e-07</v>
+        <v>2.845918575417125e-06</v>
       </c>
       <c r="H116" t="n">
-        <v>1.20981725313803e-06</v>
+        <v>3.610549101386115e-06</v>
       </c>
       <c r="I116" t="n">
-        <v>1.520720277734585e-06</v>
+        <v>4.548943795273955e-06</v>
       </c>
       <c r="J116" t="n">
-        <v>7.043280332603476e-07</v>
+        <v>2.116948768568473e-06</v>
       </c>
       <c r="K116" t="n">
-        <v>8.983569974112686e-07</v>
+        <v>2.707051302286889e-06</v>
       </c>
       <c r="L116" t="n">
-        <v>1.137402001817335e-06</v>
+        <v>3.435589724644809e-06</v>
       </c>
     </row>
     <row r="117">
@@ -4889,22 +4889,22 @@
         <v>0.7455539808802392</v>
       </c>
       <c r="G117" t="n">
-        <v>2.06117055119456e-07</v>
+        <v>6.19511400101839e-07</v>
       </c>
       <c r="H117" t="n">
-        <v>2.538499103392359e-07</v>
+        <v>7.646305259689905e-07</v>
       </c>
       <c r="I117" t="n">
-        <v>3.109030245965552e-07</v>
+        <v>9.383946938878388e-07</v>
       </c>
       <c r="J117" t="n">
-        <v>1.565459673715862e-07</v>
+        <v>4.750433228854469e-07</v>
       </c>
       <c r="K117" t="n">
-        <v>1.94028964150921e-07</v>
+        <v>5.901025337184162e-07</v>
       </c>
       <c r="L117" t="n">
-        <v>2.390450044060666e-07</v>
+        <v>7.285384223579197e-07</v>
       </c>
     </row>
     <row r="118">
@@ -4927,22 +4927,22 @@
         <v>0.7124645166258825</v>
       </c>
       <c r="G118" t="n">
-        <v>3.975598988503858e-08</v>
+        <v>1.206407156740136e-07</v>
       </c>
       <c r="H118" t="n">
-        <v>4.77328552197799e-08</v>
+        <v>1.451191258671515e-07</v>
       </c>
       <c r="I118" t="n">
-        <v>5.705311425731934e-08</v>
+        <v>1.737641679188482e-07</v>
       </c>
       <c r="J118" t="n">
-        <v>3.106016320663877e-08</v>
+        <v>9.515925354141172e-08</v>
       </c>
       <c r="K118" t="n">
-        <v>3.748299677933477e-08</v>
+        <v>1.150592108329693e-07</v>
       </c>
       <c r="L118" t="n">
-        <v>4.501604025514564e-08</v>
+        <v>1.384358886395034e-07</v>
       </c>
     </row>
     <row r="119">
@@ -4965,22 +4965,22 @@
         <v>0.6825495989492163</v>
       </c>
       <c r="G119" t="n">
-        <v>6.802684302921781e-09</v>
+        <v>2.084143460667824e-08</v>
       </c>
       <c r="H119" t="n">
-        <v>7.97686533474132e-09</v>
+        <v>2.447841019313784e-08</v>
       </c>
       <c r="I119" t="n">
-        <v>9.320259037539445e-09</v>
+        <v>2.864504205169679e-08</v>
       </c>
       <c r="J119" t="n">
-        <v>5.455344751644282e-09</v>
+        <v>1.687428788389609e-08</v>
       </c>
       <c r="K119" t="n">
-        <v>6.422833572696002e-09</v>
+        <v>1.989995729155755e-08</v>
       </c>
       <c r="L119" t="n">
-        <v>7.533043475810871e-09</v>
+        <v>2.337667780653411e-08</v>
       </c>
     </row>
     <row r="120">
@@ -5003,22 +5003,22 @@
         <v>0.6556479498397396</v>
       </c>
       <c r="G120" t="n">
-        <v>1.023402203519318e-09</v>
+        <v>3.165553084063756e-09</v>
       </c>
       <c r="H120" t="n">
-        <v>1.17418103181954e-09</v>
+        <v>3.636975586459596e-09</v>
       </c>
       <c r="I120" t="n">
-        <v>1.343393702798126e-09</v>
+        <v>4.166631858558938e-09</v>
       </c>
       <c r="J120" t="n">
-        <v>8.406062739793379e-10</v>
+        <v>2.625136194127343e-09</v>
       </c>
       <c r="K120" t="n">
-        <v>9.674888210517205e-10</v>
+        <v>3.025669407661464e-09</v>
       </c>
       <c r="L120" t="n">
-        <v>1.110209903114867e-09</v>
+        <v>3.47672051497656e-09</v>
       </c>
     </row>
     <row r="121">
@@ -5041,22 +5041,22 @@
         <v>0.6316005964067513</v>
       </c>
       <c r="G121" t="n">
-        <v>1.34062491277155e-10</v>
+        <v>4.186648482416529e-10</v>
       </c>
       <c r="H121" t="n">
-        <v>1.507788283002223e-10</v>
+        <v>4.714225023958401e-10</v>
       </c>
       <c r="I121" t="n">
-        <v>1.69212670978586e-10</v>
+        <v>5.296562720993432e-10</v>
       </c>
       <c r="J121" t="n">
-        <v>1.125445101937648e-10</v>
+        <v>3.548456518831846e-10</v>
       </c>
       <c r="K121" t="n">
-        <v>1.268825470723826e-10</v>
+        <v>4.005332135341205e-10</v>
       </c>
       <c r="L121" t="n">
-        <v>1.427210820631468e-10</v>
+        <v>4.510511073150961e-10</v>
       </c>
     </row>
     <row r="122">
@@ -5079,22 +5079,22 @@
         <v>0.6102495237574349</v>
       </c>
       <c r="G122" t="n">
-        <v>1.513405292733527e-11</v>
+        <v>4.771670219532778e-11</v>
       </c>
       <c r="H122" t="n">
-        <v>1.671633702306725e-11</v>
+        <v>5.275765415418718e-11</v>
       </c>
       <c r="I122" t="n">
-        <v>1.843384267836373e-11</v>
+        <v>5.8233769703503e-11</v>
       </c>
       <c r="J122" t="n">
-        <v>1.295744110760287e-11</v>
+        <v>4.124681092910326e-11</v>
       </c>
       <c r="K122" t="n">
-        <v>1.433803687861779e-11</v>
+        <v>4.568756165093596e-11</v>
       </c>
       <c r="L122" t="n">
-        <v>1.583853499076422e-11</v>
+        <v>5.051789378097551e-11</v>
       </c>
     </row>
     <row r="123">
@@ -5117,22 +5117,22 @@
         <v>0.5914363364293672</v>
       </c>
       <c r="G123" t="n">
-        <v>1.45594263271644e-12</v>
+        <v>4.63463348948114e-12</v>
       </c>
       <c r="H123" t="n">
-        <v>1.582284095731979e-12</v>
+        <v>5.040951958859398e-12</v>
       </c>
       <c r="I123" t="n">
-        <v>1.717505655296475e-12</v>
+        <v>5.476115549315808e-12</v>
       </c>
       <c r="J123" t="n">
-        <v>1.268671003223427e-12</v>
+        <v>4.077332283061413e-12</v>
       </c>
       <c r="K123" t="n">
-        <v>1.380595771014917e-12</v>
+        <v>4.440750721832701e-12</v>
       </c>
       <c r="L123" t="n">
-        <v>1.500498112146432e-12</v>
+        <v>4.83033213003956e-12</v>
       </c>
     </row>
     <row r="124">
@@ -5155,22 +5155,22 @@
         <v>0.5750010102319858</v>
       </c>
       <c r="G124" t="n">
-        <v>1.179410279350877e-13</v>
+        <v>3.790460722089129e-13</v>
       </c>
       <c r="H124" t="n">
-        <v>1.263414630155388e-13</v>
+        <v>4.063184693782585e-13</v>
       </c>
       <c r="I124" t="n">
-        <v>1.352215595644961e-13</v>
+        <v>4.351635904564095e-13</v>
       </c>
       <c r="J124" t="n">
-        <v>1.043830230496143e-13</v>
+        <v>3.386982262059478e-13</v>
       </c>
       <c r="K124" t="n">
-        <v>1.119247677914906e-13</v>
+        <v>3.634184387712875e-13</v>
       </c>
       <c r="L124" t="n">
-        <v>1.199023411315151e-13</v>
+        <v>3.895814082068581e-13</v>
       </c>
     </row>
     <row r="125">
@@ -5193,22 +5193,22 @@
         <v>0.5607808370510761</v>
       </c>
       <c r="G125" t="n">
-        <v>7.941765459993006e-15</v>
+        <v>2.576915091800681e-14</v>
       </c>
       <c r="H125" t="n">
-        <v>8.400435080451127e-15</v>
+        <v>2.727239716934563e-14</v>
       </c>
       <c r="I125" t="n">
-        <v>8.880096548957259e-15</v>
+        <v>2.884512107815102e-14</v>
       </c>
       <c r="J125" t="n">
-        <v>7.125176031554253e-15</v>
+        <v>2.334181431618118e-14</v>
       </c>
       <c r="K125" t="n">
-        <v>7.541744741876285e-15</v>
+        <v>2.472021256533967e-14</v>
       </c>
       <c r="L125" t="n">
-        <v>7.977573340024591e-15</v>
+        <v>2.616296943557058e-14</v>
       </c>
     </row>
     <row r="126">
@@ -5231,22 +5231,22 @@
         <v>0.5486096821609361</v>
       </c>
       <c r="G126" t="n">
-        <v>4.38410120820038e-16</v>
+        <v>1.436215412671516e-15</v>
       </c>
       <c r="H126" t="n">
-        <v>4.586696204581209e-16</v>
+        <v>1.503246251338816e-15</v>
       </c>
       <c r="I126" t="n">
-        <v>4.796614685061311e-16</v>
+        <v>1.572723908805395e-15</v>
       </c>
       <c r="J126" t="n">
-        <v>3.97986282275919e-16</v>
+        <v>1.31632483306894e-15</v>
       </c>
       <c r="K126" t="n">
-        <v>4.165687103220322e-16</v>
+        <v>1.378398249158484e-15</v>
       </c>
       <c r="L126" t="n">
-        <v>4.358285981483052e-16</v>
+        <v>1.442756870230916e-15</v>
       </c>
     </row>
     <row r="127">
@@ -5269,22 +5269,22 @@
         <v>0.5383176819295636</v>
       </c>
       <c r="G127" t="n">
-        <v>1.954716612411709e-17</v>
+        <v>6.465152526905607e-17</v>
       </c>
       <c r="H127" t="n">
-        <v>2.025949963808301e-17</v>
+        <v>6.703083866730038e-17</v>
       </c>
       <c r="I127" t="n">
-        <v>2.099184804801028e-17</v>
+        <v>6.947765746657895e-17</v>
       </c>
       <c r="J127" t="n">
-        <v>1.792360953794335e-17</v>
+        <v>5.985168829672668e-17</v>
       </c>
       <c r="K127" t="n">
-        <v>1.858242804611313e-17</v>
+        <v>6.20734160895445e-17</v>
       </c>
       <c r="L127" t="n">
-        <v>1.925988782627299e-17</v>
+        <v>6.435862107243194e-17</v>
       </c>
     </row>
     <row r="128">
@@ -5307,22 +5307,22 @@
         <v>0.5297315028853449</v>
       </c>
       <c r="G128" t="n">
-        <v>6.927391516919727e-19</v>
+        <v>2.313239846596455e-18</v>
       </c>
       <c r="H128" t="n">
-        <v>7.123335139659211e-19</v>
+        <v>2.379313398244302e-18</v>
       </c>
       <c r="I128" t="n">
-        <v>7.323484099272751e-19</v>
+        <v>2.446818799278563e-18</v>
       </c>
       <c r="J128" t="n">
-        <v>6.405710890217652e-19</v>
+        <v>2.159604504434736e-18</v>
       </c>
       <c r="K128" t="n">
-        <v>6.58818508169786e-19</v>
+        <v>2.221727792817827e-18</v>
       </c>
       <c r="L128" t="n">
-        <v>6.774597801598604e-19</v>
+        <v>2.285204982887432e-18</v>
       </c>
     </row>
     <row r="129">
@@ -5345,22 +5345,22 @@
         <v>0.5226752244013781</v>
       </c>
       <c r="G129" t="n">
-        <v>1.918048401820884e-20</v>
+        <v>6.466457883108558e-20</v>
       </c>
       <c r="H129" t="n">
-        <v>1.959436227394845e-20</v>
+        <v>6.607355164784701e-20</v>
       </c>
       <c r="I129" t="n">
-        <v>2.0014895961354e-20</v>
+        <v>6.750540103426043e-20</v>
       </c>
       <c r="J129" t="n">
-        <v>1.785982841198188e-20</v>
+        <v>6.079111832239842e-20</v>
       </c>
       <c r="K129" t="n">
-        <v>1.824741914802082e-20</v>
+        <v>6.212328838309147e-20</v>
       </c>
       <c r="L129" t="n">
-        <v>1.864127199007446e-20</v>
+        <v>6.347719006960623e-20</v>
       </c>
     </row>
     <row r="130">
@@ -5383,22 +5383,22 @@
         <v>0.5169703095465288</v>
       </c>
       <c r="G130" t="n">
-        <v>4.072992244074893e-22</v>
+        <v>1.38636132287618e-21</v>
       </c>
       <c r="H130" t="n">
-        <v>4.138782557396145e-22</v>
+        <v>1.408972816761417e-21</v>
       </c>
       <c r="I130" t="n">
-        <v>4.20533687405545e-22</v>
+        <v>1.431849386413419e-21</v>
       </c>
       <c r="J130" t="n">
-        <v>3.81401392246908e-22</v>
+        <v>1.310693315416316e-21</v>
       </c>
       <c r="K130" t="n">
-        <v>3.875907360389363e-22</v>
+        <v>1.332170060693048e-21</v>
       </c>
       <c r="L130" t="n">
-        <v>3.938528420536362e-22</v>
+        <v>1.353901686514747e-21</v>
       </c>
     </row>
     <row r="131">
@@ -5421,22 +5421,22 @@
         <v>0.5123365989114663</v>
       </c>
       <c r="G131" t="n">
-        <v>6.502630998319884e-24</v>
+        <v>2.234641811847213e-23</v>
       </c>
       <c r="H131" t="n">
-        <v>6.57903133212516e-24</v>
+        <v>2.261149388523704e-23</v>
       </c>
       <c r="I131" t="n">
-        <v>6.655431665930436e-24</v>
+        <v>2.287656965200196e-23</v>
       </c>
       <c r="J131" t="n">
-        <v>6.116581569356517e-24</v>
+        <v>2.122186473176597e-23</v>
       </c>
       <c r="K131" t="n">
-        <v>6.189343792028209e-24</v>
+        <v>2.147674527673224e-23</v>
       </c>
       <c r="L131" t="n">
-        <v>6.262106014699901e-24</v>
+        <v>2.17316258216985e-23</v>
       </c>
     </row>
     <row r="132">
@@ -5459,22 +5459,22 @@
         <v>0.5</v>
       </c>
       <c r="G132" t="n">
-        <v>7.640033380527642e-26</v>
+        <v>2.650757667649178e-25</v>
       </c>
       <c r="H132" t="n">
-        <v>7.640033380527642e-26</v>
+        <v>2.650757667649178e-25</v>
       </c>
       <c r="I132" t="n">
-        <v>7.640033380527642e-26</v>
+        <v>2.650757667649178e-25</v>
       </c>
       <c r="J132" t="n">
-        <v>7.276222267169182e-26</v>
+        <v>2.548805449662671e-25</v>
       </c>
       <c r="K132" t="n">
-        <v>7.276222267169182e-26</v>
+        <v>2.548805449662671e-25</v>
       </c>
       <c r="L132" t="n">
-        <v>7.276222267169182e-26</v>
+        <v>2.548805449662671e-25</v>
       </c>
     </row>
   </sheetData>
